--- a/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27269E01-D7EF-43C5-9266-9038618F9FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28F33E-6375-42B6-8867-AF434D2854CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="78" r:id="rId1"/>
@@ -9632,7 +9632,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="572">
   <si>
     <t>Expected share of space heating demand (%)</t>
   </si>
@@ -13868,6 +13868,10 @@
     <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="117" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13877,10 +13881,6 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -14112,7 +14112,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA55740-0936-456A-93F9-CCB348BCC5F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14156,7 +14156,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DF05D1-A578-4A5F-9170-6FA3029F2016}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14205,7 +14205,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BB5EAA-86A4-4EAD-80E0-88DABF81399D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14255,7 +14255,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABFF4DA-7C9C-4CF2-84DE-473D1F40B604}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14305,7 +14305,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0803A99-9AB0-4096-8F47-80DA01AE97DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14354,7 +14354,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF6A882-3774-48C9-B709-9BBE5E984F96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -14416,7 +14416,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3C41AC-CE19-4D28-A208-F915A7DBB6E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14534,7 +14534,7 @@
         <xdr:cNvPr id="2" name="Down Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14594,7 +14594,7 @@
         <xdr:cNvPr id="3" name="Down Arrow 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14654,7 +14654,7 @@
         <xdr:cNvPr id="4" name="Down Arrow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14714,7 +14714,7 @@
         <xdr:cNvPr id="5" name="Down Arrow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14774,7 +14774,7 @@
         <xdr:cNvPr id="6" name="Down Arrow 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14834,7 +14834,7 @@
         <xdr:cNvPr id="7" name="Down Arrow 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14894,7 +14894,7 @@
         <xdr:cNvPr id="8" name="Down Arrow 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14959,7 +14959,7 @@
         <xdr:cNvPr id="2" name="Arrow: Right 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15024,7 +15024,7 @@
         <xdr:cNvPr id="2" name="Arrow: Right 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15903,25 +15903,25 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="294" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="294" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="294" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="294" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="294" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="294" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" style="294" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="294" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" style="294" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" style="294" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="294" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" style="294" customWidth="1"/>
     <col min="13" max="13" width="10" style="294" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="294" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="294" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="294"/>
+    <col min="14" max="14" width="11.3984375" style="294" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" style="294" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="294"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="424"/>
       <c r="B1" s="424"/>
       <c r="C1" s="424"/>
@@ -15949,7 +15949,7 @@
       <c r="Y1" s="425"/>
       <c r="Z1" s="425"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="424"/>
       <c r="B2" s="424"/>
       <c r="C2" s="424"/>
@@ -15977,7 +15977,7 @@
       <c r="Y2" s="425"/>
       <c r="Z2" s="425"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="424"/>
       <c r="B3" s="424"/>
       <c r="C3" s="424"/>
@@ -16005,7 +16005,7 @@
       <c r="Y3" s="425"/>
       <c r="Z3" s="425"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="424"/>
       <c r="B4" s="424"/>
       <c r="C4" s="424"/>
@@ -16033,7 +16033,7 @@
       <c r="Y4" s="425"/>
       <c r="Z4" s="425"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="424"/>
       <c r="B5" s="424"/>
       <c r="C5" s="424"/>
@@ -16061,7 +16061,7 @@
       <c r="Y5" s="425"/>
       <c r="Z5" s="425"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="424"/>
       <c r="B6" s="424"/>
       <c r="C6" s="424"/>
@@ -16089,7 +16089,7 @@
       <c r="Y6" s="425"/>
       <c r="Z6" s="425"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="424"/>
       <c r="B7" s="424"/>
       <c r="C7" s="424"/>
@@ -16117,7 +16117,7 @@
       <c r="Y7" s="425"/>
       <c r="Z7" s="425"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="424"/>
       <c r="B8" s="424"/>
       <c r="C8" s="424"/>
@@ -16145,7 +16145,7 @@
       <c r="Y8" s="425"/>
       <c r="Z8" s="425"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="424"/>
       <c r="B9" s="424"/>
       <c r="C9" s="424"/>
@@ -16173,7 +16173,7 @@
       <c r="Y9" s="425"/>
       <c r="Z9" s="425"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="424"/>
       <c r="B10" s="424"/>
       <c r="C10" s="424"/>
@@ -16201,7 +16201,7 @@
       <c r="Y10" s="425"/>
       <c r="Z10" s="425"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="424"/>
       <c r="B11" s="424"/>
       <c r="C11" s="424"/>
@@ -16229,7 +16229,7 @@
       <c r="Y11" s="425"/>
       <c r="Z11" s="425"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="424"/>
       <c r="B12" s="424"/>
       <c r="C12" s="424"/>
@@ -16257,7 +16257,7 @@
       <c r="Y12" s="425"/>
       <c r="Z12" s="425"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="424"/>
       <c r="B13" s="424"/>
       <c r="C13" s="424"/>
@@ -16285,7 +16285,7 @@
       <c r="Y13" s="425"/>
       <c r="Z13" s="425"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="424"/>
       <c r="B14" s="424"/>
       <c r="C14" s="424"/>
@@ -16313,7 +16313,7 @@
       <c r="Y14" s="425"/>
       <c r="Z14" s="425"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="424"/>
       <c r="B15" s="424"/>
       <c r="C15" s="424"/>
@@ -16341,7 +16341,7 @@
       <c r="Y15" s="425"/>
       <c r="Z15" s="425"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="440" t="s">
         <v>557</v>
       </c>
@@ -16371,7 +16371,7 @@
       <c r="Y16" s="425"/>
       <c r="Z16" s="425"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="428"/>
       <c r="B17" s="428"/>
       <c r="C17" s="428"/>
@@ -16399,7 +16399,7 @@
       <c r="Y17" s="425"/>
       <c r="Z17" s="425"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="428"/>
       <c r="B18" s="428"/>
       <c r="C18" s="428"/>
@@ -16427,7 +16427,7 @@
       <c r="Y18" s="425"/>
       <c r="Z18" s="425"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="431" t="s">
         <v>68</v>
       </c>
@@ -16459,7 +16459,7 @@
       <c r="Y19" s="425"/>
       <c r="Z19" s="425"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="431" t="s">
         <v>558</v>
       </c>
@@ -16491,7 +16491,7 @@
       <c r="Y20" s="425"/>
       <c r="Z20" s="425"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="431" t="s">
         <v>559</v>
       </c>
@@ -16523,7 +16523,7 @@
       <c r="Y21" s="425"/>
       <c r="Z21" s="425"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="431"/>
       <c r="B22" s="434"/>
       <c r="C22" s="434"/>
@@ -16551,7 +16551,7 @@
       <c r="Y22" s="425"/>
       <c r="Z22" s="425"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="431" t="s">
         <v>560</v>
       </c>
@@ -16581,7 +16581,7 @@
       <c r="Y23" s="425"/>
       <c r="Z23" s="425"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="431"/>
       <c r="B24" s="434"/>
       <c r="C24" s="434"/>
@@ -16609,7 +16609,7 @@
       <c r="Y24" s="425"/>
       <c r="Z24" s="425"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="431"/>
       <c r="B25" s="434"/>
       <c r="C25" s="434"/>
@@ -16637,7 +16637,7 @@
       <c r="Y25" s="425"/>
       <c r="Z25" s="425"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="431" t="s">
         <v>561</v>
       </c>
@@ -16669,7 +16669,7 @@
       <c r="Y26" s="425"/>
       <c r="Z26" s="425"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="431"/>
       <c r="B27" s="434"/>
       <c r="C27" s="434"/>
@@ -16697,7 +16697,7 @@
       <c r="Y27" s="425"/>
       <c r="Z27" s="425"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="431"/>
       <c r="B28" s="434"/>
       <c r="C28" s="434"/>
@@ -16725,7 +16725,7 @@
       <c r="Y28" s="425"/>
       <c r="Z28" s="425"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="431" t="s">
         <v>562</v>
       </c>
@@ -16757,7 +16757,7 @@
       <c r="Y29" s="425"/>
       <c r="Z29" s="425"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="431" t="s">
         <v>563</v>
       </c>
@@ -16789,7 +16789,7 @@
       <c r="Y30" s="425"/>
       <c r="Z30" s="425"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="431" t="s">
         <v>565</v>
       </c>
@@ -16821,7 +16821,7 @@
       <c r="Y31" s="425"/>
       <c r="Z31" s="425"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="437"/>
       <c r="B32" s="438" t="s">
         <v>567</v>
@@ -16851,7 +16851,7 @@
       <c r="Y32" s="425"/>
       <c r="Z32" s="425"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="424"/>
       <c r="B33" s="424"/>
       <c r="C33" s="424"/>
@@ -16879,7 +16879,7 @@
       <c r="Y33" s="425"/>
       <c r="Z33" s="425"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="424"/>
       <c r="B34" s="424"/>
       <c r="C34" s="424"/>
@@ -16907,7 +16907,7 @@
       <c r="Y34" s="425"/>
       <c r="Z34" s="425"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="424"/>
       <c r="B35" s="424"/>
       <c r="C35" s="424"/>
@@ -16935,7 +16935,7 @@
       <c r="Y35" s="425"/>
       <c r="Z35" s="425"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="424"/>
       <c r="B36" s="424"/>
       <c r="C36" s="424"/>
@@ -16963,7 +16963,7 @@
       <c r="Y36" s="425"/>
       <c r="Z36" s="425"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="424"/>
       <c r="B37" s="424"/>
       <c r="C37" s="424"/>
@@ -16991,7 +16991,7 @@
       <c r="Y37" s="425"/>
       <c r="Z37" s="425"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="424"/>
       <c r="B38" s="424"/>
       <c r="C38" s="424"/>
@@ -17019,7 +17019,7 @@
       <c r="Y38" s="425"/>
       <c r="Z38" s="425"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="424"/>
       <c r="B39" s="424"/>
       <c r="C39" s="424"/>
@@ -17047,7 +17047,7 @@
       <c r="Y39" s="425"/>
       <c r="Z39" s="425"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="424"/>
       <c r="B40" s="424"/>
       <c r="C40" s="424"/>
@@ -17075,7 +17075,7 @@
       <c r="Y40" s="425"/>
       <c r="Z40" s="425"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="424"/>
       <c r="B41" s="424"/>
       <c r="C41" s="424"/>
@@ -17103,7 +17103,7 @@
       <c r="Y41" s="425"/>
       <c r="Z41" s="425"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="424"/>
       <c r="B42" s="424"/>
       <c r="C42" s="424"/>
@@ -17131,7 +17131,7 @@
       <c r="Y42" s="425"/>
       <c r="Z42" s="425"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="425"/>
       <c r="B43" s="425"/>
       <c r="C43" s="425"/>
@@ -17159,7 +17159,7 @@
       <c r="Y43" s="425"/>
       <c r="Z43" s="425"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="425"/>
       <c r="B44" s="425"/>
       <c r="C44" s="425"/>
@@ -17187,7 +17187,7 @@
       <c r="Y44" s="425"/>
       <c r="Z44" s="425"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="425"/>
       <c r="B45" s="425"/>
       <c r="C45" s="425"/>
@@ -17215,7 +17215,7 @@
       <c r="Y45" s="425"/>
       <c r="Z45" s="425"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="425"/>
       <c r="B46" s="425"/>
       <c r="C46" s="425"/>
@@ -17243,7 +17243,7 @@
       <c r="Y46" s="425"/>
       <c r="Z46" s="425"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="425"/>
       <c r="B47" s="425"/>
       <c r="C47" s="425"/>
@@ -17271,7 +17271,7 @@
       <c r="Y47" s="425"/>
       <c r="Z47" s="425"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="425"/>
       <c r="B48" s="425"/>
       <c r="C48" s="425"/>
@@ -17299,7 +17299,7 @@
       <c r="Y48" s="425"/>
       <c r="Z48" s="425"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="425"/>
       <c r="B49" s="425"/>
       <c r="C49" s="425"/>
@@ -17327,7 +17327,7 @@
       <c r="Y49" s="425"/>
       <c r="Z49" s="425"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="425"/>
       <c r="B50" s="425"/>
       <c r="C50" s="425"/>
@@ -17355,7 +17355,7 @@
       <c r="Y50" s="425"/>
       <c r="Z50" s="425"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="425"/>
       <c r="B51" s="425"/>
       <c r="C51" s="425"/>
@@ -17383,7 +17383,7 @@
       <c r="Y51" s="425"/>
       <c r="Z51" s="425"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="425"/>
       <c r="B52" s="425"/>
       <c r="C52" s="425"/>
@@ -17411,7 +17411,7 @@
       <c r="Y52" s="425"/>
       <c r="Z52" s="425"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="425"/>
       <c r="B53" s="425"/>
       <c r="C53" s="425"/>
@@ -17439,7 +17439,7 @@
       <c r="Y53" s="425"/>
       <c r="Z53" s="425"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="425"/>
       <c r="B54" s="425"/>
       <c r="C54" s="425"/>
@@ -17467,7 +17467,7 @@
       <c r="Y54" s="425"/>
       <c r="Z54" s="425"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="425"/>
       <c r="B55" s="425"/>
       <c r="C55" s="425"/>
@@ -17495,7 +17495,7 @@
       <c r="Y55" s="425"/>
       <c r="Z55" s="425"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="425"/>
       <c r="B56" s="425"/>
       <c r="C56" s="425"/>
@@ -17523,7 +17523,7 @@
       <c r="Y56" s="425"/>
       <c r="Z56" s="425"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="425"/>
       <c r="B57" s="425"/>
       <c r="C57" s="425"/>
@@ -17551,7 +17551,7 @@
       <c r="Y57" s="425"/>
       <c r="Z57" s="425"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="425"/>
       <c r="B58" s="425"/>
       <c r="C58" s="425"/>
@@ -17579,7 +17579,7 @@
       <c r="Y58" s="425"/>
       <c r="Z58" s="425"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="425"/>
       <c r="B59" s="425"/>
       <c r="C59" s="425"/>
@@ -17607,7 +17607,7 @@
       <c r="Y59" s="425"/>
       <c r="Z59" s="425"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="425"/>
       <c r="B60" s="425"/>
       <c r="C60" s="425"/>
@@ -17635,7 +17635,7 @@
       <c r="Y60" s="425"/>
       <c r="Z60" s="425"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="425"/>
       <c r="B61" s="425"/>
       <c r="C61" s="425"/>
@@ -17663,7 +17663,7 @@
       <c r="Y61" s="425"/>
       <c r="Z61" s="425"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="425"/>
       <c r="B62" s="425"/>
       <c r="C62" s="425"/>
@@ -17691,7 +17691,7 @@
       <c r="Y62" s="425"/>
       <c r="Z62" s="425"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="425"/>
       <c r="B63" s="425"/>
       <c r="C63" s="425"/>
@@ -17719,7 +17719,7 @@
       <c r="Y63" s="425"/>
       <c r="Z63" s="425"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="425"/>
       <c r="B64" s="425"/>
       <c r="C64" s="425"/>
@@ -17747,7 +17747,7 @@
       <c r="Y64" s="425"/>
       <c r="Z64" s="425"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="425"/>
       <c r="B65" s="425"/>
       <c r="C65" s="425"/>
@@ -17775,7 +17775,7 @@
       <c r="Y65" s="425"/>
       <c r="Z65" s="425"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="425"/>
       <c r="B66" s="425"/>
       <c r="C66" s="425"/>
@@ -17803,7 +17803,7 @@
       <c r="Y66" s="425"/>
       <c r="Z66" s="425"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="425"/>
       <c r="B67" s="425"/>
       <c r="C67" s="425"/>
@@ -17831,7 +17831,7 @@
       <c r="Y67" s="425"/>
       <c r="Z67" s="425"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="425"/>
       <c r="B68" s="425"/>
       <c r="C68" s="425"/>
@@ -17859,7 +17859,7 @@
       <c r="Y68" s="425"/>
       <c r="Z68" s="425"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="425"/>
       <c r="B69" s="425"/>
       <c r="C69" s="425"/>
@@ -17887,7 +17887,7 @@
       <c r="Y69" s="425"/>
       <c r="Z69" s="425"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="425"/>
       <c r="B70" s="425"/>
       <c r="C70" s="425"/>
@@ -17915,7 +17915,7 @@
       <c r="Y70" s="425"/>
       <c r="Z70" s="425"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="425"/>
       <c r="B71" s="425"/>
       <c r="C71" s="425"/>
@@ -17943,7 +17943,7 @@
       <c r="Y71" s="425"/>
       <c r="Z71" s="425"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="425"/>
       <c r="B72" s="425"/>
       <c r="C72" s="425"/>
@@ -17971,7 +17971,7 @@
       <c r="Y72" s="425"/>
       <c r="Z72" s="425"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="425"/>
       <c r="B73" s="425"/>
       <c r="C73" s="425"/>
@@ -17999,7 +17999,7 @@
       <c r="Y73" s="425"/>
       <c r="Z73" s="425"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="425"/>
       <c r="B74" s="425"/>
       <c r="C74" s="425"/>
@@ -18027,7 +18027,7 @@
       <c r="Y74" s="425"/>
       <c r="Z74" s="425"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="425"/>
       <c r="B75" s="425"/>
       <c r="C75" s="425"/>
@@ -18055,7 +18055,7 @@
       <c r="Y75" s="425"/>
       <c r="Z75" s="425"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="425"/>
       <c r="B76" s="425"/>
       <c r="C76" s="425"/>
@@ -18083,7 +18083,7 @@
       <c r="Y76" s="425"/>
       <c r="Z76" s="425"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="425"/>
       <c r="B77" s="425"/>
       <c r="C77" s="425"/>
@@ -18111,7 +18111,7 @@
       <c r="Y77" s="425"/>
       <c r="Z77" s="425"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="425"/>
       <c r="B78" s="425"/>
       <c r="C78" s="425"/>
@@ -18139,7 +18139,7 @@
       <c r="Y78" s="425"/>
       <c r="Z78" s="425"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="425"/>
       <c r="B79" s="425"/>
       <c r="C79" s="425"/>
@@ -18167,7 +18167,7 @@
       <c r="Y79" s="425"/>
       <c r="Z79" s="425"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="425"/>
       <c r="B80" s="425"/>
       <c r="C80" s="425"/>
@@ -18195,7 +18195,7 @@
       <c r="Y80" s="425"/>
       <c r="Z80" s="425"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="425"/>
       <c r="B81" s="425"/>
       <c r="C81" s="425"/>
@@ -18223,7 +18223,7 @@
       <c r="Y81" s="425"/>
       <c r="Z81" s="425"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="425"/>
       <c r="B82" s="425"/>
       <c r="C82" s="425"/>
@@ -18251,7 +18251,7 @@
       <c r="Y82" s="425"/>
       <c r="Z82" s="425"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="425"/>
       <c r="B83" s="425"/>
       <c r="C83" s="425"/>
@@ -18279,7 +18279,7 @@
       <c r="Y83" s="425"/>
       <c r="Z83" s="425"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="425"/>
       <c r="B84" s="425"/>
       <c r="C84" s="425"/>
@@ -18307,7 +18307,7 @@
       <c r="Y84" s="425"/>
       <c r="Z84" s="425"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="425"/>
       <c r="B85" s="425"/>
       <c r="C85" s="425"/>
@@ -18335,7 +18335,7 @@
       <c r="Y85" s="425"/>
       <c r="Z85" s="425"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="425"/>
       <c r="B86" s="425"/>
       <c r="C86" s="425"/>
@@ -18363,7 +18363,7 @@
       <c r="Y86" s="425"/>
       <c r="Z86" s="425"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="425"/>
       <c r="B87" s="425"/>
       <c r="C87" s="425"/>
@@ -18391,7 +18391,7 @@
       <c r="Y87" s="425"/>
       <c r="Z87" s="425"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="425"/>
       <c r="B88" s="425"/>
       <c r="C88" s="425"/>
@@ -18419,7 +18419,7 @@
       <c r="Y88" s="425"/>
       <c r="Z88" s="425"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="425"/>
       <c r="B89" s="425"/>
       <c r="C89" s="425"/>
@@ -18447,7 +18447,7 @@
       <c r="Y89" s="425"/>
       <c r="Z89" s="425"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="425"/>
       <c r="B90" s="425"/>
       <c r="C90" s="425"/>
@@ -18475,7 +18475,7 @@
       <c r="Y90" s="425"/>
       <c r="Z90" s="425"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="425"/>
       <c r="B91" s="425"/>
       <c r="C91" s="425"/>
@@ -18503,7 +18503,7 @@
       <c r="Y91" s="425"/>
       <c r="Z91" s="425"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="425"/>
       <c r="B92" s="425"/>
       <c r="C92" s="425"/>
@@ -18531,7 +18531,7 @@
       <c r="Y92" s="425"/>
       <c r="Z92" s="425"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="425"/>
       <c r="B93" s="425"/>
       <c r="C93" s="425"/>
@@ -18559,7 +18559,7 @@
       <c r="Y93" s="425"/>
       <c r="Z93" s="425"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="425"/>
       <c r="B94" s="425"/>
       <c r="C94" s="425"/>
@@ -18587,7 +18587,7 @@
       <c r="Y94" s="425"/>
       <c r="Z94" s="425"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="425"/>
       <c r="B95" s="425"/>
       <c r="C95" s="425"/>
@@ -18615,7 +18615,7 @@
       <c r="Y95" s="425"/>
       <c r="Z95" s="425"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="425"/>
       <c r="B96" s="425"/>
       <c r="C96" s="425"/>
@@ -18643,7 +18643,7 @@
       <c r="Y96" s="425"/>
       <c r="Z96" s="425"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="425"/>
       <c r="B97" s="425"/>
       <c r="C97" s="425"/>
@@ -18671,7 +18671,7 @@
       <c r="Y97" s="425"/>
       <c r="Z97" s="425"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="425"/>
       <c r="B98" s="425"/>
       <c r="C98" s="425"/>
@@ -18699,7 +18699,7 @@
       <c r="Y98" s="425"/>
       <c r="Z98" s="425"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="425"/>
       <c r="B99" s="425"/>
       <c r="C99" s="425"/>
@@ -18758,22 +18758,22 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="23" customWidth="1"/>
-    <col min="2" max="3" width="27.28515625" style="23" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="23"/>
-    <col min="7" max="7" width="42.7109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="56.7109375" style="23" customWidth="1"/>
-    <col min="9" max="9" width="101.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="19.59765625" style="23" customWidth="1"/>
+    <col min="2" max="3" width="27.265625" style="23" customWidth="1"/>
+    <col min="4" max="6" width="9.1328125" style="23"/>
+    <col min="7" max="7" width="42.73046875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="56.73046875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="101.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>69</v>
       </c>
@@ -18784,49 +18784,49 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="442" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="446" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="442" t="s">
+      <c r="B3" s="446" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="442" t="s">
+      <c r="C3" s="446" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="444" t="s">
+      <c r="D3" s="448" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="444"/>
-      <c r="F3" s="442" t="s">
+      <c r="E3" s="448"/>
+      <c r="F3" s="446" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="442" t="s">
+      <c r="G3" s="446" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="442" t="s">
+      <c r="H3" s="446" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="442" t="s">
+      <c r="I3" s="446" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="443"/>
-      <c r="B4" s="443"/>
-      <c r="C4" s="443"/>
+    <row r="4" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="447"/>
+      <c r="B4" s="447"/>
+      <c r="C4" s="447"/>
       <c r="D4" s="72" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="443"/>
-      <c r="G4" s="443"/>
-      <c r="H4" s="443"/>
-      <c r="I4" s="443"/>
+      <c r="F4" s="447"/>
+      <c r="G4" s="447"/>
+      <c r="H4" s="447"/>
+      <c r="I4" s="447"/>
     </row>
-    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A5" s="36" t="s">
         <v>547</v>
       </c>
@@ -18855,7 +18855,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6" s="36" t="s">
         <v>550</v>
       </c>
@@ -18884,7 +18884,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A7" s="36" t="s">
         <v>551</v>
       </c>
@@ -18901,40 +18901,40 @@
       <c r="H7" s="73"/>
       <c r="I7" s="75"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="190" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="166"/>
       <c r="C10" s="167"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="189"/>
-      <c r="B11" s="445" t="str">
+      <c r="B11" s="442" t="str">
         <f>"Data summary table with data from "&amp;A5</f>
         <v>Data summary table with data from S1</v>
       </c>
-      <c r="C11" s="446"/>
+      <c r="C11" s="443"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="29"/>
-      <c r="B12" s="447" t="s">
+      <c r="B12" s="444" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="448"/>
+      <c r="C12" s="445"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="165" t="s">
         <v>169</v>
       </c>
       <c r="B14" s="184"/>
       <c r="C14" s="185"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="183" t="s">
         <v>403</v>
       </c>
@@ -18943,7 +18943,7 @@
       </c>
       <c r="C15" s="187"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="181" t="s">
         <v>403</v>
       </c>
@@ -18952,21 +18952,21 @@
       </c>
       <c r="C16" s="188"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="182"/>
       <c r="B17" s="180" t="s">
         <v>406</v>
       </c>
       <c r="C17" s="182"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.45">
       <c r="A20" s="174" t="s">
         <v>310</v>
       </c>
       <c r="B20" s="168"/>
       <c r="C20" s="168"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="179" t="s">
         <v>311</v>
       </c>
@@ -18977,14 +18977,14 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="178" t="s">
         <v>314</v>
       </c>
       <c r="B22" s="177"/>
       <c r="C22" s="177"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="171" t="s">
         <v>315</v>
       </c>
@@ -18993,7 +18993,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="173" t="s">
         <v>317</v>
       </c>
@@ -19002,14 +19002,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="175" t="s">
         <v>318</v>
       </c>
       <c r="B25" s="171"/>
       <c r="C25" s="171"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="171" t="s">
         <v>319</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="171" t="s">
         <v>321</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="171" t="s">
         <v>323</v>
       </c>
@@ -19036,14 +19036,14 @@
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="175" t="s">
         <v>325</v>
       </c>
       <c r="B29" s="171"/>
       <c r="C29" s="171"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="171" t="s">
         <v>326</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="171" t="s">
         <v>328</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="171" t="s">
         <v>330</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="171" t="s">
         <v>332</v>
       </c>
@@ -19079,7 +19079,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="171" t="s">
         <v>334</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="171" t="s">
         <v>336</v>
       </c>
@@ -19097,7 +19097,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="176" t="s">
         <v>338</v>
       </c>
@@ -19106,14 +19106,14 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="170" t="s">
         <v>340</v>
       </c>
       <c r="B37" s="168"/>
       <c r="C37" s="168"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="171" t="s">
         <v>341</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="171" t="s">
         <v>344</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="171" t="s">
         <v>346</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="171" t="s">
         <v>349</v>
       </c>
@@ -19157,7 +19157,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="171" t="s">
         <v>156</v>
       </c>
@@ -19168,7 +19168,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="171" t="s">
         <v>354</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="171" t="s">
         <v>22</v>
       </c>
@@ -19190,7 +19190,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="171" t="s">
         <v>359</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="169" t="s">
         <v>362</v>
       </c>
@@ -19212,7 +19212,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="169" t="s">
         <v>554</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="171" t="s">
         <v>365</v>
       </c>
@@ -19234,7 +19234,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="171" t="s">
         <v>368</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="171" t="s">
         <v>371</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="171" t="s">
         <v>374</v>
       </c>
@@ -19267,7 +19267,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="171" t="s">
         <v>377</v>
       </c>
@@ -19278,7 +19278,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="173" t="s">
         <v>380</v>
       </c>
@@ -19291,16 +19291,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19316,40 +19316,40 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="272" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="272" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="272" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="272" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="272" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="272" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="272" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="272" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="272" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="272" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="272" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="272" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="272" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="272" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="272" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="272" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="272" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="272" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="272" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="272" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="272" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="272" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="272" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="272" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="272" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" style="272" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" style="272" customWidth="1"/>
+    <col min="3" max="3" width="3.1328125" style="272" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" style="272" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" style="272" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.86328125" style="272" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.73046875" style="272" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.86328125" style="272" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" style="272" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.73046875" style="272" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.59765625" style="272" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" style="272" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.73046875" style="272" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.59765625" style="272" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.265625" style="272" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.73046875" style="272" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1328125" style="272" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="272" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.59765625" style="272" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.86328125" style="272" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.73046875" style="272" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.86328125" style="272" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.59765625" style="272" customWidth="1"/>
+    <col min="25" max="25" width="6.73046875" style="272" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1328125" style="272" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="272" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="272" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="272" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="272"/>
+    <col min="29" max="29" width="5.73046875" style="272" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.73046875" style="272" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1328125" style="272"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C3" s="273" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -19463,12 +19463,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" s="272">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" s="272" t="s">
         <v>417</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" s="272" t="s">
         <v>420</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="272" t="s">
         <v>421</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="275" t="s">
         <v>80</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" s="276" t="s">
         <v>423</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" s="277" t="s">
         <v>425</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" s="277" t="s">
         <v>427</v>
       </c>
@@ -19849,7 +19849,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" s="277" t="s">
         <v>429</v>
       </c>
@@ -19857,7 +19857,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" s="277" t="s">
         <v>431</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" s="277" t="s">
         <v>433</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="277" t="s">
         <v>435</v>
       </c>
@@ -19881,7 +19881,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="277" t="s">
         <v>437</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="277" t="s">
         <v>439</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="277" t="s">
         <v>441</v>
       </c>
@@ -19905,7 +19905,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="277" t="s">
         <v>443</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="277" t="s">
         <v>445</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="277" t="s">
         <v>447</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="277" t="s">
         <v>449</v>
       </c>
@@ -19937,7 +19937,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="277" t="s">
         <v>451</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="277" t="s">
         <v>453</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="277" t="s">
         <v>455</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="277" t="s">
         <v>457</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="277" t="s">
         <v>459</v>
       </c>
@@ -19977,7 +19977,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="277" t="s">
         <v>461</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="277" t="s">
         <v>463</v>
       </c>
@@ -19993,7 +19993,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="277" t="s">
         <v>465</v>
       </c>
@@ -20001,7 +20001,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="277" t="s">
         <v>467</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="277" t="s">
         <v>469</v>
       </c>
@@ -20017,7 +20017,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="277" t="s">
         <v>471</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="277" t="s">
         <v>473</v>
       </c>
@@ -20033,7 +20033,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="278" t="s">
         <v>475</v>
       </c>
@@ -20081,37 +20081,37 @@
   </sheetPr>
   <dimension ref="A1:AY122"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="AP42" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="AR42" sqref="AR42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26" style="30" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="33" width="11.140625" style="30" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="281" customWidth="1"/>
-    <col min="35" max="36" width="11.140625" style="30" customWidth="1"/>
-    <col min="37" max="37" width="9.85546875" style="30" customWidth="1"/>
-    <col min="38" max="40" width="8.28515625" style="30" customWidth="1"/>
-    <col min="41" max="41" width="69.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.42578125" style="32" customWidth="1"/>
-    <col min="43" max="44" width="15.5703125" style="32" customWidth="1"/>
-    <col min="45" max="45" width="21.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="64.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="9.140625" style="32"/>
-    <col min="50" max="50" width="10.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="32"/>
+    <col min="2" max="2" width="64.73046875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.86328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="33" width="11.1328125" style="30" customWidth="1"/>
+    <col min="34" max="34" width="11.1328125" style="281" customWidth="1"/>
+    <col min="35" max="36" width="11.1328125" style="30" customWidth="1"/>
+    <col min="37" max="37" width="9.86328125" style="30" customWidth="1"/>
+    <col min="38" max="40" width="8.265625" style="30" customWidth="1"/>
+    <col min="41" max="41" width="69.86328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.3984375" style="32" customWidth="1"/>
+    <col min="43" max="44" width="15.59765625" style="32" customWidth="1"/>
+    <col min="45" max="45" width="21.265625" style="32" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="64.265625" style="32" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="9.1328125" style="32"/>
+    <col min="50" max="50" width="10.265625" style="32" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.1328125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A1" s="62" t="s">
         <v>508</v>
       </c>
@@ -20136,7 +20136,7 @@
       <c r="W1" s="31"/>
       <c r="AB1" s="85"/>
     </row>
-    <row r="2" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="88" t="s">
         <v>80</v>
       </c>
@@ -20218,7 +20218,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
     </row>
-    <row r="3" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="90"/>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
@@ -20328,7 +20328,7 @@
       <c r="AQ3" s="33"/>
       <c r="AR3" s="33"/>
     </row>
-    <row r="4" spans="1:51" s="175" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" s="175" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="76" t="s">
         <v>96</v>
       </c>
@@ -20381,7 +20381,7 @@
       <c r="AX4" s="77"/>
       <c r="AY4" s="77"/>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A5" s="32" t="s">
         <v>383</v>
       </c>
@@ -20492,7 +20492,7 @@
       </c>
       <c r="AO5" s="32"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A6" s="32" t="s">
         <v>384</v>
       </c>
@@ -20620,7 +20620,7 @@
       </c>
       <c r="AO6" s="32"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A7" s="32" t="s">
         <v>385</v>
       </c>
@@ -20731,7 +20731,7 @@
       </c>
       <c r="AO7" s="32"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A8" s="32" t="s">
         <v>386</v>
       </c>
@@ -20859,7 +20859,7 @@
       </c>
       <c r="AO8" s="32"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A9" s="32" t="s">
         <v>414</v>
       </c>
@@ -20988,7 +20988,7 @@
       </c>
       <c r="AO9" s="32"/>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A10" s="32" t="s">
         <v>415</v>
       </c>
@@ -21122,7 +21122,7 @@
         <v>Add. INV: Chimney and water tank</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A11" s="32" t="s">
         <v>387</v>
       </c>
@@ -21233,7 +21233,7 @@
       </c>
       <c r="AO11" s="32"/>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A12" s="32" t="s">
         <v>388</v>
       </c>
@@ -21359,7 +21359,7 @@
       </c>
       <c r="AO12" s="32"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A13" s="32" t="s">
         <v>389</v>
       </c>
@@ -21475,7 +21475,7 @@
         <v>Add. INV: Biomass storage</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A14" s="36" t="s">
         <v>390</v>
       </c>
@@ -21614,7 +21614,7 @@
       <c r="AX14" s="36"/>
       <c r="AY14" s="36"/>
     </row>
-    <row r="15" spans="1:51" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="49" t="s">
         <v>97</v>
       </c>
@@ -21655,7 +21655,7 @@
       <c r="AM15" s="57"/>
       <c r="AN15" s="57"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A16" s="36" t="s">
         <v>391</v>
       </c>
@@ -21775,7 +21775,7 @@
       <c r="AX16" s="36"/>
       <c r="AY16" s="36"/>
     </row>
-    <row r="17" spans="1:51" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="49" t="s">
         <v>98</v>
       </c>
@@ -21814,7 +21814,7 @@
       <c r="AM17" s="57"/>
       <c r="AN17" s="57"/>
     </row>
-    <row r="18" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="32" t="s">
         <v>392</v>
       </c>
@@ -21928,7 +21928,7 @@
       <c r="AO18" s="32"/>
       <c r="AP18" s="41"/>
     </row>
-    <row r="19" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="32" t="s">
         <v>393</v>
       </c>
@@ -22059,7 +22059,7 @@
       <c r="AO19" s="32"/>
       <c r="AP19" s="41"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A20" s="32" t="s">
         <v>394</v>
       </c>
@@ -22173,7 +22173,7 @@
       </c>
       <c r="AO20" s="32"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A21" s="32" t="s">
         <v>395</v>
       </c>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="AO21" s="32"/>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A22" s="32" t="s">
         <v>478</v>
       </c>
@@ -22434,7 +22434,7 @@
       </c>
       <c r="AO22" s="32"/>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A23" s="32" t="s">
         <v>396</v>
       </c>
@@ -22552,7 +22552,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="32" t="s">
         <v>397</v>
       </c>
@@ -22685,7 +22685,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="32" t="s">
         <v>398</v>
       </c>
@@ -22812,7 +22812,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A26" s="32" t="s">
         <v>399</v>
       </c>
@@ -22941,7 +22941,7 @@
       </c>
       <c r="AO26" s="32"/>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A27" s="36" t="s">
         <v>400</v>
       </c>
@@ -23079,7 +23079,7 @@
       <c r="AX27" s="36"/>
       <c r="AY27" s="36"/>
     </row>
-    <row r="28" spans="1:51" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="49" t="s">
         <v>99</v>
       </c>
@@ -23117,7 +23117,7 @@
       <c r="AM28" s="57"/>
       <c r="AN28" s="57"/>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A29" s="36" t="s">
         <v>401</v>
       </c>
@@ -23252,7 +23252,7 @@
       <c r="AX29" s="36"/>
       <c r="AY29" s="36"/>
     </row>
-    <row r="30" spans="1:51" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="57" t="s">
         <v>100</v>
       </c>
@@ -23291,7 +23291,7 @@
       <c r="AM30" s="57"/>
       <c r="AN30" s="57"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A31" s="32" t="s">
         <v>391</v>
       </c>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="AO31" s="32"/>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A32" s="32" t="s">
         <v>402</v>
       </c>
@@ -23496,7 +23496,7 @@
       </c>
       <c r="AO32" s="32"/>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A33" s="32" t="s">
         <v>385</v>
       </c>
@@ -23607,7 +23607,7 @@
       </c>
       <c r="AO33" s="32"/>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A34" s="32" t="s">
         <v>389</v>
       </c>
@@ -23718,7 +23718,7 @@
       </c>
       <c r="AO34" s="32"/>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A35" s="36" t="s">
         <v>387</v>
       </c>
@@ -23838,7 +23838,7 @@
       <c r="AX35" s="36"/>
       <c r="AY35" s="36"/>
     </row>
-    <row r="36" spans="1:51" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="57" t="s">
         <v>101</v>
       </c>
@@ -23877,7 +23877,7 @@
       <c r="AM36" s="57"/>
       <c r="AN36" s="57"/>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A37" s="32" t="s">
         <v>391</v>
       </c>
@@ -23988,7 +23988,7 @@
       </c>
       <c r="AO37" s="32"/>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A38" s="36" t="s">
         <v>392</v>
       </c>
@@ -24108,7 +24108,7 @@
       <c r="AX38" s="36"/>
       <c r="AY38" s="36"/>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A39" s="32"/>
       <c r="B39" s="42"/>
       <c r="C39" s="32"/>
@@ -24151,7 +24151,7 @@
       <c r="AN39" s="32"/>
       <c r="AO39" s="32"/>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A40" s="32"/>
       <c r="B40" s="42"/>
       <c r="C40" s="32"/>
@@ -24194,12 +24194,12 @@
       <c r="AN40" s="32"/>
       <c r="AO40" s="32"/>
     </row>
-    <row r="41" spans="1:51" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A41" s="78" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:51" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" ht="21" x14ac:dyDescent="0.45">
       <c r="A42" s="79" t="str">
         <f>Legend!A23</f>
         <v>Commercial Services</v>
@@ -24248,7 +24248,7 @@
       <c r="AN42" s="32"/>
       <c r="AO42" s="32"/>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A43" s="63" t="s">
         <v>110</v>
       </c>
@@ -24295,7 +24295,7 @@
       <c r="AX43" s="34"/>
       <c r="AY43" s="34"/>
     </row>
-    <row r="44" spans="1:51" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:51" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="65" t="s">
         <v>112</v>
       </c>
@@ -24464,7 +24464,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:51" s="97" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" s="97" customFormat="1" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A45" s="94" t="s">
         <v>182</v>
       </c>
@@ -24556,7 +24556,7 @@
       </c>
       <c r="AY45" s="94"/>
     </row>
-    <row r="46" spans="1:51" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" s="97" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
       <c r="A46" s="94" t="s">
         <v>124</v>
       </c>
@@ -24634,7 +24634,7 @@
       <c r="AX46" s="94"/>
       <c r="AY46" s="94"/>
     </row>
-    <row r="47" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="224" t="s">
         <v>96</v>
       </c>
@@ -24713,7 +24713,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="42" t="str">
         <f>IF(SRV_TH!AM5="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A5)</f>
         <v>S-SH-CS_OIL_N1</v>
@@ -24880,7 +24880,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="49" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="42" t="str">
         <f>IF(SRV_TH!AM6="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A6)</f>
         <v>S-SH-CS_OIL_N2</v>
@@ -25047,7 +25047,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="50" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="42" t="str">
         <f>IF(SRV_TH!AM7="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A7)</f>
         <v>S-SH-CS_GAS_N1</v>
@@ -25214,7 +25214,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="51" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="42" t="str">
         <f>IF(SRV_TH!AM8="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A8)</f>
         <v>S-SH-CS_GAS_N2</v>
@@ -25381,7 +25381,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="52" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="42" t="str">
         <f>IF(SRV_TH!AM9="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A9)</f>
         <v>S-SH-CS_GAS_N3</v>
@@ -25548,7 +25548,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="53" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="42" t="str">
         <f>IF(SRV_TH!AM10="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"-"&amp;SRV_TH!$A10)</f>
         <v>S-SH-CS-GAS_N4</v>
@@ -25715,7 +25715,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="54" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="42" t="str">
         <f>IF(SRV_TH!AM11="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A11)</f>
         <v>S-SH-CS_LPG_N1</v>
@@ -25882,7 +25882,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="55" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="42" t="str">
         <f>IF(SRV_TH!AM12="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A12)</f>
         <v>S-SH-CS_LPG_N2</v>
@@ -26049,7 +26049,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="56" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="42" t="str">
         <f>IF(SRV_TH!AM13="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A13)</f>
         <v>S-SH-CS_BIO_N1</v>
@@ -26217,7 +26217,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="57" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="45" t="str">
         <f>IF(SRV_TH!AM14="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A14)</f>
         <v>S-SH-CS_BIO_N2</v>
@@ -26387,7 +26387,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="58" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="57" t="s">
         <v>97</v>
       </c>
@@ -26469,7 +26469,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="45" t="str">
         <f>IF(SRV_TH!AM16="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A16)</f>
         <v>S-SH-CS_ELC_N1</v>
@@ -26639,7 +26639,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="60" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="57" t="s">
         <v>98</v>
       </c>
@@ -26721,7 +26721,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="42" t="str">
         <f>IF(SRV_TH!AM18="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A18)</f>
         <v>S-SH-CS_ELC_N2</v>
@@ -26892,7 +26892,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="62" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="42" t="str">
         <f>IF(SRV_TH!AM19="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A19)</f>
         <v>S-SH-CS_ELC_N3</v>
@@ -27063,7 +27063,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="63" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="42" t="str">
         <f>IF(SRV_TH!AM20="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A20)</f>
         <v>S-SH-CS_ELC_N4</v>
@@ -27234,7 +27234,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="64" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="42" t="str">
         <f>IF(SRV_TH!AM21="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A21)</f>
         <v>S-SH-CS_ELC_N5</v>
@@ -27405,7 +27405,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="65" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="42" t="str">
         <f>IF(SRV_TH!AM22="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A22)</f>
         <v>S-SH-CS_ELC_N6</v>
@@ -27576,7 +27576,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="66" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="42" t="str">
         <f>IF(SRV_TH!AM23="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A23)</f>
         <v>S-SH-CS_ELC_N7</v>
@@ -27747,7 +27747,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="67" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="42" t="str">
         <f>IF(SRV_TH!AM24="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A24)</f>
         <v>S-SH-CS_ELC_N8</v>
@@ -27918,7 +27918,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="68" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="42" t="str">
         <f>IF(SRV_TH!AM25="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A25)</f>
         <v>S-SH-CS_ELC_N9</v>
@@ -28089,7 +28089,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="69" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="42" t="str">
         <f>IF(SRV_TH!AM26="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A26)</f>
         <v>S-SH-CS_GAS_N5</v>
@@ -28260,7 +28260,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="70" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="45" t="str">
         <f>IF(SRV_TH!AM27="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A27)</f>
         <v>S-SH-CS_GAS_N6</v>
@@ -28433,7 +28433,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="71" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="57" t="s">
         <v>99</v>
       </c>
@@ -28515,7 +28515,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="45" t="str">
         <f>IF(SRV_TH!AM29="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A29)</f>
         <v>S-SH-CS_HET_N1</v>
@@ -28685,7 +28685,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="73" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="57" t="s">
         <v>100</v>
       </c>
@@ -28767,7 +28767,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="42" t="str">
         <f>IF(SRV_TH!AM31="","*","S-WH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A31)</f>
         <v>S-WH-CS_ELC_N1</v>
@@ -28934,7 +28934,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="75" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="42" t="str">
         <f>IF(SRV_TH!AM32="","*","S-WH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A32)</f>
         <v>S-WH-CS_SOL_N1</v>
@@ -29101,7 +29101,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="76" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="42" t="str">
         <f>IF(SRV_TH!AM33="","*","S-WH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A33)</f>
         <v>S-WH-CS_GAS_N1</v>
@@ -29268,7 +29268,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="77" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="42" t="str">
         <f>IF(SRV_TH!AM34="","*","S-WH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A34)</f>
         <v>S-WH-CS_BIO_N1</v>
@@ -29435,7 +29435,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="78" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="45" t="str">
         <f>IF(SRV_TH!AM35="","*","S-WH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A35)</f>
         <v>S-WH-CS_LPG_N1</v>
@@ -29605,7 +29605,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="79" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="57" t="s">
         <v>101</v>
       </c>
@@ -29687,7 +29687,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="42" t="str">
         <f>IF(SRV_TH!AM37="","*","S-SC-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A37)</f>
         <v>S-SC-CS_ELC_N1</v>
@@ -29854,7 +29854,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="81" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="45" t="str">
         <f>IF(SRV_TH!AM38="","*","S-SC-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A38)</f>
         <v>S-SC-CS_ELC_N2</v>
@@ -30021,7 +30021,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A82" s="32"/>
       <c r="B82" s="42"/>
       <c r="C82" s="32"/>
@@ -30064,7 +30064,7 @@
       <c r="AN82" s="32"/>
       <c r="AO82" s="32"/>
     </row>
-    <row r="83" spans="1:51" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:51" ht="21" x14ac:dyDescent="0.45">
       <c r="A83" s="79" t="str">
         <f>Legend!A24</f>
         <v>Public Services</v>
@@ -30113,7 +30113,7 @@
       <c r="AN83" s="32"/>
       <c r="AO83" s="32"/>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A84" s="63" t="s">
         <v>110</v>
       </c>
@@ -30160,7 +30160,7 @@
       <c r="AX84" s="34"/>
       <c r="AY84" s="34"/>
     </row>
-    <row r="85" spans="1:51" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:51" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="65" t="s">
         <v>112</v>
       </c>
@@ -30304,7 +30304,9 @@
       <c r="AQ85" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="AR85" s="67"/>
+      <c r="AR85" s="67" t="s">
+        <v>476</v>
+      </c>
       <c r="AS85" s="67" t="s">
         <v>112</v>
       </c>
@@ -30327,7 +30329,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:51" s="97" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:51" s="97" customFormat="1" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A86" s="94" t="s">
         <v>182</v>
       </c>
@@ -30417,7 +30419,7 @@
       </c>
       <c r="AY86" s="94"/>
     </row>
-    <row r="87" spans="1:51" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:51" s="97" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
       <c r="A87" s="94" t="s">
         <v>124</v>
       </c>
@@ -30495,7 +30497,7 @@
       <c r="AX87" s="94"/>
       <c r="AY87" s="94"/>
     </row>
-    <row r="88" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="224" t="s">
         <v>96</v>
       </c>
@@ -30574,7 +30576,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="42" t="str">
         <f>IF(SRV_TH!AN5="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A5)</f>
         <v>S-SH-PU_OIL_N1</v>
@@ -30741,7 +30743,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="90" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="42" t="str">
         <f>IF(SRV_TH!AN6="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A6)</f>
         <v>S-SH-PU_OIL_N2</v>
@@ -30908,7 +30910,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="91" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="42" t="str">
         <f>IF(SRV_TH!AN7="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A7)</f>
         <v>S-SH-PU_GAS_N1</v>
@@ -31075,7 +31077,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="92" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="42" t="str">
         <f>IF(SRV_TH!AN8="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A8)</f>
         <v>S-SH-PU_GAS_N2</v>
@@ -31242,7 +31244,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="93" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="42" t="str">
         <f>IF(SRV_TH!AN9="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A9)</f>
         <v>S-SH-PU_GAS_N3</v>
@@ -31409,7 +31411,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="94" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="42" t="str">
         <f>IF(SRV_TH!AN10="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A10)</f>
         <v>S-SH-PU_GAS_N4</v>
@@ -31576,7 +31578,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="95" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="42" t="str">
         <f>IF(SRV_TH!AN11="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A11)</f>
         <v>S-SH-PU_LPG_N1</v>
@@ -31743,7 +31745,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="96" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="42" t="str">
         <f>IF(SRV_TH!AN12="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A12)</f>
         <v>S-SH-PU_LPG_N2</v>
@@ -31910,7 +31912,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="97" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="42" t="str">
         <f>IF(SRV_TH!AN13="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A13)</f>
         <v>S-SH-PU_BIO_N1</v>
@@ -32078,7 +32080,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="98" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="45" t="str">
         <f>IF(SRV_TH!AN14="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A14)</f>
         <v>S-SH-PU_BIO_N2</v>
@@ -32248,7 +32250,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="99" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="57" t="s">
         <v>97</v>
       </c>
@@ -32330,7 +32332,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="45" t="str">
         <f>IF(SRV_TH!AN16="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A16)</f>
         <v>S-SH-PU_ELC_N1</v>
@@ -32500,7 +32502,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="101" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="57" t="s">
         <v>98</v>
       </c>
@@ -32582,7 +32584,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="42" t="str">
         <f>IF(SRV_TH!AN18="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A18)</f>
         <v>S-SH-PU_ELC_N2</v>
@@ -32753,7 +32755,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="103" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="42" t="str">
         <f>IF(SRV_TH!AN19="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A19)</f>
         <v>S-SH-PU_ELC_N3</v>
@@ -32924,7 +32926,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="104" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="42" t="str">
         <f>IF(SRV_TH!AN20="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A20)</f>
         <v>S-SH-PU_ELC_N4</v>
@@ -33095,7 +33097,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="105" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="42" t="str">
         <f>IF(SRV_TH!AN21="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A21)</f>
         <v>S-SH-PU_ELC_N5</v>
@@ -33266,7 +33268,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="106" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="42" t="str">
         <f>IF(SRV_TH!AN22="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A22)</f>
         <v>S-SH-PU_ELC_N6</v>
@@ -33437,7 +33439,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="107" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="42" t="str">
         <f>IF(SRV_TH!AN23="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A23)</f>
         <v>S-SH-PU_ELC_N7</v>
@@ -33608,7 +33610,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="108" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="42" t="str">
         <f>IF(SRV_TH!AN24="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A24)</f>
         <v>S-SH-PU_ELC_N8</v>
@@ -33779,7 +33781,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="109" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="42" t="str">
         <f>IF(SRV_TH!AN25="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A25)</f>
         <v>S-SH-PU_ELC_N9</v>
@@ -33950,7 +33952,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="110" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="42" t="str">
         <f>IF(SRV_TH!AN26="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A26)</f>
         <v>S-SH-PU_GAS_N5</v>
@@ -34121,7 +34123,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="111" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="45" t="str">
         <f>IF(SRV_TH!AN27="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A27)</f>
         <v>S-SH-PU_GAS_N6</v>
@@ -34294,7 +34296,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="112" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="57" t="s">
         <v>99</v>
       </c>
@@ -34376,7 +34378,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="45" t="str">
         <f>IF(SRV_TH!AN29="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A29)</f>
         <v>S-SH-PU_HET_N1</v>
@@ -34546,7 +34548,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="114" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A114" s="57" t="s">
         <v>100</v>
       </c>
@@ -34628,7 +34630,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="42" t="str">
         <f>IF(SRV_TH!AN31="","*","S-WH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A31)</f>
         <v>S-WH-PU_ELC_N1</v>
@@ -34795,7 +34797,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="116" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A116" s="42" t="str">
         <f>IF(SRV_TH!AN32="","*","S-WH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A32)</f>
         <v>S-WH-PU_SOL_N1</v>
@@ -34962,7 +34964,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="117" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="42" t="str">
         <f>IF(SRV_TH!AN33="","*","S-WH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A33)</f>
         <v>S-WH-PU_GAS_N1</v>
@@ -35129,7 +35131,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="118" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A118" s="42" t="str">
         <f>IF(SRV_TH!AN34="","*","S-WH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A34)</f>
         <v>S-WH-PU_BIO_N1</v>
@@ -35296,7 +35298,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="119" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="45" t="str">
         <f>IF(SRV_TH!AN35="","*","S-WH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A35)</f>
         <v>S-WH-PU_LPG_N1</v>
@@ -35466,7 +35468,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="120" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="57" t="s">
         <v>101</v>
       </c>
@@ -35548,7 +35550,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="42" t="str">
         <f>IF(SRV_TH!AN37="","*","S-SC-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A37)</f>
         <v>S-SC-PU_ELC_N1</v>
@@ -35715,7 +35717,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="122" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="45" t="str">
         <f>IF(SRV_TH!AN38="","*","S-SC-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A38)</f>
         <v>S-SC-PU_ELC_N2</v>
@@ -35909,35 +35911,35 @@
   </sheetPr>
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="298" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="298" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" style="298" customWidth="1"/>
-    <col min="5" max="13" width="10.42578125" style="298" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="298" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="298" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="298" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" style="298" customWidth="1"/>
+    <col min="2" max="2" width="45.3984375" style="298" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.59765625" style="298" customWidth="1"/>
+    <col min="5" max="13" width="10.3984375" style="298" customWidth="1"/>
+    <col min="14" max="14" width="3.73046875" style="298" customWidth="1"/>
+    <col min="15" max="15" width="12.59765625" style="298" customWidth="1"/>
+    <col min="16" max="16" width="10.73046875" style="298" customWidth="1"/>
     <col min="17" max="17" width="16" style="298" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="44" style="298" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="10.7109375" style="298" customWidth="1"/>
-    <col min="24" max="26" width="9.85546875" style="298" customWidth="1"/>
-    <col min="27" max="29" width="10.7109375" style="298" customWidth="1"/>
-    <col min="30" max="30" width="34.140625" style="298" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" style="298" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="298"/>
+    <col min="19" max="23" width="10.73046875" style="298" customWidth="1"/>
+    <col min="24" max="26" width="9.86328125" style="298" customWidth="1"/>
+    <col min="27" max="29" width="10.73046875" style="298" customWidth="1"/>
+    <col min="30" max="30" width="34.1328125" style="298" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.3984375" style="298" customWidth="1"/>
+    <col min="32" max="16384" width="9.1328125" style="298"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A1" s="62" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="63" t="s">
         <v>110</v>
       </c>
@@ -35959,7 +35961,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="225" t="s">
         <v>112</v>
       </c>
@@ -36052,7 +36054,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A4" s="296" t="s">
         <v>182</v>
       </c>
@@ -36127,7 +36129,7 @@
       <c r="AH4" s="451"/>
       <c r="AI4" s="451"/>
     </row>
-    <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="297" t="s">
         <v>109</v>
       </c>
@@ -36178,7 +36180,7 @@
       <c r="AH5" s="330"/>
       <c r="AI5" s="330"/>
     </row>
-    <row r="6" spans="1:35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="309" t="str">
         <f>O6</f>
         <v>*Cooking - Commercial Services</v>
@@ -36204,7 +36206,7 @@
       <c r="AH6" s="314"/>
       <c r="AI6" s="314"/>
     </row>
-    <row r="7" spans="1:35" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="168" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="303" t="str">
         <f t="shared" ref="A7:B9" si="0">Q7</f>
         <v>S-CK-CS_ELC_N1</v>
@@ -36305,7 +36307,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="168" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="303" t="str">
         <f t="shared" si="0"/>
         <v>S-CK-CS_GAS_N1</v>
@@ -36404,7 +36406,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" s="168" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="303" t="str">
         <f t="shared" si="0"/>
         <v>S-CK-CS_LPG_N1</v>
@@ -36503,7 +36505,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="168" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="309" t="str">
         <f>O10</f>
         <v>*Cooking - Public Services</v>
@@ -36525,7 +36527,7 @@
       <c r="AH10" s="298"/>
       <c r="AI10" s="298"/>
     </row>
-    <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="302" t="str">
         <f t="shared" ref="A11:B13" si="1">Q11</f>
         <v>S-CK-CS_ELC_N1</v>
@@ -36611,7 +36613,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A12" s="302" t="str">
         <f t="shared" si="1"/>
         <v>S-CK-CS_GAS_N1</v>
@@ -36698,7 +36700,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="339" t="str">
         <f t="shared" si="1"/>
         <v>S-CK-CS_LPG_N1</v>
@@ -36787,7 +36789,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AD14" s="298" t="s">
         <v>4</v>
       </c>
@@ -36795,7 +36797,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="303"/>
       <c r="B15" s="303"/>
       <c r="C15" s="303"/>
@@ -36822,7 +36824,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="303"/>
       <c r="B16" s="303"/>
       <c r="C16" s="303"/>
@@ -36849,7 +36851,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="303"/>
       <c r="B17" s="303"/>
       <c r="C17" s="303"/>
@@ -36873,7 +36875,7 @@
       <c r="V17" s="302"/>
       <c r="W17" s="302"/>
     </row>
-    <row r="18" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="303"/>
       <c r="B18" s="303"/>
       <c r="C18" s="303"/>
@@ -36897,7 +36899,7 @@
       <c r="V18" s="302"/>
       <c r="W18" s="302"/>
     </row>
-    <row r="19" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="303"/>
       <c r="B19" s="303"/>
       <c r="C19" s="303"/>
@@ -36921,47 +36923,47 @@
       <c r="V19" s="302"/>
       <c r="W19" s="302"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="Y21" s="308"/>
       <c r="Z21" s="308"/>
       <c r="AA21" s="308"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="L22" s="336"/>
       <c r="M22" s="336"/>
       <c r="Y22" s="308"/>
       <c r="Z22" s="308"/>
       <c r="AA22" s="308"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="L23" s="336"/>
       <c r="M23" s="336"/>
       <c r="Y23" s="308"/>
       <c r="Z23" s="308"/>
       <c r="AA23" s="308"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="L24" s="336"/>
       <c r="M24" s="336"/>
       <c r="Y24" s="308"/>
       <c r="Z24" s="308"/>
       <c r="AA24" s="308"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="L25" s="336"/>
       <c r="M25" s="336"/>
       <c r="Y25" s="308"/>
       <c r="Z25" s="308"/>
       <c r="AA25" s="308"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="L26" s="336"/>
       <c r="M26" s="336"/>
       <c r="Y26" s="308"/>
       <c r="Z26" s="308"/>
       <c r="AA26" s="308"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="Y3:Z3"/>
@@ -36987,38 +36989,38 @@
   </sheetPr>
   <dimension ref="A1:AV51"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="298" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="298" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="298" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" style="298" customWidth="1"/>
+    <col min="2" max="2" width="45.3984375" style="298" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="298" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="298" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="298" customWidth="1"/>
-    <col min="6" max="10" width="10.7109375" style="298" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="298" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="298" customWidth="1"/>
-    <col min="13" max="14" width="10.7109375" style="298" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="298" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="298" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="298" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="52.140625" style="298" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="10.7109375" style="298" customWidth="1"/>
-    <col min="24" max="26" width="9.85546875" style="298" customWidth="1"/>
-    <col min="27" max="29" width="10.7109375" style="298" customWidth="1"/>
-    <col min="30" max="30" width="34.140625" style="298" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="298"/>
+    <col min="5" max="5" width="12.86328125" style="298" customWidth="1"/>
+    <col min="6" max="10" width="10.73046875" style="298" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" style="298" customWidth="1"/>
+    <col min="12" max="12" width="12.265625" style="298" customWidth="1"/>
+    <col min="13" max="14" width="10.73046875" style="298" customWidth="1"/>
+    <col min="15" max="15" width="12.59765625" style="298" customWidth="1"/>
+    <col min="16" max="16" width="10.73046875" style="298" customWidth="1"/>
+    <col min="17" max="17" width="16.73046875" style="298" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="52.1328125" style="298" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="10.73046875" style="298" customWidth="1"/>
+    <col min="24" max="26" width="9.86328125" style="298" customWidth="1"/>
+    <col min="27" max="29" width="10.73046875" style="298" customWidth="1"/>
+    <col min="30" max="30" width="34.1328125" style="298" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1328125" style="298"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A1" s="62" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="299"/>
       <c r="B2" s="63" t="s">
         <v>110</v>
@@ -37043,7 +37045,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="225" t="s">
         <v>112</v>
       </c>
@@ -37148,7 +37150,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A4" s="296" t="s">
         <v>182</v>
       </c>
@@ -37225,7 +37227,7 @@
       <c r="AL4" s="451"/>
       <c r="AM4" s="451"/>
     </row>
-    <row r="5" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A5" s="297" t="s">
         <v>109</v>
       </c>
@@ -37278,7 +37280,7 @@
       <c r="AL5" s="385"/>
       <c r="AM5" s="385"/>
     </row>
-    <row r="6" spans="1:42" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" s="168" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="309" t="str">
         <f>O6</f>
         <v>*Refrigeration</v>
@@ -37298,7 +37300,7 @@
       <c r="Z6" s="312"/>
       <c r="AA6" s="312"/>
     </row>
-    <row r="7" spans="1:42" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" s="168" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="303" t="str">
         <f>Q7</f>
         <v>S-REF-CS_ELC_N1</v>
@@ -37417,7 +37419,7 @@
       </c>
       <c r="AO7" s="298"/>
     </row>
-    <row r="8" spans="1:42" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" s="168" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="340" t="str">
         <f>Q8</f>
         <v>S-REF-PU_ELC_N1</v>
@@ -37536,7 +37538,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" spans="1:42" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" s="168" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="309" t="str">
         <f>O9</f>
         <v>*Other appliances</v>
@@ -37572,7 +37574,7 @@
       <c r="AL9" s="407"/>
       <c r="AM9" s="407"/>
     </row>
-    <row r="10" spans="1:42" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" s="168" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="303" t="str">
         <f>Q10</f>
         <v>S-OEL-CS_ELC_N1</v>
@@ -37672,7 +37674,7 @@
       <c r="AO10" s="407"/>
       <c r="AP10" s="407"/>
     </row>
-    <row r="11" spans="1:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="340" t="str">
         <f>Q11</f>
         <v>S-OEL-PU_ELC_N1</v>
@@ -37761,7 +37763,7 @@
       <c r="AO11" s="314"/>
       <c r="AP11" s="314"/>
     </row>
-    <row r="12" spans="1:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="309" t="str">
         <f>O12</f>
         <v>*Building lighting</v>
@@ -37796,7 +37798,7 @@
       <c r="AO12" s="314"/>
       <c r="AP12" s="314"/>
     </row>
-    <row r="13" spans="1:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="303" t="str">
         <f>Q13</f>
         <v>S-LIG-CS_ELC_N1</v>
@@ -37887,7 +37889,7 @@
       <c r="AO13" s="314"/>
       <c r="AP13" s="314"/>
     </row>
-    <row r="14" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="340" t="str">
         <f>Q14</f>
         <v>S-LIG-PU_ELC_N1</v>
@@ -37976,7 +37978,7 @@
       <c r="AO14" s="314"/>
       <c r="AP14" s="314"/>
     </row>
-    <row r="15" spans="1:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="309" t="str">
         <f>O15</f>
         <v>*Public lighting</v>
@@ -38009,7 +38011,7 @@
       <c r="AO15" s="314"/>
       <c r="AP15" s="314"/>
     </row>
-    <row r="16" spans="1:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="303" t="str">
         <f>Q16</f>
         <v>S-PLIG-PU_N1</v>
@@ -38072,7 +38074,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="340" t="str">
         <f>Q17</f>
         <v>S-PLIG-PU_N2</v>
@@ -38147,7 +38149,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.45">
       <c r="L18" s="335"/>
       <c r="M18" s="335"/>
       <c r="AD18" s="298" t="s">
@@ -38157,7 +38159,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.45">
       <c r="AD19" s="298" t="s">
         <v>4</v>
       </c>
@@ -38165,7 +38167,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="20" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="410"/>
       <c r="B20" s="410"/>
       <c r="C20" s="410"/>
@@ -38183,7 +38185,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="410"/>
       <c r="B21" s="410"/>
       <c r="C21" s="410"/>
@@ -38201,7 +38203,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A22" s="410"/>
       <c r="B22" s="410"/>
       <c r="C22" s="410"/>
@@ -38225,7 +38227,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.45">
       <c r="Y23" s="308"/>
       <c r="Z23" s="308"/>
       <c r="AA23" s="308"/>
@@ -38233,22 +38235,22 @@
         <v>546</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.45">
       <c r="Y24" s="308"/>
       <c r="Z24" s="308"/>
       <c r="AA24" s="308"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.45">
       <c r="Y25" s="308"/>
       <c r="Z25" s="308"/>
       <c r="AA25" s="308"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.45">
       <c r="Y26" s="308"/>
       <c r="Z26" s="308"/>
       <c r="AA26" s="308"/>
     </row>
-    <row r="27" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="D27" s="414" t="str">
         <f>IF($Y27="","",CONCATENATE(Legend!$C$2,AA27,"-",Legend!$C$33))</f>
         <v/>
@@ -38257,7 +38259,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="D28" s="303"/>
       <c r="AD28" s="168"/>
       <c r="AE28" s="168"/>
@@ -38281,7 +38283,7 @@
       <c r="AU28" s="168"/>
       <c r="AV28" s="168"/>
     </row>
-    <row r="29" spans="1:48" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="26.25" x14ac:dyDescent="0.45">
       <c r="D29" s="303"/>
       <c r="AD29" s="168"/>
       <c r="AE29" s="168"/>
@@ -38307,7 +38309,7 @@
       <c r="AU29" s="168"/>
       <c r="AV29" s="168"/>
     </row>
-    <row r="30" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD30" s="168"/>
       <c r="AE30" s="168"/>
       <c r="AF30" s="168"/>
@@ -38338,7 +38340,7 @@
       <c r="AU30" s="453"/>
       <c r="AV30" s="168"/>
     </row>
-    <row r="31" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD31" s="394" t="s">
         <v>526</v>
       </c>
@@ -38380,7 +38382,7 @@
       </c>
       <c r="AV31" s="168"/>
     </row>
-    <row r="32" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD32" s="294" t="s">
         <v>528</v>
       </c>
@@ -38425,7 +38427,7 @@
       </c>
       <c r="AV32" s="168"/>
     </row>
-    <row r="33" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD33" s="394" t="s">
         <v>530</v>
       </c>
@@ -38472,7 +38474,7 @@
       </c>
       <c r="AV33" s="168"/>
     </row>
-    <row r="34" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD34" s="168"/>
       <c r="AE34" s="168"/>
       <c r="AF34" s="168"/>
@@ -38519,7 +38521,7 @@
       </c>
       <c r="AV34" s="168"/>
     </row>
-    <row r="35" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD35" s="168"/>
       <c r="AE35" s="168"/>
       <c r="AF35" s="168"/>
@@ -38564,7 +38566,7 @@
       </c>
       <c r="AV35" s="168"/>
     </row>
-    <row r="36" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD36" s="168"/>
       <c r="AE36" s="168"/>
       <c r="AF36" s="168"/>
@@ -38594,7 +38596,7 @@
       <c r="AU36" s="168"/>
       <c r="AV36" s="168"/>
     </row>
-    <row r="37" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD37" s="168"/>
       <c r="AE37" s="168"/>
       <c r="AF37" s="168"/>
@@ -38622,7 +38624,7 @@
       <c r="AU37" s="168"/>
       <c r="AV37" s="168"/>
     </row>
-    <row r="38" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD38" s="168"/>
       <c r="AE38" s="168"/>
       <c r="AF38" s="168"/>
@@ -38654,7 +38656,7 @@
         <v>1.4969390729763872</v>
       </c>
     </row>
-    <row r="39" spans="30:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="30:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AD39" s="168"/>
       <c r="AE39" s="168"/>
       <c r="AF39" s="168"/>
@@ -38675,7 +38677,7 @@
       <c r="AU39" s="168"/>
       <c r="AV39" s="168"/>
     </row>
-    <row r="41" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD41" s="407"/>
       <c r="AE41" s="407"/>
       <c r="AF41" s="408"/>
@@ -38685,7 +38687,7 @@
       <c r="AJ41" s="314"/>
       <c r="AK41" s="314"/>
     </row>
-    <row r="42" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD42" s="407"/>
       <c r="AE42" s="407"/>
       <c r="AF42" s="454"/>
@@ -38695,7 +38697,7 @@
       <c r="AJ42" s="314"/>
       <c r="AK42" s="314"/>
     </row>
-    <row r="43" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD43" s="407"/>
       <c r="AE43" s="407"/>
       <c r="AF43" s="454"/>
@@ -38705,7 +38707,7 @@
       <c r="AJ43" s="314"/>
       <c r="AK43" s="314"/>
     </row>
-    <row r="44" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD44" s="407"/>
       <c r="AE44" s="407"/>
       <c r="AF44" s="314"/>
@@ -38715,7 +38717,7 @@
       <c r="AJ44" s="314"/>
       <c r="AK44" s="314"/>
     </row>
-    <row r="45" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD45" s="407"/>
       <c r="AE45" s="407"/>
       <c r="AF45" s="409"/>
@@ -38725,7 +38727,7 @@
       <c r="AJ45" s="314"/>
       <c r="AK45" s="314"/>
     </row>
-    <row r="46" spans="30:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="30:48" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="AD46" s="65" t="s">
         <v>112</v>
       </c>
@@ -38747,7 +38749,7 @@
       <c r="AJ46" s="314"/>
       <c r="AK46" s="314"/>
     </row>
-    <row r="47" spans="30:48" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="30:48" ht="28.5" x14ac:dyDescent="0.45">
       <c r="AD47" s="418"/>
       <c r="AE47" s="418" t="s">
         <v>544</v>
@@ -38763,7 +38765,7 @@
       <c r="AJ47" s="314"/>
       <c r="AK47" s="314"/>
     </row>
-    <row r="48" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD48" s="169" t="s">
         <v>542</v>
       </c>
@@ -38782,7 +38784,7 @@
       <c r="AJ48" s="314"/>
       <c r="AK48" s="314"/>
     </row>
-    <row r="49" spans="30:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="30:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD49" s="407"/>
       <c r="AE49" s="407"/>
       <c r="AF49" s="409"/>
@@ -38792,7 +38794,7 @@
       <c r="AJ49" s="314"/>
       <c r="AK49" s="314"/>
     </row>
-    <row r="50" spans="30:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="30:37" x14ac:dyDescent="0.45">
       <c r="AD50" s="314"/>
       <c r="AE50" s="314"/>
       <c r="AF50" s="314"/>
@@ -38802,7 +38804,7 @@
       <c r="AJ50" s="314"/>
       <c r="AK50" s="314"/>
     </row>
-    <row r="51" spans="30:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="30:37" x14ac:dyDescent="0.45">
       <c r="AD51" s="314"/>
       <c r="AE51" s="314"/>
       <c r="AF51" s="314"/>
@@ -38864,22 +38866,22 @@
       <selection pane="bottomRight" activeCell="BD46" sqref="BD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.28515625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="3"/>
-    <col min="9" max="43" width="9.140625" style="3" customWidth="1"/>
-    <col min="44" max="48" width="9.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="49" max="53" width="9.140625" style="3" customWidth="1"/>
-    <col min="54" max="54" width="9.140625" style="22"/>
-    <col min="55" max="73" width="9.140625" style="3"/>
-    <col min="74" max="74" width="33.140625" style="3" customWidth="1"/>
-    <col min="75" max="89" width="9.140625" style="3"/>
-    <col min="90" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.265625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="9.1328125" style="3"/>
+    <col min="9" max="43" width="9.1328125" style="3" customWidth="1"/>
+    <col min="44" max="48" width="9.1328125" style="3" hidden="1" customWidth="1"/>
+    <col min="49" max="53" width="9.1328125" style="3" customWidth="1"/>
+    <col min="54" max="54" width="9.1328125" style="22"/>
+    <col min="55" max="73" width="9.1328125" style="3"/>
+    <col min="74" max="74" width="33.1328125" style="3" customWidth="1"/>
+    <col min="75" max="89" width="9.1328125" style="3"/>
+    <col min="90" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -38897,7 +38899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="99" t="s">
         <v>186</v>
       </c>
@@ -38986,7 +38988,7 @@
       <c r="BZ2" s="6"/>
       <c r="CA2" s="6"/>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A3" s="99" t="s">
         <v>187</v>
       </c>
@@ -39068,7 +39070,7 @@
       <c r="BZ3" s="6"/>
       <c r="CA3" s="6"/>
     </row>
-    <row r="4" spans="1:89" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
@@ -39201,7 +39203,7 @@
       <c r="CJ4" s="460"/>
       <c r="CK4" s="461"/>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
@@ -39462,7 +39464,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="100" t="s">
         <v>45</v>
       </c>
@@ -39585,7 +39587,7 @@
       <c r="CJ6" s="104"/>
       <c r="CK6" s="105"/>
     </row>
-    <row r="7" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="106" t="s">
         <v>188</v>
       </c>
@@ -39842,7 +39844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="106" t="s">
         <v>191</v>
       </c>
@@ -40094,7 +40096,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="106" t="s">
         <v>193</v>
       </c>
@@ -40353,7 +40355,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="10" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="106" t="s">
         <v>198</v>
       </c>
@@ -40622,7 +40624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="106" t="s">
         <v>201</v>
       </c>
@@ -40881,7 +40883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="106" t="s">
         <v>205</v>
       </c>
@@ -41140,7 +41142,7 @@
         <v>7.2727272727272724E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="106" t="s">
         <v>209</v>
       </c>
@@ -41399,7 +41401,7 @@
         <v>0.13333333333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="106"/>
       <c r="B14" s="107"/>
       <c r="C14" s="108" t="s">
@@ -41587,7 +41589,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="100" t="s">
         <v>47</v>
       </c>
@@ -41775,7 +41777,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="106" t="s">
         <v>213</v>
       </c>
@@ -42032,7 +42034,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="17" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="106"/>
       <c r="B17" s="107"/>
       <c r="C17" s="108" t="s">
@@ -42295,7 +42297,7 @@
         <v>10.204081632653061</v>
       </c>
     </row>
-    <row r="18" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="106" t="s">
         <v>216</v>
       </c>
@@ -42549,7 +42551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="106" t="s">
         <v>219</v>
       </c>
@@ -42806,7 +42808,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="20" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="106" t="s">
         <v>222</v>
       </c>
@@ -43060,7 +43062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="106" t="s">
         <v>226</v>
       </c>
@@ -43319,7 +43321,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="106" t="s">
         <v>21</v>
       </c>
@@ -43573,7 +43575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="106"/>
       <c r="B23" s="107"/>
       <c r="C23" s="108" t="s">
@@ -43781,7 +43783,7 @@
         <v>1.0344827586206897</v>
       </c>
     </row>
-    <row r="24" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="106" t="s">
         <v>230</v>
       </c>
@@ -44033,7 +44035,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="106" t="s">
         <v>232</v>
       </c>
@@ -44290,7 +44292,7 @@
         <v>4.2056074766355138</v>
       </c>
     </row>
-    <row r="26" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="107" t="s">
         <v>178</v>
       </c>
@@ -44562,7 +44564,7 @@
         <v>81.788888888888891</v>
       </c>
     </row>
-    <row r="27" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="100" t="s">
         <v>235</v>
       </c>
@@ -44750,7 +44752,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="106" t="s">
         <v>236</v>
       </c>
@@ -44994,7 +44996,7 @@
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="106" t="s">
         <v>238</v>
       </c>
@@ -45238,7 +45240,7 @@
         <v>2.9375</v>
       </c>
     </row>
-    <row r="30" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="106" t="s">
         <v>240</v>
       </c>
@@ -45487,7 +45489,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="31" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="106" t="s">
         <v>244</v>
       </c>
@@ -45731,7 +45733,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="106" t="s">
         <v>247</v>
       </c>
@@ -45983,7 +45985,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="100" t="s">
         <v>24</v>
       </c>
@@ -46161,7 +46163,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="106" t="s">
         <v>49</v>
       </c>
@@ -46415,7 +46417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="106"/>
       <c r="B35" s="107"/>
       <c r="C35" s="108" t="s">
@@ -46615,7 +46617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="106" t="s">
         <v>249</v>
       </c>
@@ -46879,7 +46881,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="106" t="s">
         <v>257</v>
       </c>
@@ -47148,7 +47150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="106" t="s">
         <v>52</v>
       </c>
@@ -47402,7 +47404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="106" t="s">
         <v>264</v>
       </c>
@@ -47671,7 +47673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="106" t="s">
         <v>268</v>
       </c>
@@ -47935,7 +47937,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="106" t="s">
         <v>271</v>
       </c>
@@ -48199,7 +48201,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="106" t="s">
         <v>279</v>
       </c>
@@ -48463,7 +48465,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="100" t="s">
         <v>4</v>
       </c>
@@ -48631,7 +48633,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="106"/>
       <c r="B44" s="107"/>
       <c r="C44" s="108" t="s">
@@ -48809,7 +48811,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="106" t="s">
         <v>281</v>
       </c>
@@ -49051,7 +49053,7 @@
         <v>14.761904761904761</v>
       </c>
     </row>
-    <row r="46" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="106" t="s">
         <v>284</v>
       </c>
@@ -49293,7 +49295,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="47" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="106"/>
       <c r="B47" s="107"/>
       <c r="C47" s="108" t="s">
@@ -49471,7 +49473,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="106" t="s">
         <v>288</v>
       </c>
@@ -49725,7 +49727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="106" t="s">
         <v>292</v>
       </c>
@@ -49979,7 +49981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="106" t="s">
         <v>23</v>
       </c>
@@ -50233,7 +50235,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="106"/>
       <c r="B51" s="107"/>
       <c r="C51" s="108" t="s">
@@ -50411,7 +50413,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="130" t="s">
         <v>296</v>
       </c>
@@ -50663,7 +50665,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="130" t="s">
         <v>297</v>
       </c>
@@ -50915,7 +50917,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="130" t="s">
         <v>298</v>
       </c>
@@ -51167,7 +51169,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="130" t="s">
         <v>299</v>
       </c>
@@ -51419,7 +51421,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="130" t="s">
         <v>300</v>
       </c>
@@ -51671,7 +51673,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="130" t="s">
         <v>301</v>
       </c>
@@ -51923,7 +51925,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="130" t="s">
         <v>302</v>
       </c>
@@ -52175,7 +52177,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="130" t="s">
         <v>303</v>
       </c>
@@ -52427,7 +52429,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="130" t="s">
         <v>304</v>
       </c>
@@ -52657,7 +52659,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:89" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:89" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="130" t="s">
         <v>306</v>
       </c>
@@ -52892,7 +52894,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A62" s="106" t="s">
         <v>308</v>
       </c>
@@ -53144,7 +53146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A63" s="141" t="s">
         <v>309</v>
       </c>
@@ -53396,7 +53398,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D64" s="164"/>
       <c r="E64" s="164"/>
       <c r="F64" s="164"/>
@@ -53484,7 +53486,7 @@
       <c r="CJ64" s="164"/>
       <c r="CK64" s="164"/>
     </row>
-    <row r="65" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D65" s="164"/>
       <c r="E65" s="164"/>
       <c r="F65" s="164"/>
@@ -53572,7 +53574,7 @@
       <c r="CJ65" s="164"/>
       <c r="CK65" s="164"/>
     </row>
-    <row r="66" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D66" s="164"/>
       <c r="E66" s="164"/>
       <c r="F66" s="164"/>
@@ -53660,7 +53662,7 @@
       <c r="CJ66" s="164"/>
       <c r="CK66" s="164"/>
     </row>
-    <row r="67" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D67" s="164"/>
       <c r="E67" s="164"/>
       <c r="F67" s="164"/>
@@ -53748,7 +53750,7 @@
       <c r="CJ67" s="164"/>
       <c r="CK67" s="164"/>
     </row>
-    <row r="68" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D68" s="164"/>
       <c r="E68" s="164"/>
       <c r="F68" s="164"/>
@@ -53836,7 +53838,7 @@
       <c r="CJ68" s="164"/>
       <c r="CK68" s="164"/>
     </row>
-    <row r="69" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D69" s="164"/>
       <c r="E69" s="164"/>
       <c r="F69" s="164"/>
@@ -53927,7 +53929,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="70" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D70" s="164"/>
       <c r="E70" s="164"/>
       <c r="F70" s="164"/>
@@ -54015,7 +54017,7 @@
       <c r="CJ70" s="164"/>
       <c r="CK70" s="164"/>
     </row>
-    <row r="71" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:91" x14ac:dyDescent="0.45">
       <c r="BC71" s="22"/>
       <c r="BD71" s="22"/>
       <c r="BE71" s="22"/>
@@ -54040,7 +54042,7 @@
       <c r="BZ71" s="22"/>
       <c r="CA71" s="22"/>
     </row>
-    <row r="72" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:91" x14ac:dyDescent="0.45">
       <c r="BC72" s="22"/>
       <c r="BD72" s="22"/>
       <c r="BE72" s="22"/>
@@ -54065,7 +54067,7 @@
       <c r="BZ72" s="22"/>
       <c r="CA72" s="22"/>
     </row>
-    <row r="73" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:91" x14ac:dyDescent="0.45">
       <c r="BC73" s="22"/>
       <c r="BD73" s="22"/>
       <c r="BE73" s="22"/>
@@ -54090,7 +54092,7 @@
       <c r="BZ73" s="22"/>
       <c r="CA73" s="22"/>
     </row>
-    <row r="74" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:91" x14ac:dyDescent="0.45">
       <c r="BC74" s="22"/>
       <c r="BD74" s="22"/>
       <c r="BE74" s="22"/>
@@ -54115,7 +54117,7 @@
       <c r="BZ74" s="22"/>
       <c r="CA74" s="22"/>
     </row>
-    <row r="75" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:91" x14ac:dyDescent="0.45">
       <c r="BC75" s="22"/>
       <c r="BD75" s="22"/>
       <c r="BE75" s="22"/>
@@ -54140,7 +54142,7 @@
       <c r="BZ75" s="22"/>
       <c r="CA75" s="22"/>
     </row>
-    <row r="76" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:91" x14ac:dyDescent="0.45">
       <c r="BC76" s="22"/>
       <c r="BD76" s="22"/>
       <c r="BE76" s="22"/>
@@ -54165,7 +54167,7 @@
       <c r="BZ76" s="22"/>
       <c r="CA76" s="22"/>
     </row>
-    <row r="77" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:91" x14ac:dyDescent="0.45">
       <c r="BC77" s="22"/>
       <c r="BD77" s="22"/>
       <c r="BE77" s="22"/>
@@ -54190,7 +54192,7 @@
       <c r="BZ77" s="22"/>
       <c r="CA77" s="22"/>
     </row>
-    <row r="78" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:91" x14ac:dyDescent="0.45">
       <c r="BC78" s="22"/>
       <c r="BD78" s="22"/>
       <c r="BE78" s="22"/>
@@ -54215,7 +54217,7 @@
       <c r="BZ78" s="22"/>
       <c r="CA78" s="22"/>
     </row>
-    <row r="79" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:91" x14ac:dyDescent="0.45">
       <c r="BC79" s="22"/>
       <c r="BD79" s="22"/>
       <c r="BE79" s="22"/>
@@ -54240,7 +54242,7 @@
       <c r="BZ79" s="22"/>
       <c r="CA79" s="22"/>
     </row>
-    <row r="80" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:91" x14ac:dyDescent="0.45">
       <c r="BC80" s="22"/>
       <c r="BD80" s="22"/>
       <c r="BE80" s="22"/>
@@ -54265,7 +54267,7 @@
       <c r="BZ80" s="22"/>
       <c r="CA80" s="22"/>
     </row>
-    <row r="81" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="81" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC81" s="22"/>
       <c r="BD81" s="22"/>
       <c r="BE81" s="22"/>
@@ -54290,7 +54292,7 @@
       <c r="BZ81" s="22"/>
       <c r="CA81" s="22"/>
     </row>
-    <row r="82" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="82" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC82" s="22"/>
       <c r="BD82" s="22"/>
       <c r="BE82" s="22"/>
@@ -54315,7 +54317,7 @@
       <c r="BZ82" s="22"/>
       <c r="CA82" s="22"/>
     </row>
-    <row r="83" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="83" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC83" s="22"/>
       <c r="BD83" s="22"/>
       <c r="BE83" s="22"/>
@@ -54340,7 +54342,7 @@
       <c r="BZ83" s="22"/>
       <c r="CA83" s="22"/>
     </row>
-    <row r="84" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="84" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC84" s="22"/>
       <c r="BD84" s="22"/>
       <c r="BE84" s="22"/>
@@ -54365,7 +54367,7 @@
       <c r="BZ84" s="22"/>
       <c r="CA84" s="22"/>
     </row>
-    <row r="85" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="85" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC85" s="22"/>
       <c r="BD85" s="22"/>
       <c r="BE85" s="22"/>
@@ -54390,7 +54392,7 @@
       <c r="BZ85" s="22"/>
       <c r="CA85" s="22"/>
     </row>
-    <row r="86" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="86" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC86" s="22"/>
       <c r="BD86" s="22"/>
       <c r="BE86" s="22"/>
@@ -54415,7 +54417,7 @@
       <c r="BZ86" s="22"/>
       <c r="CA86" s="22"/>
     </row>
-    <row r="87" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="87" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC87" s="22"/>
       <c r="BD87" s="22"/>
       <c r="BE87" s="22"/>
@@ -54440,7 +54442,7 @@
       <c r="BZ87" s="22"/>
       <c r="CA87" s="22"/>
     </row>
-    <row r="88" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="88" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC88" s="22"/>
       <c r="BD88" s="22"/>
       <c r="BE88" s="22"/>
@@ -54465,7 +54467,7 @@
       <c r="BZ88" s="22"/>
       <c r="CA88" s="22"/>
     </row>
-    <row r="89" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="89" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC89" s="22"/>
       <c r="BD89" s="22"/>
       <c r="BE89" s="22"/>
@@ -54490,7 +54492,7 @@
       <c r="BZ89" s="22"/>
       <c r="CA89" s="22"/>
     </row>
-    <row r="90" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="90" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC90" s="22"/>
       <c r="BD90" s="22"/>
       <c r="BE90" s="22"/>
@@ -54515,7 +54517,7 @@
       <c r="BZ90" s="22"/>
       <c r="CA90" s="22"/>
     </row>
-    <row r="91" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="91" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC91" s="22"/>
       <c r="BD91" s="22"/>
       <c r="BE91" s="22"/>
@@ -54540,7 +54542,7 @@
       <c r="BZ91" s="22"/>
       <c r="CA91" s="22"/>
     </row>
-    <row r="92" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="92" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC92" s="22"/>
       <c r="BD92" s="22"/>
       <c r="BE92" s="22"/>
@@ -54565,7 +54567,7 @@
       <c r="BZ92" s="22"/>
       <c r="CA92" s="22"/>
     </row>
-    <row r="93" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="93" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC93" s="22"/>
       <c r="BD93" s="22"/>
       <c r="BE93" s="22"/>
@@ -54590,7 +54592,7 @@
       <c r="BZ93" s="22"/>
       <c r="CA93" s="22"/>
     </row>
-    <row r="94" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="94" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC94" s="22"/>
       <c r="BD94" s="22"/>
       <c r="BE94" s="22"/>
@@ -54615,7 +54617,7 @@
       <c r="BZ94" s="22"/>
       <c r="CA94" s="22"/>
     </row>
-    <row r="95" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="95" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC95" s="22"/>
       <c r="BD95" s="22"/>
       <c r="BE95" s="22"/>
@@ -54640,7 +54642,7 @@
       <c r="BZ95" s="22"/>
       <c r="CA95" s="22"/>
     </row>
-    <row r="96" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="96" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC96" s="22"/>
       <c r="BD96" s="22"/>
       <c r="BE96" s="22"/>
@@ -54665,7 +54667,7 @@
       <c r="BZ96" s="22"/>
       <c r="CA96" s="22"/>
     </row>
-    <row r="97" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="97" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC97" s="22"/>
       <c r="BD97" s="22"/>
       <c r="BE97" s="22"/>
@@ -54690,7 +54692,7 @@
       <c r="BZ97" s="22"/>
       <c r="CA97" s="22"/>
     </row>
-    <row r="98" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="98" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC98" s="22"/>
       <c r="BD98" s="22"/>
       <c r="BE98" s="22"/>
@@ -54715,7 +54717,7 @@
       <c r="BZ98" s="22"/>
       <c r="CA98" s="22"/>
     </row>
-    <row r="99" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="99" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC99" s="22"/>
       <c r="BD99" s="22"/>
       <c r="BE99" s="22"/>
@@ -54740,7 +54742,7 @@
       <c r="BZ99" s="22"/>
       <c r="CA99" s="22"/>
     </row>
-    <row r="100" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="100" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC100" s="22"/>
       <c r="BD100" s="22"/>
       <c r="BE100" s="22"/>
@@ -54765,7 +54767,7 @@
       <c r="BZ100" s="22"/>
       <c r="CA100" s="22"/>
     </row>
-    <row r="101" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="101" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC101" s="22"/>
       <c r="BD101" s="22"/>
       <c r="BE101" s="22"/>
@@ -54790,7 +54792,7 @@
       <c r="BZ101" s="22"/>
       <c r="CA101" s="22"/>
     </row>
-    <row r="102" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="102" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC102" s="22"/>
       <c r="BD102" s="22"/>
       <c r="BE102" s="22"/>
@@ -54815,7 +54817,7 @@
       <c r="BZ102" s="22"/>
       <c r="CA102" s="22"/>
     </row>
-    <row r="103" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="103" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC103" s="22"/>
       <c r="BD103" s="22"/>
       <c r="BE103" s="22"/>
@@ -54840,7 +54842,7 @@
       <c r="BZ103" s="22"/>
       <c r="CA103" s="22"/>
     </row>
-    <row r="104" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="104" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC104" s="22"/>
       <c r="BD104" s="22"/>
       <c r="BE104" s="22"/>
@@ -54865,7 +54867,7 @@
       <c r="BZ104" s="22"/>
       <c r="CA104" s="22"/>
     </row>
-    <row r="105" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="105" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC105" s="22"/>
       <c r="BD105" s="22"/>
       <c r="BE105" s="22"/>
@@ -54890,7 +54892,7 @@
       <c r="BZ105" s="22"/>
       <c r="CA105" s="22"/>
     </row>
-    <row r="106" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="106" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC106" s="22"/>
       <c r="BD106" s="22"/>
       <c r="BE106" s="22"/>
@@ -54915,7 +54917,7 @@
       <c r="BZ106" s="22"/>
       <c r="CA106" s="22"/>
     </row>
-    <row r="107" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="107" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC107" s="22"/>
       <c r="BD107" s="22"/>
       <c r="BE107" s="22"/>
@@ -54940,7 +54942,7 @@
       <c r="BZ107" s="22"/>
       <c r="CA107" s="22"/>
     </row>
-    <row r="108" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="108" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC108" s="22"/>
       <c r="BD108" s="22"/>
       <c r="BE108" s="22"/>
@@ -54965,7 +54967,7 @@
       <c r="BZ108" s="22"/>
       <c r="CA108" s="22"/>
     </row>
-    <row r="109" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="109" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC109" s="22"/>
       <c r="BD109" s="22"/>
       <c r="BE109" s="22"/>
@@ -54990,7 +54992,7 @@
       <c r="BZ109" s="22"/>
       <c r="CA109" s="22"/>
     </row>
-    <row r="110" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="110" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC110" s="22"/>
       <c r="BD110" s="22"/>
       <c r="BE110" s="22"/>
@@ -55015,7 +55017,7 @@
       <c r="BZ110" s="22"/>
       <c r="CA110" s="22"/>
     </row>
-    <row r="111" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="111" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC111" s="22"/>
       <c r="BD111" s="22"/>
       <c r="BE111" s="22"/>
@@ -55040,7 +55042,7 @@
       <c r="BZ111" s="22"/>
       <c r="CA111" s="22"/>
     </row>
-    <row r="112" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="112" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC112" s="22"/>
       <c r="BD112" s="22"/>
       <c r="BE112" s="22"/>
@@ -55065,7 +55067,7 @@
       <c r="BZ112" s="22"/>
       <c r="CA112" s="22"/>
     </row>
-    <row r="113" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="113" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC113" s="22"/>
       <c r="BD113" s="22"/>
       <c r="BE113" s="22"/>
@@ -55090,7 +55092,7 @@
       <c r="BZ113" s="22"/>
       <c r="CA113" s="22"/>
     </row>
-    <row r="114" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="114" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC114" s="22"/>
       <c r="BD114" s="22"/>
       <c r="BE114" s="22"/>
@@ -55115,7 +55117,7 @@
       <c r="BZ114" s="22"/>
       <c r="CA114" s="22"/>
     </row>
-    <row r="115" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="115" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC115" s="22"/>
       <c r="BD115" s="22"/>
       <c r="BE115" s="22"/>
@@ -55140,7 +55142,7 @@
       <c r="BZ115" s="22"/>
       <c r="CA115" s="22"/>
     </row>
-    <row r="116" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="116" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC116" s="22"/>
       <c r="BD116" s="22"/>
       <c r="BE116" s="22"/>
@@ -55165,7 +55167,7 @@
       <c r="BZ116" s="22"/>
       <c r="CA116" s="22"/>
     </row>
-    <row r="117" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="117" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC117" s="22"/>
       <c r="BD117" s="22"/>
       <c r="BE117" s="22"/>
@@ -55190,7 +55192,7 @@
       <c r="BZ117" s="22"/>
       <c r="CA117" s="22"/>
     </row>
-    <row r="118" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="118" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC118" s="22"/>
       <c r="BD118" s="22"/>
       <c r="BE118" s="22"/>
@@ -55215,7 +55217,7 @@
       <c r="BZ118" s="22"/>
       <c r="CA118" s="22"/>
     </row>
-    <row r="119" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="119" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC119" s="22"/>
       <c r="BD119" s="22"/>
       <c r="BE119" s="22"/>
@@ -55240,7 +55242,7 @@
       <c r="BZ119" s="22"/>
       <c r="CA119" s="22"/>
     </row>
-    <row r="120" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="120" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC120" s="22"/>
       <c r="BD120" s="22"/>
       <c r="BE120" s="22"/>
@@ -55265,7 +55267,7 @@
       <c r="BZ120" s="22"/>
       <c r="CA120" s="22"/>
     </row>
-    <row r="121" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="121" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC121" s="22"/>
       <c r="BD121" s="22"/>
       <c r="BE121" s="22"/>
@@ -55290,7 +55292,7 @@
       <c r="BZ121" s="22"/>
       <c r="CA121" s="22"/>
     </row>
-    <row r="122" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="122" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC122" s="22"/>
       <c r="BD122" s="22"/>
       <c r="BE122" s="22"/>
@@ -55315,7 +55317,7 @@
       <c r="BZ122" s="22"/>
       <c r="CA122" s="22"/>
     </row>
-    <row r="123" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="123" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC123" s="22"/>
       <c r="BD123" s="22"/>
       <c r="BE123" s="22"/>
@@ -55340,7 +55342,7 @@
       <c r="BZ123" s="22"/>
       <c r="CA123" s="22"/>
     </row>
-    <row r="124" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="124" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC124" s="22"/>
       <c r="BD124" s="22"/>
       <c r="BE124" s="22"/>
@@ -55365,7 +55367,7 @@
       <c r="BZ124" s="22"/>
       <c r="CA124" s="22"/>
     </row>
-    <row r="125" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="125" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC125" s="22"/>
       <c r="BD125" s="22"/>
       <c r="BE125" s="22"/>
@@ -55390,7 +55392,7 @@
       <c r="BZ125" s="22"/>
       <c r="CA125" s="22"/>
     </row>
-    <row r="126" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="126" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC126" s="22"/>
       <c r="BD126" s="22"/>
       <c r="BE126" s="22"/>
@@ -55415,7 +55417,7 @@
       <c r="BZ126" s="22"/>
       <c r="CA126" s="22"/>
     </row>
-    <row r="127" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="127" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC127" s="22"/>
       <c r="BD127" s="22"/>
       <c r="BE127" s="22"/>
@@ -55440,7 +55442,7 @@
       <c r="BZ127" s="22"/>
       <c r="CA127" s="22"/>
     </row>
-    <row r="128" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="128" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC128" s="22"/>
       <c r="BD128" s="22"/>
       <c r="BE128" s="22"/>
@@ -55465,7 +55467,7 @@
       <c r="BZ128" s="22"/>
       <c r="CA128" s="22"/>
     </row>
-    <row r="129" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="129" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC129" s="22"/>
       <c r="BD129" s="22"/>
       <c r="BE129" s="22"/>
@@ -55490,7 +55492,7 @@
       <c r="BZ129" s="22"/>
       <c r="CA129" s="22"/>
     </row>
-    <row r="130" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="130" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC130" s="22"/>
       <c r="BD130" s="22"/>
       <c r="BE130" s="22"/>
@@ -55515,7 +55517,7 @@
       <c r="BZ130" s="22"/>
       <c r="CA130" s="22"/>
     </row>
-    <row r="131" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="131" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC131" s="22"/>
       <c r="BD131" s="22"/>
       <c r="BE131" s="22"/>
@@ -55540,7 +55542,7 @@
       <c r="BZ131" s="22"/>
       <c r="CA131" s="22"/>
     </row>
-    <row r="132" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="132" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC132" s="22"/>
       <c r="BD132" s="22"/>
       <c r="BE132" s="22"/>
@@ -55565,7 +55567,7 @@
       <c r="BZ132" s="22"/>
       <c r="CA132" s="22"/>
     </row>
-    <row r="133" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="133" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC133" s="22"/>
       <c r="BD133" s="22"/>
       <c r="BE133" s="22"/>
@@ -55590,7 +55592,7 @@
       <c r="BZ133" s="22"/>
       <c r="CA133" s="22"/>
     </row>
-    <row r="134" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="134" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC134" s="22"/>
       <c r="BD134" s="22"/>
       <c r="BE134" s="22"/>
@@ -55615,7 +55617,7 @@
       <c r="BZ134" s="22"/>
       <c r="CA134" s="22"/>
     </row>
-    <row r="135" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="135" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC135" s="22"/>
       <c r="BD135" s="22"/>
       <c r="BE135" s="22"/>
@@ -55640,7 +55642,7 @@
       <c r="BZ135" s="22"/>
       <c r="CA135" s="22"/>
     </row>
-    <row r="136" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="136" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC136" s="22"/>
       <c r="BD136" s="22"/>
       <c r="BE136" s="22"/>
@@ -55665,7 +55667,7 @@
       <c r="BZ136" s="22"/>
       <c r="CA136" s="22"/>
     </row>
-    <row r="137" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="137" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC137" s="22"/>
       <c r="BD137" s="22"/>
       <c r="BE137" s="22"/>
@@ -55690,7 +55692,7 @@
       <c r="BZ137" s="22"/>
       <c r="CA137" s="22"/>
     </row>
-    <row r="138" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="138" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC138" s="22"/>
       <c r="BD138" s="22"/>
       <c r="BE138" s="22"/>
@@ -55715,7 +55717,7 @@
       <c r="BZ138" s="22"/>
       <c r="CA138" s="22"/>
     </row>
-    <row r="139" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="139" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC139" s="22"/>
       <c r="BD139" s="22"/>
       <c r="BE139" s="22"/>
@@ -55740,7 +55742,7 @@
       <c r="BZ139" s="22"/>
       <c r="CA139" s="22"/>
     </row>
-    <row r="140" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="140" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC140" s="22"/>
       <c r="BD140" s="22"/>
       <c r="BE140" s="22"/>
@@ -55765,7 +55767,7 @@
       <c r="BZ140" s="22"/>
       <c r="CA140" s="22"/>
     </row>
-    <row r="141" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="141" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC141" s="22"/>
       <c r="BD141" s="22"/>
       <c r="BE141" s="22"/>
@@ -55790,7 +55792,7 @@
       <c r="BZ141" s="22"/>
       <c r="CA141" s="22"/>
     </row>
-    <row r="142" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="142" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC142" s="22"/>
       <c r="BD142" s="22"/>
       <c r="BE142" s="22"/>
@@ -55815,7 +55817,7 @@
       <c r="BZ142" s="22"/>
       <c r="CA142" s="22"/>
     </row>
-    <row r="143" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="143" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC143" s="22"/>
       <c r="BD143" s="22"/>
       <c r="BE143" s="22"/>
@@ -55840,7 +55842,7 @@
       <c r="BZ143" s="22"/>
       <c r="CA143" s="22"/>
     </row>
-    <row r="144" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="144" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC144" s="22"/>
       <c r="BD144" s="22"/>
       <c r="BE144" s="22"/>
@@ -55865,7 +55867,7 @@
       <c r="BZ144" s="22"/>
       <c r="CA144" s="22"/>
     </row>
-    <row r="145" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="145" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC145" s="22"/>
       <c r="BD145" s="22"/>
       <c r="BE145" s="22"/>
@@ -55890,7 +55892,7 @@
       <c r="BZ145" s="22"/>
       <c r="CA145" s="22"/>
     </row>
-    <row r="146" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="146" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC146" s="22"/>
       <c r="BD146" s="22"/>
       <c r="BE146" s="22"/>
@@ -55915,7 +55917,7 @@
       <c r="BZ146" s="22"/>
       <c r="CA146" s="22"/>
     </row>
-    <row r="147" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="147" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC147" s="22"/>
       <c r="BD147" s="22"/>
       <c r="BE147" s="22"/>
@@ -55940,7 +55942,7 @@
       <c r="BZ147" s="22"/>
       <c r="CA147" s="22"/>
     </row>
-    <row r="148" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="148" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC148" s="22"/>
       <c r="BD148" s="22"/>
       <c r="BE148" s="22"/>
@@ -55965,7 +55967,7 @@
       <c r="BZ148" s="22"/>
       <c r="CA148" s="22"/>
     </row>
-    <row r="149" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="149" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC149" s="22"/>
       <c r="BD149" s="22"/>
       <c r="BE149" s="22"/>
@@ -55990,7 +55992,7 @@
       <c r="BZ149" s="22"/>
       <c r="CA149" s="22"/>
     </row>
-    <row r="150" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="150" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC150" s="22"/>
       <c r="BD150" s="22"/>
       <c r="BE150" s="22"/>
@@ -56015,7 +56017,7 @@
       <c r="BZ150" s="22"/>
       <c r="CA150" s="22"/>
     </row>
-    <row r="151" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="151" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC151" s="22"/>
       <c r="BD151" s="22"/>
       <c r="BE151" s="22"/>
@@ -56040,7 +56042,7 @@
       <c r="BZ151" s="22"/>
       <c r="CA151" s="22"/>
     </row>
-    <row r="152" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="152" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC152" s="22"/>
       <c r="BD152" s="22"/>
       <c r="BE152" s="22"/>
@@ -56065,7 +56067,7 @@
       <c r="BZ152" s="22"/>
       <c r="CA152" s="22"/>
     </row>
-    <row r="153" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="153" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC153" s="22"/>
       <c r="BD153" s="22"/>
       <c r="BE153" s="22"/>
@@ -56090,7 +56092,7 @@
       <c r="BZ153" s="22"/>
       <c r="CA153" s="22"/>
     </row>
-    <row r="154" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="154" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC154" s="22"/>
       <c r="BD154" s="22"/>
       <c r="BE154" s="22"/>
@@ -56115,7 +56117,7 @@
       <c r="BZ154" s="22"/>
       <c r="CA154" s="22"/>
     </row>
-    <row r="155" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="155" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC155" s="22"/>
       <c r="BD155" s="22"/>
       <c r="BE155" s="22"/>
@@ -56140,7 +56142,7 @@
       <c r="BZ155" s="22"/>
       <c r="CA155" s="22"/>
     </row>
-    <row r="156" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="156" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC156" s="22"/>
       <c r="BD156" s="22"/>
       <c r="BE156" s="22"/>
@@ -56165,7 +56167,7 @@
       <c r="BZ156" s="22"/>
       <c r="CA156" s="22"/>
     </row>
-    <row r="157" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="157" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC157" s="22"/>
       <c r="BD157" s="22"/>
       <c r="BE157" s="22"/>
@@ -56190,7 +56192,7 @@
       <c r="BZ157" s="22"/>
       <c r="CA157" s="22"/>
     </row>
-    <row r="158" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="158" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC158" s="22"/>
       <c r="BD158" s="22"/>
       <c r="BE158" s="22"/>
@@ -56215,7 +56217,7 @@
       <c r="BZ158" s="22"/>
       <c r="CA158" s="22"/>
     </row>
-    <row r="159" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="159" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC159" s="22"/>
       <c r="BD159" s="22"/>
       <c r="BE159" s="22"/>
@@ -56240,7 +56242,7 @@
       <c r="BZ159" s="22"/>
       <c r="CA159" s="22"/>
     </row>
-    <row r="160" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="160" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC160" s="22"/>
       <c r="BD160" s="22"/>
       <c r="BE160" s="22"/>
@@ -56265,7 +56267,7 @@
       <c r="BZ160" s="22"/>
       <c r="CA160" s="22"/>
     </row>
-    <row r="161" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="161" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC161" s="22"/>
       <c r="BD161" s="22"/>
       <c r="BE161" s="22"/>
@@ -56290,7 +56292,7 @@
       <c r="BZ161" s="22"/>
       <c r="CA161" s="22"/>
     </row>
-    <row r="162" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="162" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC162" s="22"/>
       <c r="BD162" s="22"/>
       <c r="BE162" s="22"/>
@@ -56315,7 +56317,7 @@
       <c r="BZ162" s="22"/>
       <c r="CA162" s="22"/>
     </row>
-    <row r="163" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="163" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC163" s="22"/>
       <c r="BD163" s="22"/>
       <c r="BE163" s="22"/>
@@ -56340,7 +56342,7 @@
       <c r="BZ163" s="22"/>
       <c r="CA163" s="22"/>
     </row>
-    <row r="164" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="164" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC164" s="22"/>
       <c r="BD164" s="22"/>
       <c r="BE164" s="22"/>
@@ -56365,7 +56367,7 @@
       <c r="BZ164" s="22"/>
       <c r="CA164" s="22"/>
     </row>
-    <row r="165" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="165" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC165" s="22"/>
       <c r="BD165" s="22"/>
       <c r="BE165" s="22"/>
@@ -56390,7 +56392,7 @@
       <c r="BZ165" s="22"/>
       <c r="CA165" s="22"/>
     </row>
-    <row r="166" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="166" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC166" s="22"/>
       <c r="BD166" s="22"/>
       <c r="BE166" s="22"/>
@@ -56415,7 +56417,7 @@
       <c r="BZ166" s="22"/>
       <c r="CA166" s="22"/>
     </row>
-    <row r="167" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="167" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC167" s="22"/>
       <c r="BD167" s="22"/>
       <c r="BE167" s="22"/>
@@ -56440,7 +56442,7 @@
       <c r="BZ167" s="22"/>
       <c r="CA167" s="22"/>
     </row>
-    <row r="168" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="168" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC168" s="22"/>
       <c r="BD168" s="22"/>
       <c r="BE168" s="22"/>
@@ -56465,7 +56467,7 @@
       <c r="BZ168" s="22"/>
       <c r="CA168" s="22"/>
     </row>
-    <row r="169" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="169" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC169" s="22"/>
       <c r="BD169" s="22"/>
       <c r="BE169" s="22"/>
@@ -56490,7 +56492,7 @@
       <c r="BZ169" s="22"/>
       <c r="CA169" s="22"/>
     </row>
-    <row r="170" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="170" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC170" s="22"/>
       <c r="BD170" s="22"/>
       <c r="BE170" s="22"/>
@@ -56515,7 +56517,7 @@
       <c r="BZ170" s="22"/>
       <c r="CA170" s="22"/>
     </row>
-    <row r="171" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="171" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC171" s="22"/>
       <c r="BD171" s="22"/>
       <c r="BE171" s="22"/>
@@ -56540,7 +56542,7 @@
       <c r="BZ171" s="22"/>
       <c r="CA171" s="22"/>
     </row>
-    <row r="172" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="172" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC172" s="22"/>
       <c r="BD172" s="22"/>
       <c r="BE172" s="22"/>
@@ -56565,7 +56567,7 @@
       <c r="BZ172" s="22"/>
       <c r="CA172" s="22"/>
     </row>
-    <row r="173" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="173" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC173" s="22"/>
       <c r="BD173" s="22"/>
       <c r="BE173" s="22"/>
@@ -56590,7 +56592,7 @@
       <c r="BZ173" s="22"/>
       <c r="CA173" s="22"/>
     </row>
-    <row r="174" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="174" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC174" s="22"/>
       <c r="BD174" s="22"/>
       <c r="BE174" s="22"/>
@@ -56615,7 +56617,7 @@
       <c r="BZ174" s="22"/>
       <c r="CA174" s="22"/>
     </row>
-    <row r="175" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="175" spans="55:79" x14ac:dyDescent="0.45">
       <c r="BC175" s="22"/>
       <c r="BD175" s="22"/>
       <c r="BE175" s="22"/>
@@ -56642,11 +56644,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -56659,6 +56656,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -56673,15 +56675,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003D35AAEA1B2FCB4388BD96CEDC55F277" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3dbe2424fad29e82dbed878f9c5e39b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8" xmlns:ns3="5976181e-0ba6-4027-87bb-22a58e318fb6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13ef504368312e798a12ea4dafd4e8bd" ns2:_="" ns3:_="">
     <xsd:import namespace="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8"/>
@@ -56878,6 +56871,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
   <ds:schemaRefs>
@@ -56888,14 +56890,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BAA8BF1-CC80-4539-9D14-46D49F0014CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56912,4 +56906,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27269E01-D7EF-43C5-9266-9038618F9FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B6D636-40CD-440E-8DCF-46D1103F30EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6750" yWindow="1305" windowWidth="16470" windowHeight="7470" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="78" r:id="rId1"/>
@@ -341,7 +341,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -352,6 +351,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alessandro Chiodi</author>
+    <author>Mc Guire, Jason</author>
   </authors>
   <commentList>
     <comment ref="F29" authorId="0" shapeId="0" xr:uid="{5F6BCB92-D765-4C97-B3B6-85B54C0B0089}">
@@ -375,6 +375,30 @@
             <family val="2"/>
           </rPr>
           <t>Relative EFF to gas boilers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC29" authorId="1" shapeId="0" xr:uid="{65A8D08D-DA38-4A5D-9D98-705795069F0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mc Guire, Jason:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is from Danish Energy Technology Catalogue</t>
         </r>
       </text>
     </comment>
@@ -13868,6 +13892,10 @@
     <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="117" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13877,10 +13905,6 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -14112,7 +14136,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA55740-0936-456A-93F9-CCB348BCC5F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14156,7 +14180,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DF05D1-A578-4A5F-9170-6FA3029F2016}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14205,7 +14229,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BB5EAA-86A4-4EAD-80E0-88DABF81399D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14255,7 +14279,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABFF4DA-7C9C-4CF2-84DE-473D1F40B604}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14305,7 +14329,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0803A99-9AB0-4096-8F47-80DA01AE97DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14354,7 +14378,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF6A882-3774-48C9-B709-9BBE5E984F96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -14416,7 +14440,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3C41AC-CE19-4D28-A208-F915A7DBB6E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14534,7 +14558,7 @@
         <xdr:cNvPr id="2" name="Down Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14594,7 +14618,7 @@
         <xdr:cNvPr id="3" name="Down Arrow 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14654,7 +14678,7 @@
         <xdr:cNvPr id="4" name="Down Arrow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14714,7 +14738,7 @@
         <xdr:cNvPr id="5" name="Down Arrow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14774,7 +14798,7 @@
         <xdr:cNvPr id="6" name="Down Arrow 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14834,7 +14858,7 @@
         <xdr:cNvPr id="7" name="Down Arrow 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14894,7 +14918,7 @@
         <xdr:cNvPr id="8" name="Down Arrow 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14959,7 +14983,7 @@
         <xdr:cNvPr id="2" name="Arrow: Right 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15024,7 +15048,7 @@
         <xdr:cNvPr id="2" name="Arrow: Right 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15903,7 +15927,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -18785,46 +18809,46 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="442" t="s">
+      <c r="A3" s="446" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="442" t="s">
+      <c r="B3" s="446" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="442" t="s">
+      <c r="C3" s="446" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="444" t="s">
+      <c r="D3" s="448" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="444"/>
-      <c r="F3" s="442" t="s">
+      <c r="E3" s="448"/>
+      <c r="F3" s="446" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="442" t="s">
+      <c r="G3" s="446" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="442" t="s">
+      <c r="H3" s="446" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="442" t="s">
+      <c r="I3" s="446" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="443"/>
-      <c r="B4" s="443"/>
-      <c r="C4" s="443"/>
+      <c r="A4" s="447"/>
+      <c r="B4" s="447"/>
+      <c r="C4" s="447"/>
       <c r="D4" s="72" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="443"/>
-      <c r="G4" s="443"/>
-      <c r="H4" s="443"/>
-      <c r="I4" s="443"/>
+      <c r="F4" s="447"/>
+      <c r="G4" s="447"/>
+      <c r="H4" s="447"/>
+      <c r="I4" s="447"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
@@ -18910,18 +18934,18 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="189"/>
-      <c r="B11" s="445" t="str">
+      <c r="B11" s="442" t="str">
         <f>"Data summary table with data from "&amp;A5</f>
         <v>Data summary table with data from S1</v>
       </c>
-      <c r="C11" s="446"/>
+      <c r="C11" s="443"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="447" t="s">
+      <c r="B12" s="444" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="448"/>
+      <c r="C12" s="445"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
@@ -19291,16 +19315,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20081,12 +20105,12 @@
   </sheetPr>
   <dimension ref="A1:AY122"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23134,24 +23158,19 @@
         <v>SRVSH, SRVWH</v>
       </c>
       <c r="F29" s="353">
-        <f>'JRC data'!AC62/'JRC data'!$AC$10</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="G29" s="353">
-        <f>'JRC data'!AD62/'JRC data'!$AC$10</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="H29" s="353">
-        <f>'JRC data'!AE62/'JRC data'!$AC$10</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="I29" s="353">
-        <f>'JRC data'!AF62/'JRC data'!$AC$10</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="J29" s="353">
-        <f>'JRC data'!AG62/'JRC data'!$AC$10</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="K29" s="353"/>
       <c r="L29" s="353"/>
@@ -23160,23 +23179,23 @@
       <c r="O29" s="353"/>
       <c r="P29" s="353">
         <f>F29</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="Q29" s="353">
         <f t="shared" ref="Q29:T29" si="16">G29</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="R29" s="353">
         <f t="shared" si="16"/>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="S29" s="353">
         <f t="shared" si="16"/>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="T29" s="353">
         <f t="shared" si="16"/>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="U29" s="354">
         <f>'JRC data'!AX62</f>
@@ -23208,20 +23227,16 @@
         <v>250</v>
       </c>
       <c r="AC29" s="355">
-        <f>X29/'JRC data'!E62</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AD29" s="355">
-        <f>Y29/'JRC data'!F62</f>
-        <v>250</v>
+        <v>189.2</v>
       </c>
       <c r="AE29" s="355">
-        <f>Z29/'JRC data'!G62</f>
-        <v>250</v>
+        <v>178.4</v>
       </c>
       <c r="AF29" s="355">
-        <f>AA29/'JRC data'!H62</f>
-        <v>250</v>
+        <v>168.5</v>
       </c>
       <c r="AG29" s="356">
         <f>'JRC data'!CG62</f>
@@ -28534,24 +28549,23 @@
         <v>SRVSH-CS, SRVWH-CS</v>
       </c>
       <c r="F72" s="262">
-        <f>IF($A72="*","",IF(SRV_TH!F29=0,"",SRV_TH!F29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="G72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!G29=0,"",SRV_TH!G29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="H72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!H29=0,"",SRV_TH!H29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="I72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!I29=0,"",SRV_TH!I29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="J72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!J29=0,"",SRV_TH!J29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="K72" s="262" t="str">
         <f>IF($A72="*","",IF(SRV_TH!K29=0,"",SRV_TH!K29))</f>
@@ -28575,23 +28589,23 @@
       </c>
       <c r="P72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!P29=0,"",SRV_TH!P29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="Q72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!Q29=0,"",SRV_TH!Q29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="R72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!R29=0,"",SRV_TH!R29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="S72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!S29=0,"",SRV_TH!S29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="T72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!T29=0,"",SRV_TH!T29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="U72" s="212">
         <f>IF($A72="*","",IF(SRV_TH!U29=0,"",SRV_TH!U29))</f>
@@ -28612,19 +28626,19 @@
       </c>
       <c r="AC72" s="71">
         <f>IF($A72="*","",IF(SRV_TH!AC29=0,"",SRV_TH!AC29))</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AD72" s="71">
         <f>IF($A72="*","",IF(SRV_TH!AD29=0,"",SRV_TH!AD29))</f>
-        <v>250</v>
+        <v>189.2</v>
       </c>
       <c r="AE72" s="71">
         <f>IF($A72="*","",IF(SRV_TH!AE29=0,"",SRV_TH!AE29))</f>
-        <v>250</v>
+        <v>178.4</v>
       </c>
       <c r="AF72" s="71">
         <f>IF($A72="*","",IF(SRV_TH!AF29=0,"",SRV_TH!AF29))</f>
-        <v>250</v>
+        <v>168.5</v>
       </c>
       <c r="AG72" s="210">
         <f>IF($A72="*","",IF(SRV_TH!AG29=0,"",SRV_TH!AG29))</f>
@@ -34396,23 +34410,23 @@
       </c>
       <c r="F113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!F29=0,"",SRV_TH!F29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="G113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!G29=0,"",SRV_TH!G29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="H113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!H29=0,"",SRV_TH!H29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="I113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!I29=0,"",SRV_TH!I29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="J113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!J29=0,"",SRV_TH!J29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="K113" s="262" t="str">
         <f>IF($A113="*","",IF(SRV_TH!K29=0,"",SRV_TH!K29))</f>
@@ -34436,23 +34450,23 @@
       </c>
       <c r="P113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!P29=0,"",SRV_TH!P29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="Q113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!Q29=0,"",SRV_TH!Q29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="R113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!R29=0,"",SRV_TH!R29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="S113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!S29=0,"",SRV_TH!S29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="T113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!T29=0,"",SRV_TH!T29))</f>
-        <v>0.96078431372549011</v>
+        <v>1.4</v>
       </c>
       <c r="U113" s="212">
         <f>IF($A113="*","",IF(SRV_TH!U29=0,"",SRV_TH!U29))</f>
@@ -34473,19 +34487,19 @@
       </c>
       <c r="AC113" s="71">
         <f>IF($A113="*","",IF(SRV_TH!AC29=0,"",SRV_TH!AC29))</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AD113" s="71">
         <f>IF($A113="*","",IF(SRV_TH!AD29=0,"",SRV_TH!AD29))</f>
-        <v>250</v>
+        <v>189.2</v>
       </c>
       <c r="AE113" s="71">
         <f>IF($A113="*","",IF(SRV_TH!AE29=0,"",SRV_TH!AE29))</f>
-        <v>250</v>
+        <v>178.4</v>
       </c>
       <c r="AF113" s="71">
         <f>IF($A113="*","",IF(SRV_TH!AF29=0,"",SRV_TH!AF29))</f>
-        <v>250</v>
+        <v>168.5</v>
       </c>
       <c r="AG113" s="210">
         <f>IF($A113="*","",IF(SRV_TH!AG29=0,"",SRV_TH!AG29))</f>
@@ -38857,11 +38871,11 @@
   <dimension ref="A1:CM175"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BD46" sqref="BD46"/>
+      <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -56642,11 +56656,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -56659,6 +56668,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -56667,21 +56681,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003D35AAEA1B2FCB4388BD96CEDC55F277" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3dbe2424fad29e82dbed878f9c5e39b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8" xmlns:ns3="5976181e-0ba6-4027-87bb-22a58e318fb6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13ef504368312e798a12ea4dafd4e8bd" ns2:_="" ns3:_="">
     <xsd:import namespace="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8"/>
@@ -56878,24 +56877,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BAA8BF1-CC80-4539-9D14-46D49F0014CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56912,4 +56909,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B6D636-40CD-440E-8DCF-46D1103F30EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA94D01-D6B8-4C62-802D-ADD0D4F3C935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="1305" windowWidth="16470" windowHeight="7470" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="78" r:id="rId1"/>
@@ -13892,10 +13892,6 @@
     <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="117" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13905,6 +13901,10 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18809,46 +18809,46 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="446" t="s">
+      <c r="A3" s="442" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="446" t="s">
+      <c r="B3" s="442" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="446" t="s">
+      <c r="C3" s="442" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="448" t="s">
+      <c r="D3" s="444" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="448"/>
-      <c r="F3" s="446" t="s">
+      <c r="E3" s="444"/>
+      <c r="F3" s="442" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="446" t="s">
+      <c r="G3" s="442" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="446" t="s">
+      <c r="H3" s="442" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="446" t="s">
+      <c r="I3" s="442" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="447"/>
-      <c r="B4" s="447"/>
-      <c r="C4" s="447"/>
+      <c r="A4" s="443"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="443"/>
       <c r="D4" s="72" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="447"/>
-      <c r="G4" s="447"/>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
+      <c r="F4" s="443"/>
+      <c r="G4" s="443"/>
+      <c r="H4" s="443"/>
+      <c r="I4" s="443"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
@@ -18934,18 +18934,18 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="189"/>
-      <c r="B11" s="442" t="str">
+      <c r="B11" s="445" t="str">
         <f>"Data summary table with data from "&amp;A5</f>
         <v>Data summary table with data from S1</v>
       </c>
-      <c r="C11" s="443"/>
+      <c r="C11" s="446"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="444" t="s">
+      <c r="B12" s="447" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="445"/>
+      <c r="C12" s="448"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
@@ -19315,16 +19315,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20106,11 +20106,11 @@
   <dimension ref="A1:AY122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomRight" activeCell="AC18" sqref="AC18"/>
+      <selection pane="bottomRight" activeCell="P29" sqref="P29:T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23178,24 +23178,19 @@
       <c r="N29" s="353"/>
       <c r="O29" s="353"/>
       <c r="P29" s="353">
-        <f>F29</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="Q29" s="353">
-        <f t="shared" ref="Q29:T29" si="16">G29</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="R29" s="353">
-        <f t="shared" si="16"/>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="S29" s="353">
-        <f t="shared" si="16"/>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="T29" s="353">
-        <f t="shared" si="16"/>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="U29" s="354">
         <f>'JRC data'!AX62</f>
@@ -23363,31 +23358,31 @@
       <c r="Z31" s="349"/>
       <c r="AA31" s="349"/>
       <c r="AB31" s="349">
-        <f t="shared" ref="AB31:AH31" si="17">AB16</f>
+        <f t="shared" ref="AB31:AH31" si="16">AB16</f>
         <v>665</v>
       </c>
       <c r="AC31" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>665</v>
       </c>
       <c r="AD31" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>665</v>
       </c>
       <c r="AE31" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>665</v>
       </c>
       <c r="AF31" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>665</v>
       </c>
       <c r="AG31" s="350">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="AH31" s="351">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI31" s="34"/>
@@ -23563,51 +23558,51 @@
       </c>
       <c r="V33" s="348"/>
       <c r="W33" s="349">
-        <f t="shared" ref="W33:AH33" si="18">W7</f>
+        <f t="shared" ref="W33:AH33" si="17">W7</f>
         <v>22500</v>
       </c>
       <c r="X33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>20000</v>
       </c>
       <c r="Y33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>17500</v>
       </c>
       <c r="Z33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>17500</v>
       </c>
       <c r="AA33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>17500</v>
       </c>
       <c r="AB33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>58.441558441558442</v>
       </c>
       <c r="AC33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>51.948051948051948</v>
       </c>
       <c r="AD33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AE33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AF33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AG33" s="350">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AH33" s="351">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AI33" s="34"/>
@@ -23649,76 +23644,76 @@
       <c r="N34" s="347"/>
       <c r="O34" s="347"/>
       <c r="P34" s="347">
-        <f t="shared" ref="P34:U34" si="19">P14</f>
+        <f t="shared" ref="P34:U34" si="18">P14</f>
         <v>0.7</v>
       </c>
       <c r="Q34" s="347">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.71647058823529397</v>
       </c>
       <c r="R34" s="347">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.74941176470588233</v>
       </c>
       <c r="S34" s="347">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.78235294117647058</v>
       </c>
       <c r="T34" s="347">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.78235294117647058</v>
       </c>
       <c r="U34" s="348">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="V34" s="348"/>
       <c r="W34" s="349">
-        <f t="shared" ref="W34:AH34" si="20">W13</f>
+        <f t="shared" ref="W34:AH34" si="19">W13</f>
         <v>108500</v>
       </c>
       <c r="X34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>108500</v>
       </c>
       <c r="Y34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>112000</v>
       </c>
       <c r="Z34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>112000</v>
       </c>
       <c r="AA34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>112000</v>
       </c>
       <c r="AB34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>197.27272727272728</v>
       </c>
       <c r="AC34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>197.27272727272728</v>
       </c>
       <c r="AD34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>203.63636363636363</v>
       </c>
       <c r="AE34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>203.63636363636363</v>
       </c>
       <c r="AF34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>203.63636363636363</v>
       </c>
       <c r="AG34" s="350">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5.7272727272727274E-2</v>
       </c>
       <c r="AH34" s="351">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI34" s="34"/>
@@ -23760,76 +23755,76 @@
       <c r="N35" s="353"/>
       <c r="O35" s="353"/>
       <c r="P35" s="353">
-        <f t="shared" ref="P35:U35" si="21">P12</f>
+        <f t="shared" ref="P35:U35" si="20">P12</f>
         <v>0.7</v>
       </c>
       <c r="Q35" s="353">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.7</v>
       </c>
       <c r="R35" s="353">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.7</v>
       </c>
       <c r="S35" s="353">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.7</v>
       </c>
       <c r="T35" s="353">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.7</v>
       </c>
       <c r="U35" s="354">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="V35" s="354"/>
       <c r="W35" s="355">
-        <f t="shared" ref="W35:AH35" si="22">W33</f>
+        <f t="shared" ref="W35:AH35" si="21">W33</f>
         <v>22500</v>
       </c>
       <c r="X35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="Y35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>17500</v>
       </c>
       <c r="Z35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>17500</v>
       </c>
       <c r="AA35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>17500</v>
       </c>
       <c r="AB35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>58.441558441558442</v>
       </c>
       <c r="AC35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>51.948051948051948</v>
       </c>
       <c r="AD35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AE35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AF35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AG35" s="356">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="AH35" s="357">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AI35" s="37"/>
@@ -23944,51 +23939,51 @@
       </c>
       <c r="V37" s="371"/>
       <c r="W37" s="349">
-        <f t="shared" ref="W37:AH37" si="23">W18</f>
+        <f t="shared" ref="W37:AH37" si="22">W18</f>
         <v>27140.2</v>
       </c>
       <c r="X37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>25783.19</v>
       </c>
       <c r="Y37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>23340.571999999996</v>
       </c>
       <c r="Z37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>22254.963999999996</v>
       </c>
       <c r="AA37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>22254.963999999996</v>
       </c>
       <c r="AB37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>426.06279434850865</v>
       </c>
       <c r="AC37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>404.75965463108315</v>
       </c>
       <c r="AD37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>366.41400313971735</v>
       </c>
       <c r="AE37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>349.37149136577699</v>
       </c>
       <c r="AF37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>349.37149136577699</v>
       </c>
       <c r="AG37" s="350">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>10.204081632653061</v>
       </c>
       <c r="AH37" s="351">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI37" s="34"/>
@@ -24695,7 +24690,7 @@
       <c r="AO47" s="211"/>
       <c r="AP47" s="172"/>
       <c r="AQ47" s="224" t="str">
-        <f t="shared" ref="AQ47:AQ80" si="24">IF(LEFT(A47)="*",A47,"PRE")</f>
+        <f t="shared" ref="AQ47:AQ80" si="23">IF(LEFT(A47)="*",A47,"PRE")</f>
         <v>*Boilers</v>
       </c>
       <c r="AR47" s="280" t="str">
@@ -24703,19 +24698,19 @@
         <v/>
       </c>
       <c r="AS47" s="224" t="str">
-        <f t="shared" ref="AS47:AT80" si="25">IF(LEFT($A47)="*","",A47)</f>
+        <f t="shared" ref="AS47:AT80" si="24">IF(LEFT($A47)="*","",A47)</f>
         <v/>
       </c>
       <c r="AT47" s="224" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AU47" s="224" t="str">
-        <f t="shared" ref="AU47:AU81" si="26">IF(LEFT($A47)="*","","PJ")</f>
+        <f t="shared" ref="AU47:AU81" si="25">IF(LEFT($A47)="*","","PJ")</f>
         <v/>
       </c>
       <c r="AV47" s="224" t="str">
-        <f t="shared" ref="AV47:AV81" si="27">IF(LEFT($A47)="*","","GW")</f>
+        <f t="shared" ref="AV47:AV81" si="26">IF(LEFT($A47)="*","","GW")</f>
         <v/>
       </c>
       <c r="AW47" s="42" t="str">
@@ -24724,7 +24719,7 @@
       </c>
       <c r="AX47" s="224"/>
       <c r="AY47" s="224" t="str">
-        <f t="shared" ref="AY47" si="28">IF($AS47="","","YES")</f>
+        <f t="shared" ref="AY47" si="27">IF($AS47="","","YES")</f>
         <v/>
       </c>
     </row>
@@ -24855,7 +24850,7 @@
         <v/>
       </c>
       <c r="AK48" s="68">
-        <f t="shared" ref="AK48:AK57" si="29">IF($A48="*","",31.536)</f>
+        <f t="shared" ref="AK48:AK57" si="28">IF($A48="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL48" s="40"/>
@@ -24867,7 +24862,7 @@
       <c r="AO48" s="211"/>
       <c r="AP48" s="172"/>
       <c r="AQ48" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR48" s="280" t="str">
@@ -24875,19 +24870,19 @@
         <v>IE,National</v>
       </c>
       <c r="AS48" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_OIL_N1</v>
+      </c>
+      <c r="AT48" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Oil boiler condensing_SH</v>
+      </c>
+      <c r="AU48" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_OIL_N1</v>
-      </c>
-      <c r="AT48" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Oil boiler condensing_SH</v>
-      </c>
-      <c r="AU48" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV48" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV48" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY48" s="42" t="str">
@@ -25022,19 +25017,19 @@
         <v/>
       </c>
       <c r="AK49" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL49" s="40"/>
       <c r="AM49" s="81">
-        <f t="shared" ref="AM49:AM81" si="30">IF($A49="*","",2019)</f>
+        <f t="shared" ref="AM49:AM81" si="29">IF($A49="*","",2019)</f>
         <v>2019</v>
       </c>
       <c r="AN49" s="211"/>
       <c r="AO49" s="211"/>
       <c r="AP49" s="172"/>
       <c r="AQ49" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR49" s="42" t="str">
@@ -25042,23 +25037,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS49" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_OIL_N2</v>
+      </c>
+      <c r="AT49" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Oil boiler condensing_SH-WH</v>
+      </c>
+      <c r="AU49" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_OIL_N2</v>
-      </c>
-      <c r="AT49" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Oil boiler condensing_SH-WH</v>
-      </c>
-      <c r="AU49" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV49" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV49" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY49" s="42" t="str">
-        <f t="shared" ref="AY49:AY81" si="31">IF($AS49="","","YES")</f>
+        <f t="shared" ref="AY49:AY81" si="30">IF($AS49="","","YES")</f>
         <v>YES</v>
       </c>
     </row>
@@ -25189,19 +25184,19 @@
         <v/>
       </c>
       <c r="AK50" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL50" s="40"/>
       <c r="AM50" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN50" s="211"/>
       <c r="AO50" s="211"/>
       <c r="AP50" s="172"/>
       <c r="AQ50" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR50" s="42" t="str">
@@ -25209,23 +25204,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS50" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_GAS_N1</v>
+      </c>
+      <c r="AT50" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Gas boiler condensing_SH</v>
+      </c>
+      <c r="AU50" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_GAS_N1</v>
-      </c>
-      <c r="AT50" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Gas boiler condensing_SH</v>
-      </c>
-      <c r="AU50" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV50" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV50" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY50" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -25356,19 +25351,19 @@
         <v/>
       </c>
       <c r="AK51" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL51" s="40"/>
       <c r="AM51" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN51" s="211"/>
       <c r="AO51" s="211"/>
       <c r="AP51" s="172"/>
       <c r="AQ51" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR51" s="42" t="str">
@@ -25376,23 +25371,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS51" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_GAS_N2</v>
+      </c>
+      <c r="AT51" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">Commercial Services - Gas boiler condensing_SH-WH </v>
+      </c>
+      <c r="AU51" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_GAS_N2</v>
-      </c>
-      <c r="AT51" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">Commercial Services - Gas boiler condensing_SH-WH </v>
-      </c>
-      <c r="AU51" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV51" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV51" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY51" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -25523,19 +25518,19 @@
         <v/>
       </c>
       <c r="AK52" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL52" s="40"/>
       <c r="AM52" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN52" s="211"/>
       <c r="AO52" s="211"/>
       <c r="AP52" s="172"/>
       <c r="AQ52" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR52" s="42" t="str">
@@ -25543,23 +25538,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS52" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_GAS_N3</v>
+      </c>
+      <c r="AT52" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">Commercial Services - Gas boiler condensing + Solar thermal_SH-WH </v>
+      </c>
+      <c r="AU52" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_GAS_N3</v>
-      </c>
-      <c r="AT52" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">Commercial Services - Gas boiler condensing + Solar thermal_SH-WH </v>
-      </c>
-      <c r="AU52" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV52" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV52" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY52" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -25690,19 +25685,19 @@
         <v>0.51127819548872178</v>
       </c>
       <c r="AK53" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL53" s="40"/>
       <c r="AM53" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN53" s="211"/>
       <c r="AO53" s="211"/>
       <c r="AP53" s="172"/>
       <c r="AQ53" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR53" s="42" t="str">
@@ -25710,23 +25705,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS53" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS-GAS_N4</v>
+      </c>
+      <c r="AT53" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">Commercial Services - Gas boiler condensing + Wood stove_SH-WH </v>
+      </c>
+      <c r="AU53" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS-GAS_N4</v>
-      </c>
-      <c r="AT53" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">Commercial Services - Gas boiler condensing + Wood stove_SH-WH </v>
-      </c>
-      <c r="AU53" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV53" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV53" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY53" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -25857,19 +25852,19 @@
         <v/>
       </c>
       <c r="AK54" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL54" s="84"/>
       <c r="AM54" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN54" s="211"/>
       <c r="AO54" s="211"/>
       <c r="AP54" s="172"/>
       <c r="AQ54" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR54" s="42" t="str">
@@ -25877,23 +25872,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS54" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_LPG_N1</v>
+      </c>
+      <c r="AT54" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - LPG boiler condensing_SH</v>
+      </c>
+      <c r="AU54" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_LPG_N1</v>
-      </c>
-      <c r="AT54" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - LPG boiler condensing_SH</v>
-      </c>
-      <c r="AU54" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV54" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV54" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY54" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -26024,19 +26019,19 @@
         <v/>
       </c>
       <c r="AK55" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL55" s="84"/>
       <c r="AM55" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN55" s="211"/>
       <c r="AO55" s="211"/>
       <c r="AP55" s="172"/>
       <c r="AQ55" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR55" s="42" t="str">
@@ -26044,23 +26039,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS55" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_LPG_N2</v>
+      </c>
+      <c r="AT55" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - LPG boiler condensing_SH-WH</v>
+      </c>
+      <c r="AU55" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_LPG_N2</v>
-      </c>
-      <c r="AT55" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - LPG boiler condensing_SH-WH</v>
-      </c>
-      <c r="AU55" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV55" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV55" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY55" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -26192,19 +26187,19 @@
         <v/>
       </c>
       <c r="AK56" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL56" s="40"/>
       <c r="AM56" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN56" s="211"/>
       <c r="AO56" s="211"/>
       <c r="AP56" s="172"/>
       <c r="AQ56" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR56" s="42" t="str">
@@ -26212,23 +26207,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS56" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_BIO_N1</v>
+      </c>
+      <c r="AT56" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Biomass boiler_SH</v>
+      </c>
+      <c r="AU56" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_BIO_N1</v>
-      </c>
-      <c r="AT56" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Biomass boiler_SH</v>
-      </c>
-      <c r="AU56" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV56" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV56" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY56" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -26360,19 +26355,19 @@
         <v/>
       </c>
       <c r="AK57" s="214">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL57" s="210"/>
       <c r="AM57" s="208">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN57" s="211"/>
       <c r="AO57" s="211"/>
       <c r="AP57" s="172"/>
       <c r="AQ57" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR57" s="45" t="str">
@@ -26380,25 +26375,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS57" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_BIO_N2</v>
+      </c>
+      <c r="AT57" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Biomass boiler_SH-WH</v>
+      </c>
+      <c r="AU57" s="45" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_BIO_N2</v>
-      </c>
-      <c r="AT57" s="45" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Biomass boiler_SH-WH</v>
-      </c>
-      <c r="AU57" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV57" s="45" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV57" s="45" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW57" s="45"/>
       <c r="AX57" s="45"/>
       <c r="AY57" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -26454,7 +26449,7 @@
       <c r="AO58" s="211"/>
       <c r="AP58" s="172"/>
       <c r="AQ58" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>*Heaters</v>
       </c>
       <c r="AR58" s="57" t="str">
@@ -26462,25 +26457,25 @@
         <v/>
       </c>
       <c r="AS58" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AT58" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AU58" s="57" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="AT58" s="57" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="AU58" s="57" t="str">
+      <c r="AV58" s="57" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AV58" s="57" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW58" s="57"/>
       <c r="AX58" s="57"/>
       <c r="AY58" s="57" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -26617,14 +26612,14 @@
       </c>
       <c r="AL59" s="46"/>
       <c r="AM59" s="82">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN59" s="211"/>
       <c r="AO59" s="211"/>
       <c r="AP59" s="172"/>
       <c r="AQ59" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR59" s="45" t="str">
@@ -26632,25 +26627,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS59" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N1</v>
+      </c>
+      <c r="AT59" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Electric boiler_SH</v>
+      </c>
+      <c r="AU59" s="45" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N1</v>
-      </c>
-      <c r="AT59" s="45" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Electric boiler_SH</v>
-      </c>
-      <c r="AU59" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV59" s="45" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV59" s="45" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW59" s="45"/>
       <c r="AX59" s="45"/>
       <c r="AY59" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -26706,7 +26701,7 @@
       <c r="AO60" s="211"/>
       <c r="AP60" s="172"/>
       <c r="AQ60" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>*Heat Pumps</v>
       </c>
       <c r="AR60" s="57" t="str">
@@ -26714,25 +26709,25 @@
         <v/>
       </c>
       <c r="AS60" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AT60" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AU60" s="57" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="AT60" s="57" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="AU60" s="57" t="str">
+      <c r="AV60" s="57" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AV60" s="57" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW60" s="57"/>
       <c r="AX60" s="57"/>
       <c r="AY60" s="57" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -26867,19 +26862,19 @@
         <v/>
       </c>
       <c r="AK61" s="68">
-        <f t="shared" ref="AK61:AK70" si="32">IF($A61="*","",31.536)</f>
+        <f t="shared" ref="AK61:AK70" si="31">IF($A61="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL61" s="40"/>
       <c r="AM61" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN61" s="211"/>
       <c r="AO61" s="211"/>
       <c r="AP61" s="172"/>
       <c r="AQ61" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR61" s="42" t="str">
@@ -26887,23 +26882,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS61" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N2</v>
+      </c>
+      <c r="AT61" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Heat Pump Air-to-Air_SH</v>
+      </c>
+      <c r="AU61" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N2</v>
-      </c>
-      <c r="AT61" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Heat Pump Air-to-Air_SH</v>
-      </c>
-      <c r="AU61" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV61" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV61" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY61" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -27038,19 +27033,19 @@
         <v/>
       </c>
       <c r="AK62" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL62" s="40"/>
       <c r="AM62" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN62" s="211"/>
       <c r="AO62" s="211"/>
       <c r="AP62" s="172"/>
       <c r="AQ62" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR62" s="42" t="str">
@@ -27058,23 +27053,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS62" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N3</v>
+      </c>
+      <c r="AT62" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Heat Pump Air-to-Air_SH-SC</v>
+      </c>
+      <c r="AU62" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N3</v>
-      </c>
-      <c r="AT62" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Heat Pump Air-to-Air_SH-SC</v>
-      </c>
-      <c r="AU62" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV62" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV62" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY62" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -27209,19 +27204,19 @@
         <v/>
       </c>
       <c r="AK63" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL63" s="40"/>
       <c r="AM63" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN63" s="211"/>
       <c r="AO63" s="211"/>
       <c r="AP63" s="172"/>
       <c r="AQ63" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR63" s="42" t="str">
@@ -27229,23 +27224,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS63" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N4</v>
+      </c>
+      <c r="AT63" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Heat Pump Air-to-Water_SH</v>
+      </c>
+      <c r="AU63" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N4</v>
-      </c>
-      <c r="AT63" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Heat Pump Air-to-Water_SH</v>
-      </c>
-      <c r="AU63" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV63" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV63" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY63" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -27380,19 +27375,19 @@
         <v/>
       </c>
       <c r="AK64" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL64" s="40"/>
       <c r="AM64" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN64" s="211"/>
       <c r="AO64" s="211"/>
       <c r="AP64" s="172"/>
       <c r="AQ64" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR64" s="42" t="str">
@@ -27400,23 +27395,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS64" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N5</v>
+      </c>
+      <c r="AT64" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Heat Pump Air-to-Water_SH-WH</v>
+      </c>
+      <c r="AU64" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N5</v>
-      </c>
-      <c r="AT64" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Heat Pump Air-to-Water_SH-WH</v>
-      </c>
-      <c r="AU64" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV64" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV64" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY64" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -27551,19 +27546,19 @@
         <v/>
       </c>
       <c r="AK65" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL65" s="40"/>
       <c r="AM65" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN65" s="211"/>
       <c r="AO65" s="211"/>
       <c r="AP65" s="172"/>
       <c r="AQ65" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR65" s="42" t="str">
@@ -27571,23 +27566,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS65" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N6</v>
+      </c>
+      <c r="AT65" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Heat Pump Air-to-Water + Solar thermal_SH-WH</v>
+      </c>
+      <c r="AU65" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N6</v>
-      </c>
-      <c r="AT65" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Heat Pump Air-to-Water + Solar thermal_SH-WH</v>
-      </c>
-      <c r="AU65" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV65" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV65" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY65" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -27722,19 +27717,19 @@
         <v/>
       </c>
       <c r="AK66" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL66" s="40"/>
       <c r="AM66" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN66" s="211"/>
       <c r="AO66" s="211"/>
       <c r="AP66" s="172"/>
       <c r="AQ66" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR66" s="42" t="str">
@@ -27742,23 +27737,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS66" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N7</v>
+      </c>
+      <c r="AT66" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Heat Pump Ground Source_SH</v>
+      </c>
+      <c r="AU66" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N7</v>
-      </c>
-      <c r="AT66" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Heat Pump Ground Source_SH</v>
-      </c>
-      <c r="AU66" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV66" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV66" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY66" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -27893,19 +27888,19 @@
         <v/>
       </c>
       <c r="AK67" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL67" s="40"/>
       <c r="AM67" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN67" s="211"/>
       <c r="AO67" s="211"/>
       <c r="AP67" s="172"/>
       <c r="AQ67" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR67" s="42" t="str">
@@ -27913,23 +27908,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS67" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N8</v>
+      </c>
+      <c r="AT67" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Heat Pump Ground Source_SH-SC</v>
+      </c>
+      <c r="AU67" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N8</v>
-      </c>
-      <c r="AT67" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Heat Pump Ground Source_SH-SC</v>
-      </c>
-      <c r="AU67" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV67" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV67" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY67" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -28064,19 +28059,19 @@
         <v/>
       </c>
       <c r="AK68" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL68" s="40"/>
       <c r="AM68" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN68" s="211"/>
       <c r="AO68" s="211"/>
       <c r="AP68" s="172"/>
       <c r="AQ68" s="42" t="str">
-        <f t="shared" ref="AQ68" si="33">IF(LEFT(A68)="*",A68,"PRE")</f>
+        <f t="shared" ref="AQ68" si="32">IF(LEFT(A68)="*",A68,"PRE")</f>
         <v>PRE</v>
       </c>
       <c r="AR68" s="42" t="str">
@@ -28084,23 +28079,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS68" s="42" t="str">
-        <f t="shared" ref="AS68" si="34">IF(LEFT($A68)="*","",A68)</f>
+        <f t="shared" ref="AS68" si="33">IF(LEFT($A68)="*","",A68)</f>
         <v>S-SH-CS_ELC_N9</v>
       </c>
       <c r="AT68" s="42" t="str">
-        <f t="shared" ref="AT68" si="35">IF(LEFT($A68)="*","",B68)</f>
+        <f t="shared" ref="AT68" si="34">IF(LEFT($A68)="*","",B68)</f>
         <v>Commercial Services - Centralized Air-to-Air heat pump_SH-SC</v>
       </c>
       <c r="AU68" s="42" t="str">
+        <f t="shared" si="25"/>
+        <v>PJ</v>
+      </c>
+      <c r="AV68" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV68" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY68" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -28235,19 +28230,19 @@
         <v/>
       </c>
       <c r="AK69" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL69" s="40"/>
       <c r="AM69" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN69" s="211"/>
       <c r="AO69" s="211"/>
       <c r="AP69" s="172"/>
       <c r="AQ69" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR69" s="42" t="str">
@@ -28255,23 +28250,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS69" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_GAS_N5</v>
+      </c>
+      <c r="AT69" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Gas-driven Heat Pump absorption_SH-WH</v>
+      </c>
+      <c r="AU69" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_GAS_N5</v>
-      </c>
-      <c r="AT69" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Gas-driven Heat Pump absorption_SH-WH</v>
-      </c>
-      <c r="AU69" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV69" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV69" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY69" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -28406,19 +28401,19 @@
         <v/>
       </c>
       <c r="AK70" s="69">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL70" s="46"/>
       <c r="AM70" s="82">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN70" s="172"/>
       <c r="AO70" s="172"/>
       <c r="AP70" s="172"/>
       <c r="AQ70" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR70" s="45" t="str">
@@ -28426,25 +28421,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS70" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_GAS_N6</v>
+      </c>
+      <c r="AT70" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Gas-driven Heat Pump engine_SH-WH</v>
+      </c>
+      <c r="AU70" s="45" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_GAS_N6</v>
-      </c>
-      <c r="AT70" s="45" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Gas-driven Heat Pump engine_SH-WH</v>
-      </c>
-      <c r="AU70" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV70" s="45" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV70" s="45" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW70" s="45"/>
       <c r="AX70" s="45"/>
       <c r="AY70" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -28500,7 +28495,7 @@
       <c r="AO71" s="172"/>
       <c r="AP71" s="172"/>
       <c r="AQ71" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>*District Heating</v>
       </c>
       <c r="AR71" s="57" t="str">
@@ -28508,25 +28503,25 @@
         <v/>
       </c>
       <c r="AS71" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AT71" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AU71" s="57" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="AT71" s="57" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="AU71" s="57" t="str">
+      <c r="AV71" s="57" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AV71" s="57" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW71" s="57"/>
       <c r="AX71" s="57"/>
       <c r="AY71" s="57" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -28589,23 +28584,23 @@
       </c>
       <c r="P72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!P29=0,"",SRV_TH!P29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="Q72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!Q29=0,"",SRV_TH!Q29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="R72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!R29=0,"",SRV_TH!R29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="S72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!S29=0,"",SRV_TH!S29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="T72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!T29=0,"",SRV_TH!T29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="U72" s="212">
         <f>IF($A72="*","",IF(SRV_TH!U29=0,"",SRV_TH!U29))</f>
@@ -28662,14 +28657,14 @@
       </c>
       <c r="AL72" s="210"/>
       <c r="AM72" s="208">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN72" s="176"/>
       <c r="AO72" s="176"/>
       <c r="AP72" s="172"/>
       <c r="AQ72" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR72" s="45" t="str">
@@ -28677,25 +28672,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS72" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_HET_N1</v>
+      </c>
+      <c r="AT72" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Centralized DistrictH_Heat Exchanger_SH-WH</v>
+      </c>
+      <c r="AU72" s="45" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_HET_N1</v>
-      </c>
-      <c r="AT72" s="45" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Centralized DistrictH_Heat Exchanger_SH-WH</v>
-      </c>
-      <c r="AU72" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV72" s="45" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV72" s="45" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW72" s="45"/>
       <c r="AX72" s="45"/>
       <c r="AY72" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -28751,7 +28746,7 @@
       <c r="AO73" s="172"/>
       <c r="AP73" s="172"/>
       <c r="AQ73" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>*Water Heat-only</v>
       </c>
       <c r="AR73" s="57" t="str">
@@ -28759,25 +28754,25 @@
         <v/>
       </c>
       <c r="AS73" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AT73" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AU73" s="57" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="AT73" s="57" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="AU73" s="57" t="str">
+      <c r="AV73" s="57" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AV73" s="57" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW73" s="57"/>
       <c r="AX73" s="57"/>
       <c r="AY73" s="57" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -28913,14 +28908,14 @@
       </c>
       <c r="AL74" s="84"/>
       <c r="AM74" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN74" s="172"/>
       <c r="AO74" s="172"/>
       <c r="AP74" s="172"/>
       <c r="AQ74" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR74" s="42" t="str">
@@ -28928,23 +28923,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS74" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-WH-CS_ELC_N1</v>
+      </c>
+      <c r="AT74" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Electric water heater_WH</v>
+      </c>
+      <c r="AU74" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-WH-CS_ELC_N1</v>
-      </c>
-      <c r="AT74" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Electric water heater_WH</v>
-      </c>
-      <c r="AU74" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV74" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV74" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY74" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -29080,14 +29075,14 @@
       </c>
       <c r="AL75" s="40"/>
       <c r="AM75" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN75" s="172"/>
       <c r="AO75" s="172"/>
       <c r="AP75" s="172"/>
       <c r="AQ75" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR75" s="42" t="str">
@@ -29095,23 +29090,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS75" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-WH-CS_SOL_N1</v>
+      </c>
+      <c r="AT75" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Solar water heater_WH</v>
+      </c>
+      <c r="AU75" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-WH-CS_SOL_N1</v>
-      </c>
-      <c r="AT75" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Solar water heater_WH</v>
-      </c>
-      <c r="AU75" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV75" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV75" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY75" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -29247,14 +29242,14 @@
       </c>
       <c r="AL76" s="84"/>
       <c r="AM76" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN76" s="172"/>
       <c r="AO76" s="172"/>
       <c r="AP76" s="172"/>
       <c r="AQ76" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR76" s="42" t="str">
@@ -29262,23 +29257,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS76" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-WH-CS_GAS_N1</v>
+      </c>
+      <c r="AT76" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Gas water heater_WH</v>
+      </c>
+      <c r="AU76" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-WH-CS_GAS_N1</v>
-      </c>
-      <c r="AT76" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Gas water heater_WH</v>
-      </c>
-      <c r="AU76" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV76" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV76" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY76" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -29409,19 +29404,19 @@
         <v/>
       </c>
       <c r="AK77" s="68">
-        <f t="shared" ref="AK77:AK78" si="36">IF($A77="*","",31.536)</f>
+        <f t="shared" ref="AK77:AK78" si="35">IF($A77="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL77" s="84"/>
       <c r="AM77" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN77" s="172"/>
       <c r="AO77" s="172"/>
       <c r="AP77" s="172"/>
       <c r="AQ77" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR77" s="42" t="str">
@@ -29429,23 +29424,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS77" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-WH-CS_BIO_N1</v>
+      </c>
+      <c r="AT77" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Biomass water heater_WH</v>
+      </c>
+      <c r="AU77" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-WH-CS_BIO_N1</v>
-      </c>
-      <c r="AT77" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Biomass water heater_WH</v>
-      </c>
-      <c r="AU77" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV77" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV77" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY77" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -29577,19 +29572,19 @@
         <v/>
       </c>
       <c r="AK78" s="214">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL78" s="71"/>
       <c r="AM78" s="208">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN78" s="211"/>
       <c r="AO78" s="211"/>
       <c r="AP78" s="172"/>
       <c r="AQ78" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR78" s="45" t="str">
@@ -29597,25 +29592,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS78" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>S-WH-CS_LPG_N1</v>
+      </c>
+      <c r="AT78" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - LPG water heater_WH</v>
+      </c>
+      <c r="AU78" s="45" t="str">
         <f t="shared" si="25"/>
-        <v>S-WH-CS_LPG_N1</v>
-      </c>
-      <c r="AT78" s="45" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - LPG water heater_WH</v>
-      </c>
-      <c r="AU78" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV78" s="45" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV78" s="45" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW78" s="45"/>
       <c r="AX78" s="45"/>
       <c r="AY78" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -29671,7 +29666,7 @@
       <c r="AO79" s="211"/>
       <c r="AP79" s="172"/>
       <c r="AQ79" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>*Cooling-only</v>
       </c>
       <c r="AR79" s="57" t="str">
@@ -29679,25 +29674,25 @@
         <v/>
       </c>
       <c r="AS79" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AT79" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AU79" s="57" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="AT79" s="57" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="AU79" s="57" t="str">
+      <c r="AV79" s="57" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AV79" s="57" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW79" s="57"/>
       <c r="AX79" s="57"/>
       <c r="AY79" s="57" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -29833,14 +29828,14 @@
       </c>
       <c r="AL80" s="84"/>
       <c r="AM80" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN80" s="172"/>
       <c r="AO80" s="172"/>
       <c r="AP80" s="172"/>
       <c r="AQ80" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR80" s="42" t="str">
@@ -29848,23 +29843,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS80" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SC-CS_ELC_N1</v>
+      </c>
+      <c r="AT80" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Room air conditioning Air-to-Air_SC</v>
+      </c>
+      <c r="AU80" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SC-CS_ELC_N1</v>
-      </c>
-      <c r="AT80" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Room air conditioning Air-to-Air_SC</v>
-      </c>
-      <c r="AU80" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV80" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV80" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY80" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -30001,11 +29996,11 @@
       </c>
       <c r="AL81" s="71"/>
       <c r="AM81" s="208">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AQ81" s="45" t="str">
-        <f t="shared" ref="AQ81" si="37">IF(LEFT(A81)="*",A81,"PRE")</f>
+        <f t="shared" ref="AQ81" si="36">IF(LEFT(A81)="*",A81,"PRE")</f>
         <v>PRE</v>
       </c>
       <c r="AR81" s="45" t="str">
@@ -30013,25 +30008,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS81" s="45" t="str">
-        <f t="shared" ref="AS81" si="38">IF(LEFT($A81)="*","",A81)</f>
+        <f t="shared" ref="AS81" si="37">IF(LEFT($A81)="*","",A81)</f>
         <v>S-SC-CS_ELC_N2</v>
       </c>
       <c r="AT81" s="45" t="str">
-        <f t="shared" ref="AT81" si="39">IF(LEFT($A81)="*","",B81)</f>
+        <f t="shared" ref="AT81" si="38">IF(LEFT($A81)="*","",B81)</f>
         <v>Commercial Services - Centralized air conditioning_SC</v>
       </c>
       <c r="AU81" s="45" t="str">
+        <f t="shared" si="25"/>
+        <v>PJ</v>
+      </c>
+      <c r="AV81" s="45" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV81" s="45" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW81" s="45"/>
       <c r="AX81" s="45"/>
       <c r="AY81" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -30555,7 +30550,7 @@
       <c r="AO88" s="211"/>
       <c r="AP88" s="172"/>
       <c r="AQ88" s="224" t="str">
-        <f t="shared" ref="AQ88:AQ121" si="40">IF(LEFT(A88)="*",A88,"PRE")</f>
+        <f t="shared" ref="AQ88:AQ121" si="39">IF(LEFT(A88)="*",A88,"PRE")</f>
         <v>*Boilers</v>
       </c>
       <c r="AR88" s="224" t="str">
@@ -30563,19 +30558,19 @@
         <v/>
       </c>
       <c r="AS88" s="224" t="str">
-        <f t="shared" ref="AS88:AT121" si="41">IF(LEFT($A88)="*","",A88)</f>
+        <f t="shared" ref="AS88:AT121" si="40">IF(LEFT($A88)="*","",A88)</f>
         <v/>
       </c>
       <c r="AT88" s="224" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AU88" s="224" t="str">
-        <f t="shared" ref="AU88:AU122" si="42">IF(LEFT($A88)="*","","PJ")</f>
+        <f t="shared" ref="AU88:AU122" si="41">IF(LEFT($A88)="*","","PJ")</f>
         <v/>
       </c>
       <c r="AV88" s="224" t="str">
-        <f t="shared" ref="AV88:AV122" si="43">IF(LEFT($A88)="*","","GW")</f>
+        <f t="shared" ref="AV88:AV122" si="42">IF(LEFT($A88)="*","","GW")</f>
         <v/>
       </c>
       <c r="AW88" s="42" t="str">
@@ -30584,7 +30579,7 @@
       </c>
       <c r="AX88" s="224"/>
       <c r="AY88" s="224" t="str">
-        <f t="shared" ref="AY88:AY122" si="44">IF($AS88="","","YES")</f>
+        <f t="shared" ref="AY88:AY122" si="43">IF($AS88="","","YES")</f>
         <v/>
       </c>
     </row>
@@ -30715,7 +30710,7 @@
         <v/>
       </c>
       <c r="AK89" s="68">
-        <f t="shared" ref="AK89:AK98" si="45">IF($A89="*","",31.536)</f>
+        <f t="shared" ref="AK89:AK98" si="44">IF($A89="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL89" s="40"/>
@@ -30727,7 +30722,7 @@
       <c r="AO89" s="211"/>
       <c r="AP89" s="172"/>
       <c r="AQ89" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR89" s="42" t="str">
@@ -30735,23 +30730,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS89" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_OIL_N1</v>
+      </c>
+      <c r="AT89" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Oil boiler condensing_SH</v>
+      </c>
+      <c r="AU89" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_OIL_N1</v>
-      </c>
-      <c r="AT89" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Oil boiler condensing_SH</v>
-      </c>
-      <c r="AU89" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV89" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV89" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY89" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY89" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -30882,19 +30877,19 @@
         <v/>
       </c>
       <c r="AK90" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL90" s="40"/>
       <c r="AM90" s="81">
-        <f t="shared" ref="AM90:AM122" si="46">IF($A90="*","",2019)</f>
+        <f t="shared" ref="AM90:AM122" si="45">IF($A90="*","",2019)</f>
         <v>2019</v>
       </c>
       <c r="AN90" s="211"/>
       <c r="AO90" s="211"/>
       <c r="AP90" s="172"/>
       <c r="AQ90" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR90" s="42" t="str">
@@ -30902,23 +30897,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS90" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_OIL_N2</v>
+      </c>
+      <c r="AT90" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Oil boiler condensing_SH-WH</v>
+      </c>
+      <c r="AU90" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_OIL_N2</v>
-      </c>
-      <c r="AT90" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Oil boiler condensing_SH-WH</v>
-      </c>
-      <c r="AU90" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV90" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV90" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY90" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY90" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31049,19 +31044,19 @@
         <v/>
       </c>
       <c r="AK91" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL91" s="40"/>
       <c r="AM91" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN91" s="211"/>
       <c r="AO91" s="211"/>
       <c r="AP91" s="172"/>
       <c r="AQ91" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR91" s="42" t="str">
@@ -31069,23 +31064,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS91" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_GAS_N1</v>
+      </c>
+      <c r="AT91" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Gas boiler condensing_SH</v>
+      </c>
+      <c r="AU91" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_GAS_N1</v>
-      </c>
-      <c r="AT91" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Gas boiler condensing_SH</v>
-      </c>
-      <c r="AU91" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV91" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV91" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY91" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY91" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31216,19 +31211,19 @@
         <v/>
       </c>
       <c r="AK92" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL92" s="40"/>
       <c r="AM92" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN92" s="211"/>
       <c r="AO92" s="211"/>
       <c r="AP92" s="172"/>
       <c r="AQ92" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR92" s="42" t="str">
@@ -31236,23 +31231,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS92" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_GAS_N2</v>
+      </c>
+      <c r="AT92" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">Public Services - Gas boiler condensing_SH-WH </v>
+      </c>
+      <c r="AU92" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_GAS_N2</v>
-      </c>
-      <c r="AT92" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Public Services - Gas boiler condensing_SH-WH </v>
-      </c>
-      <c r="AU92" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV92" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV92" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY92" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY92" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31383,19 +31378,19 @@
         <v/>
       </c>
       <c r="AK93" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL93" s="40"/>
       <c r="AM93" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN93" s="211"/>
       <c r="AO93" s="211"/>
       <c r="AP93" s="172"/>
       <c r="AQ93" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR93" s="42" t="str">
@@ -31403,23 +31398,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS93" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_GAS_N3</v>
+      </c>
+      <c r="AT93" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">Public Services - Gas boiler condensing + Solar thermal_SH-WH </v>
+      </c>
+      <c r="AU93" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_GAS_N3</v>
-      </c>
-      <c r="AT93" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Public Services - Gas boiler condensing + Solar thermal_SH-WH </v>
-      </c>
-      <c r="AU93" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV93" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV93" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY93" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY93" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31550,19 +31545,19 @@
         <v>0.51127819548872178</v>
       </c>
       <c r="AK94" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL94" s="40"/>
       <c r="AM94" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN94" s="211"/>
       <c r="AO94" s="211"/>
       <c r="AP94" s="172"/>
       <c r="AQ94" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR94" s="42" t="str">
@@ -31570,23 +31565,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS94" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_GAS_N4</v>
+      </c>
+      <c r="AT94" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">Public Services - Gas boiler condensing + Wood stove_SH-WH </v>
+      </c>
+      <c r="AU94" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_GAS_N4</v>
-      </c>
-      <c r="AT94" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Public Services - Gas boiler condensing + Wood stove_SH-WH </v>
-      </c>
-      <c r="AU94" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV94" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV94" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY94" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY94" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31717,19 +31712,19 @@
         <v/>
       </c>
       <c r="AK95" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL95" s="84"/>
       <c r="AM95" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN95" s="211"/>
       <c r="AO95" s="211"/>
       <c r="AP95" s="172"/>
       <c r="AQ95" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR95" s="42" t="str">
@@ -31737,23 +31732,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS95" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_LPG_N1</v>
+      </c>
+      <c r="AT95" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - LPG boiler condensing_SH</v>
+      </c>
+      <c r="AU95" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_LPG_N1</v>
-      </c>
-      <c r="AT95" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - LPG boiler condensing_SH</v>
-      </c>
-      <c r="AU95" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV95" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV95" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY95" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY95" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31884,19 +31879,19 @@
         <v/>
       </c>
       <c r="AK96" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL96" s="84"/>
       <c r="AM96" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN96" s="211"/>
       <c r="AO96" s="211"/>
       <c r="AP96" s="172"/>
       <c r="AQ96" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR96" s="42" t="str">
@@ -31904,23 +31899,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS96" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_LPG_N2</v>
+      </c>
+      <c r="AT96" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - LPG boiler condensing_SH-WH</v>
+      </c>
+      <c r="AU96" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_LPG_N2</v>
-      </c>
-      <c r="AT96" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - LPG boiler condensing_SH-WH</v>
-      </c>
-      <c r="AU96" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV96" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV96" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY96" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY96" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -32052,19 +32047,19 @@
         <v/>
       </c>
       <c r="AK97" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL97" s="40"/>
       <c r="AM97" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN97" s="211"/>
       <c r="AO97" s="211"/>
       <c r="AP97" s="172"/>
       <c r="AQ97" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR97" s="42" t="str">
@@ -32072,23 +32067,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS97" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_BIO_N1</v>
+      </c>
+      <c r="AT97" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Biomass boiler_SH</v>
+      </c>
+      <c r="AU97" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_BIO_N1</v>
-      </c>
-      <c r="AT97" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Biomass boiler_SH</v>
-      </c>
-      <c r="AU97" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV97" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV97" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY97" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY97" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -32220,19 +32215,19 @@
         <v/>
       </c>
       <c r="AK98" s="214">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL98" s="210"/>
       <c r="AM98" s="208">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN98" s="211"/>
       <c r="AO98" s="211"/>
       <c r="AP98" s="172"/>
       <c r="AQ98" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR98" s="45" t="str">
@@ -32240,25 +32235,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS98" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_BIO_N2</v>
+      </c>
+      <c r="AT98" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Biomass boiler_SH-WH</v>
+      </c>
+      <c r="AU98" s="45" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_BIO_N2</v>
-      </c>
-      <c r="AT98" s="45" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Biomass boiler_SH-WH</v>
-      </c>
-      <c r="AU98" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV98" s="45" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV98" s="45" t="str">
-        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW98" s="45"/>
       <c r="AX98" s="45"/>
       <c r="AY98" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>YES</v>
       </c>
     </row>
@@ -32314,7 +32309,7 @@
       <c r="AO99" s="211"/>
       <c r="AP99" s="172"/>
       <c r="AQ99" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>*Heaters</v>
       </c>
       <c r="AR99" s="57" t="str">
@@ -32322,25 +32317,25 @@
         <v/>
       </c>
       <c r="AS99" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AT99" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AU99" s="57" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AT99" s="57" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AU99" s="57" t="str">
+      <c r="AV99" s="57" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AV99" s="57" t="str">
-        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW99" s="57"/>
       <c r="AX99" s="57"/>
       <c r="AY99" s="57" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -32477,14 +32472,14 @@
       </c>
       <c r="AL100" s="46"/>
       <c r="AM100" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN100" s="211"/>
       <c r="AO100" s="211"/>
       <c r="AP100" s="172"/>
       <c r="AQ100" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR100" s="45" t="str">
@@ -32492,25 +32487,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS100" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N1</v>
+      </c>
+      <c r="AT100" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Electric boiler_SH</v>
+      </c>
+      <c r="AU100" s="45" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N1</v>
-      </c>
-      <c r="AT100" s="45" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Electric boiler_SH</v>
-      </c>
-      <c r="AU100" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV100" s="45" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV100" s="45" t="str">
-        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW100" s="45"/>
       <c r="AX100" s="45"/>
       <c r="AY100" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>YES</v>
       </c>
     </row>
@@ -32566,7 +32561,7 @@
       <c r="AO101" s="211"/>
       <c r="AP101" s="172"/>
       <c r="AQ101" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>*Heat Pumps</v>
       </c>
       <c r="AR101" s="57" t="str">
@@ -32574,25 +32569,25 @@
         <v/>
       </c>
       <c r="AS101" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AT101" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AU101" s="57" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AT101" s="57" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AU101" s="57" t="str">
+      <c r="AV101" s="57" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AV101" s="57" t="str">
-        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW101" s="57"/>
       <c r="AX101" s="57"/>
       <c r="AY101" s="57" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -32727,19 +32722,19 @@
         <v/>
       </c>
       <c r="AK102" s="68">
-        <f t="shared" ref="AK102:AK111" si="47">IF($A102="*","",31.536)</f>
+        <f t="shared" ref="AK102:AK111" si="46">IF($A102="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL102" s="40"/>
       <c r="AM102" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN102" s="211"/>
       <c r="AO102" s="211"/>
       <c r="AP102" s="172"/>
       <c r="AQ102" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR102" s="42" t="str">
@@ -32747,23 +32742,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS102" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N2</v>
+      </c>
+      <c r="AT102" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Heat Pump Air-to-Air_SH</v>
+      </c>
+      <c r="AU102" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N2</v>
-      </c>
-      <c r="AT102" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Heat Pump Air-to-Air_SH</v>
-      </c>
-      <c r="AU102" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV102" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV102" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY102" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY102" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -32898,19 +32893,19 @@
         <v/>
       </c>
       <c r="AK103" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL103" s="40"/>
       <c r="AM103" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN103" s="211"/>
       <c r="AO103" s="211"/>
       <c r="AP103" s="172"/>
       <c r="AQ103" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR103" s="42" t="str">
@@ -32918,23 +32913,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS103" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N3</v>
+      </c>
+      <c r="AT103" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Heat Pump Air-to-Air_SH-SC</v>
+      </c>
+      <c r="AU103" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N3</v>
-      </c>
-      <c r="AT103" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Heat Pump Air-to-Air_SH-SC</v>
-      </c>
-      <c r="AU103" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV103" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV103" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY103" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY103" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33069,19 +33064,19 @@
         <v/>
       </c>
       <c r="AK104" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL104" s="40"/>
       <c r="AM104" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN104" s="211"/>
       <c r="AO104" s="211"/>
       <c r="AP104" s="172"/>
       <c r="AQ104" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR104" s="42" t="str">
@@ -33089,23 +33084,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS104" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N4</v>
+      </c>
+      <c r="AT104" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Heat Pump Air-to-Water_SH</v>
+      </c>
+      <c r="AU104" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N4</v>
-      </c>
-      <c r="AT104" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Heat Pump Air-to-Water_SH</v>
-      </c>
-      <c r="AU104" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV104" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV104" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY104" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY104" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33240,19 +33235,19 @@
         <v/>
       </c>
       <c r="AK105" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL105" s="40"/>
       <c r="AM105" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN105" s="211"/>
       <c r="AO105" s="211"/>
       <c r="AP105" s="172"/>
       <c r="AQ105" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR105" s="42" t="str">
@@ -33260,23 +33255,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS105" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N5</v>
+      </c>
+      <c r="AT105" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Heat Pump Air-to-Water_SH-WH</v>
+      </c>
+      <c r="AU105" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N5</v>
-      </c>
-      <c r="AT105" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Heat Pump Air-to-Water_SH-WH</v>
-      </c>
-      <c r="AU105" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV105" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV105" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY105" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY105" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33411,19 +33406,19 @@
         <v/>
       </c>
       <c r="AK106" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL106" s="40"/>
       <c r="AM106" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN106" s="211"/>
       <c r="AO106" s="211"/>
       <c r="AP106" s="172"/>
       <c r="AQ106" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR106" s="42" t="str">
@@ -33431,23 +33426,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS106" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N6</v>
+      </c>
+      <c r="AT106" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Heat Pump Air-to-Water + Solar thermal_SH-WH</v>
+      </c>
+      <c r="AU106" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N6</v>
-      </c>
-      <c r="AT106" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Heat Pump Air-to-Water + Solar thermal_SH-WH</v>
-      </c>
-      <c r="AU106" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV106" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV106" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY106" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY106" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33582,19 +33577,19 @@
         <v/>
       </c>
       <c r="AK107" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL107" s="40"/>
       <c r="AM107" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN107" s="211"/>
       <c r="AO107" s="211"/>
       <c r="AP107" s="172"/>
       <c r="AQ107" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR107" s="42" t="str">
@@ -33602,23 +33597,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS107" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N7</v>
+      </c>
+      <c r="AT107" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Heat Pump Ground Source_SH</v>
+      </c>
+      <c r="AU107" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N7</v>
-      </c>
-      <c r="AT107" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Heat Pump Ground Source_SH</v>
-      </c>
-      <c r="AU107" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV107" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV107" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY107" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY107" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33753,19 +33748,19 @@
         <v/>
       </c>
       <c r="AK108" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL108" s="40"/>
       <c r="AM108" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN108" s="211"/>
       <c r="AO108" s="211"/>
       <c r="AP108" s="172"/>
       <c r="AQ108" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR108" s="42" t="str">
@@ -33773,23 +33768,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS108" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N8</v>
+      </c>
+      <c r="AT108" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Heat Pump Ground Source_SH-SC</v>
+      </c>
+      <c r="AU108" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N8</v>
-      </c>
-      <c r="AT108" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Heat Pump Ground Source_SH-SC</v>
-      </c>
-      <c r="AU108" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV108" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV108" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY108" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY108" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33924,19 +33919,19 @@
         <v/>
       </c>
       <c r="AK109" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL109" s="40"/>
       <c r="AM109" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN109" s="211"/>
       <c r="AO109" s="211"/>
       <c r="AP109" s="172"/>
       <c r="AQ109" s="42" t="str">
-        <f t="shared" ref="AQ109" si="48">IF(LEFT(A109)="*",A109,"PRE")</f>
+        <f t="shared" ref="AQ109" si="47">IF(LEFT(A109)="*",A109,"PRE")</f>
         <v>PRE</v>
       </c>
       <c r="AR109" s="42" t="str">
@@ -33944,23 +33939,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS109" s="42" t="str">
-        <f t="shared" ref="AS109" si="49">IF(LEFT($A109)="*","",A109)</f>
+        <f t="shared" ref="AS109" si="48">IF(LEFT($A109)="*","",A109)</f>
         <v>S-SH-PU_ELC_N9</v>
       </c>
       <c r="AT109" s="42" t="str">
-        <f t="shared" ref="AT109" si="50">IF(LEFT($A109)="*","",B109)</f>
+        <f t="shared" ref="AT109" si="49">IF(LEFT($A109)="*","",B109)</f>
         <v>Public Services - Centralized Air-to-Air heat pump_SH-SC</v>
       </c>
       <c r="AU109" s="42" t="str">
+        <f t="shared" si="41"/>
+        <v>PJ</v>
+      </c>
+      <c r="AV109" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV109" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY109" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY109" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -34095,19 +34090,19 @@
         <v/>
       </c>
       <c r="AK110" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL110" s="40"/>
       <c r="AM110" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN110" s="211"/>
       <c r="AO110" s="211"/>
       <c r="AP110" s="172"/>
       <c r="AQ110" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR110" s="42" t="str">
@@ -34115,23 +34110,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS110" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_GAS_N5</v>
+      </c>
+      <c r="AT110" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Gas-driven Heat Pump absorption_SH-WH</v>
+      </c>
+      <c r="AU110" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_GAS_N5</v>
-      </c>
-      <c r="AT110" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Gas-driven Heat Pump absorption_SH-WH</v>
-      </c>
-      <c r="AU110" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV110" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV110" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY110" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY110" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -34266,19 +34261,19 @@
         <v/>
       </c>
       <c r="AK111" s="69">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL111" s="46"/>
       <c r="AM111" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN111" s="211"/>
       <c r="AO111" s="211"/>
       <c r="AP111" s="172"/>
       <c r="AQ111" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR111" s="45" t="str">
@@ -34286,25 +34281,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS111" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_GAS_N6</v>
+      </c>
+      <c r="AT111" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Gas-driven Heat Pump engine_SH-WH</v>
+      </c>
+      <c r="AU111" s="45" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_GAS_N6</v>
-      </c>
-      <c r="AT111" s="45" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Gas-driven Heat Pump engine_SH-WH</v>
-      </c>
-      <c r="AU111" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV111" s="45" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV111" s="45" t="str">
-        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW111" s="45"/>
       <c r="AX111" s="45"/>
       <c r="AY111" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>YES</v>
       </c>
     </row>
@@ -34360,7 +34355,7 @@
       <c r="AO112" s="211"/>
       <c r="AP112" s="172"/>
       <c r="AQ112" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>*District Heating</v>
       </c>
       <c r="AR112" s="57" t="str">
@@ -34368,25 +34363,25 @@
         <v/>
       </c>
       <c r="AS112" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AT112" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AU112" s="57" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AT112" s="57" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AU112" s="57" t="str">
+      <c r="AV112" s="57" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AV112" s="57" t="str">
-        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW112" s="57"/>
       <c r="AX112" s="57"/>
       <c r="AY112" s="57" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -34450,23 +34445,23 @@
       </c>
       <c r="P113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!P29=0,"",SRV_TH!P29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="Q113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!Q29=0,"",SRV_TH!Q29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="R113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!R29=0,"",SRV_TH!R29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="S113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!S29=0,"",SRV_TH!S29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="T113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!T29=0,"",SRV_TH!T29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="U113" s="212">
         <f>IF($A113="*","",IF(SRV_TH!U29=0,"",SRV_TH!U29))</f>
@@ -34523,14 +34518,14 @@
       </c>
       <c r="AL113" s="210"/>
       <c r="AM113" s="208">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN113" s="176"/>
       <c r="AO113" s="176"/>
       <c r="AP113" s="172"/>
       <c r="AQ113" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR113" s="45" t="str">
@@ -34538,25 +34533,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS113" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_HET_N1</v>
+      </c>
+      <c r="AT113" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Centralized DistrictH_Heat Exchanger_SH-WH</v>
+      </c>
+      <c r="AU113" s="45" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_HET_N1</v>
-      </c>
-      <c r="AT113" s="45" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Centralized DistrictH_Heat Exchanger_SH-WH</v>
-      </c>
-      <c r="AU113" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV113" s="45" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV113" s="45" t="str">
-        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW113" s="45"/>
       <c r="AX113" s="45"/>
       <c r="AY113" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>YES</v>
       </c>
     </row>
@@ -34612,7 +34607,7 @@
       <c r="AO114" s="211"/>
       <c r="AP114" s="172"/>
       <c r="AQ114" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>*Water Heat-only</v>
       </c>
       <c r="AR114" s="57" t="str">
@@ -34620,25 +34615,25 @@
         <v/>
       </c>
       <c r="AS114" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AT114" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AU114" s="57" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AT114" s="57" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AU114" s="57" t="str">
+      <c r="AV114" s="57" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AV114" s="57" t="str">
-        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW114" s="57"/>
       <c r="AX114" s="57"/>
       <c r="AY114" s="57" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -34774,14 +34769,14 @@
       </c>
       <c r="AL115" s="84"/>
       <c r="AM115" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN115" s="211"/>
       <c r="AO115" s="211"/>
       <c r="AP115" s="172"/>
       <c r="AQ115" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR115" s="42" t="str">
@@ -34789,23 +34784,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS115" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-WH-PU_ELC_N1</v>
+      </c>
+      <c r="AT115" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Electric water heater_WH</v>
+      </c>
+      <c r="AU115" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-WH-PU_ELC_N1</v>
-      </c>
-      <c r="AT115" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Electric water heater_WH</v>
-      </c>
-      <c r="AU115" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV115" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV115" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY115" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY115" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -34941,14 +34936,14 @@
       </c>
       <c r="AL116" s="40"/>
       <c r="AM116" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN116" s="211"/>
       <c r="AO116" s="211"/>
       <c r="AP116" s="172"/>
       <c r="AQ116" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR116" s="42" t="str">
@@ -34956,23 +34951,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS116" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-WH-PU_SOL_N1</v>
+      </c>
+      <c r="AT116" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Solar water heater_WH</v>
+      </c>
+      <c r="AU116" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-WH-PU_SOL_N1</v>
-      </c>
-      <c r="AT116" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Solar water heater_WH</v>
-      </c>
-      <c r="AU116" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV116" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV116" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY116" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY116" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -35108,14 +35103,14 @@
       </c>
       <c r="AL117" s="84"/>
       <c r="AM117" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN117" s="172"/>
       <c r="AO117" s="172"/>
       <c r="AP117" s="172"/>
       <c r="AQ117" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR117" s="42" t="str">
@@ -35123,23 +35118,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS117" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-WH-PU_GAS_N1</v>
+      </c>
+      <c r="AT117" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Gas water heater_WH</v>
+      </c>
+      <c r="AU117" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-WH-PU_GAS_N1</v>
-      </c>
-      <c r="AT117" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Gas water heater_WH</v>
-      </c>
-      <c r="AU117" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV117" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV117" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY117" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY117" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -35270,19 +35265,19 @@
         <v/>
       </c>
       <c r="AK118" s="68">
-        <f t="shared" ref="AK118:AK119" si="51">IF($A118="*","",31.536)</f>
+        <f t="shared" ref="AK118:AK119" si="50">IF($A118="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL118" s="84"/>
       <c r="AM118" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN118" s="172"/>
       <c r="AO118" s="172"/>
       <c r="AP118" s="172"/>
       <c r="AQ118" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR118" s="42" t="str">
@@ -35290,23 +35285,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS118" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-WH-PU_BIO_N1</v>
+      </c>
+      <c r="AT118" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Biomass water heater_WH</v>
+      </c>
+      <c r="AU118" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-WH-PU_BIO_N1</v>
-      </c>
-      <c r="AT118" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Biomass water heater_WH</v>
-      </c>
-      <c r="AU118" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV118" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV118" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY118" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY118" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -35438,19 +35433,19 @@
         <v/>
       </c>
       <c r="AK119" s="214">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL119" s="71"/>
       <c r="AM119" s="208">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN119" s="211"/>
       <c r="AO119" s="211"/>
       <c r="AP119" s="172"/>
       <c r="AQ119" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR119" s="45" t="str">
@@ -35458,25 +35453,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS119" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>S-WH-PU_LPG_N1</v>
+      </c>
+      <c r="AT119" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - LPG water heater_WH</v>
+      </c>
+      <c r="AU119" s="45" t="str">
         <f t="shared" si="41"/>
-        <v>S-WH-PU_LPG_N1</v>
-      </c>
-      <c r="AT119" s="45" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - LPG water heater_WH</v>
-      </c>
-      <c r="AU119" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV119" s="45" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV119" s="45" t="str">
-        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW119" s="45"/>
       <c r="AX119" s="45"/>
       <c r="AY119" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>YES</v>
       </c>
     </row>
@@ -35532,7 +35527,7 @@
       <c r="AO120" s="211"/>
       <c r="AP120" s="172"/>
       <c r="AQ120" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>*Cooling-only</v>
       </c>
       <c r="AR120" s="57" t="str">
@@ -35540,25 +35535,25 @@
         <v/>
       </c>
       <c r="AS120" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AT120" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AU120" s="57" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AT120" s="57" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AU120" s="57" t="str">
+      <c r="AV120" s="57" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AV120" s="57" t="str">
-        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW120" s="57"/>
       <c r="AX120" s="57"/>
       <c r="AY120" s="57" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -35694,14 +35689,14 @@
       </c>
       <c r="AL121" s="84"/>
       <c r="AM121" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN121" s="172"/>
       <c r="AO121" s="172"/>
       <c r="AP121" s="172"/>
       <c r="AQ121" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR121" s="42" t="str">
@@ -35709,23 +35704,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS121" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SC-PU_ELC_N1</v>
+      </c>
+      <c r="AT121" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Room air conditioning Air-to-Air_SC</v>
+      </c>
+      <c r="AU121" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SC-PU_ELC_N1</v>
-      </c>
-      <c r="AT121" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Room air conditioning Air-to-Air_SC</v>
-      </c>
-      <c r="AU121" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV121" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV121" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY121" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY121" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -35862,13 +35857,13 @@
       </c>
       <c r="AL122" s="71"/>
       <c r="AM122" s="208">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN122" s="85"/>
       <c r="AO122" s="85"/>
       <c r="AQ122" s="45" t="str">
-        <f t="shared" ref="AQ122" si="52">IF(LEFT(A122)="*",A122,"PRE")</f>
+        <f t="shared" ref="AQ122" si="51">IF(LEFT(A122)="*",A122,"PRE")</f>
         <v>PRE</v>
       </c>
       <c r="AR122" s="45" t="str">
@@ -35876,25 +35871,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS122" s="45" t="str">
-        <f t="shared" ref="AS122" si="53">IF(LEFT($A122)="*","",A122)</f>
+        <f t="shared" ref="AS122" si="52">IF(LEFT($A122)="*","",A122)</f>
         <v>S-SC-PU_ELC_N2</v>
       </c>
       <c r="AT122" s="45" t="str">
-        <f t="shared" ref="AT122" si="54">IF(LEFT($A122)="*","",B122)</f>
+        <f t="shared" ref="AT122" si="53">IF(LEFT($A122)="*","",B122)</f>
         <v>Public Services - Centralized air conditioning_SC</v>
       </c>
       <c r="AU122" s="45" t="str">
+        <f t="shared" si="41"/>
+        <v>PJ</v>
+      </c>
+      <c r="AV122" s="45" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV122" s="45" t="str">
-        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW122" s="45"/>
       <c r="AX122" s="45"/>
       <c r="AY122" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>YES</v>
       </c>
     </row>
@@ -56656,6 +56651,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -56668,11 +56668,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -56681,6 +56676,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003D35AAEA1B2FCB4388BD96CEDC55F277" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3dbe2424fad29e82dbed878f9c5e39b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8" xmlns:ns3="5976181e-0ba6-4027-87bb-22a58e318fb6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13ef504368312e798a12ea4dafd4e8bd" ns2:_="" ns3:_="">
     <xsd:import namespace="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8"/>
@@ -56877,22 +56887,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BAA8BF1-CC80-4539-9D14-46D49F0014CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56909,21 +56921,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA94D01-D6B8-4C62-802D-ADD0D4F3C935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAD464F-CA7A-4B8A-8CFC-BA25A100F38C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13892,6 +13892,10 @@
     <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="117" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13901,10 +13905,6 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18809,46 +18809,46 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="442" t="s">
+      <c r="A3" s="446" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="442" t="s">
+      <c r="B3" s="446" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="442" t="s">
+      <c r="C3" s="446" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="444" t="s">
+      <c r="D3" s="448" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="444"/>
-      <c r="F3" s="442" t="s">
+      <c r="E3" s="448"/>
+      <c r="F3" s="446" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="442" t="s">
+      <c r="G3" s="446" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="442" t="s">
+      <c r="H3" s="446" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="442" t="s">
+      <c r="I3" s="446" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="443"/>
-      <c r="B4" s="443"/>
-      <c r="C4" s="443"/>
+      <c r="A4" s="447"/>
+      <c r="B4" s="447"/>
+      <c r="C4" s="447"/>
       <c r="D4" s="72" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="443"/>
-      <c r="G4" s="443"/>
-      <c r="H4" s="443"/>
-      <c r="I4" s="443"/>
+      <c r="F4" s="447"/>
+      <c r="G4" s="447"/>
+      <c r="H4" s="447"/>
+      <c r="I4" s="447"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
@@ -18934,18 +18934,18 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="189"/>
-      <c r="B11" s="445" t="str">
+      <c r="B11" s="442" t="str">
         <f>"Data summary table with data from "&amp;A5</f>
         <v>Data summary table with data from S1</v>
       </c>
-      <c r="C11" s="446"/>
+      <c r="C11" s="443"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="447" t="s">
+      <c r="B12" s="444" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="448"/>
+      <c r="C12" s="445"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
@@ -19315,16 +19315,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20106,7 +20106,7 @@
   <dimension ref="A1:AY122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
@@ -23158,19 +23158,19 @@
         <v>SRVSH, SRVWH</v>
       </c>
       <c r="F29" s="353">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="G29" s="353">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="H29" s="353">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="I29" s="353">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="J29" s="353">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="K29" s="353"/>
       <c r="L29" s="353"/>
@@ -23178,19 +23178,24 @@
       <c r="N29" s="353"/>
       <c r="O29" s="353"/>
       <c r="P29" s="353">
-        <v>1.29</v>
+        <f>F29*0.7</f>
+        <v>0.90299999999999991</v>
       </c>
       <c r="Q29" s="353">
-        <v>1.29</v>
+        <f t="shared" ref="Q29:T29" si="16">G29*0.7</f>
+        <v>0.90299999999999991</v>
       </c>
       <c r="R29" s="353">
-        <v>1.29</v>
+        <f t="shared" si="16"/>
+        <v>0.90299999999999991</v>
       </c>
       <c r="S29" s="353">
-        <v>1.29</v>
+        <f t="shared" si="16"/>
+        <v>0.90299999999999991</v>
       </c>
       <c r="T29" s="353">
-        <v>1.29</v>
+        <f t="shared" si="16"/>
+        <v>0.90299999999999991</v>
       </c>
       <c r="U29" s="354">
         <f>'JRC data'!AX62</f>
@@ -23358,31 +23363,31 @@
       <c r="Z31" s="349"/>
       <c r="AA31" s="349"/>
       <c r="AB31" s="349">
-        <f t="shared" ref="AB31:AH31" si="16">AB16</f>
+        <f t="shared" ref="AB31:AH31" si="17">AB16</f>
         <v>665</v>
       </c>
       <c r="AC31" s="349">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>665</v>
       </c>
       <c r="AD31" s="349">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>665</v>
       </c>
       <c r="AE31" s="349">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>665</v>
       </c>
       <c r="AF31" s="349">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>665</v>
       </c>
       <c r="AG31" s="350">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="AH31" s="351">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI31" s="34"/>
@@ -23558,51 +23563,51 @@
       </c>
       <c r="V33" s="348"/>
       <c r="W33" s="349">
-        <f t="shared" ref="W33:AH33" si="17">W7</f>
+        <f t="shared" ref="W33:AH33" si="18">W7</f>
         <v>22500</v>
       </c>
       <c r="X33" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20000</v>
       </c>
       <c r="Y33" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17500</v>
       </c>
       <c r="Z33" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17500</v>
       </c>
       <c r="AA33" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17500</v>
       </c>
       <c r="AB33" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>58.441558441558442</v>
       </c>
       <c r="AC33" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>51.948051948051948</v>
       </c>
       <c r="AD33" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AE33" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AF33" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AG33" s="350">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="AH33" s="351">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AI33" s="34"/>
@@ -23644,76 +23649,76 @@
       <c r="N34" s="347"/>
       <c r="O34" s="347"/>
       <c r="P34" s="347">
-        <f t="shared" ref="P34:U34" si="18">P14</f>
+        <f t="shared" ref="P34:U34" si="19">P14</f>
         <v>0.7</v>
       </c>
       <c r="Q34" s="347">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.71647058823529397</v>
       </c>
       <c r="R34" s="347">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.74941176470588233</v>
       </c>
       <c r="S34" s="347">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.78235294117647058</v>
       </c>
       <c r="T34" s="347">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.78235294117647058</v>
       </c>
       <c r="U34" s="348">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="V34" s="348"/>
       <c r="W34" s="349">
-        <f t="shared" ref="W34:AH34" si="19">W13</f>
+        <f t="shared" ref="W34:AH34" si="20">W13</f>
         <v>108500</v>
       </c>
       <c r="X34" s="349">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>108500</v>
       </c>
       <c r="Y34" s="349">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>112000</v>
       </c>
       <c r="Z34" s="349">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>112000</v>
       </c>
       <c r="AA34" s="349">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>112000</v>
       </c>
       <c r="AB34" s="349">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>197.27272727272728</v>
       </c>
       <c r="AC34" s="349">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>197.27272727272728</v>
       </c>
       <c r="AD34" s="349">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>203.63636363636363</v>
       </c>
       <c r="AE34" s="349">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>203.63636363636363</v>
       </c>
       <c r="AF34" s="349">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>203.63636363636363</v>
       </c>
       <c r="AG34" s="350">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.7272727272727274E-2</v>
       </c>
       <c r="AH34" s="351">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AI34" s="34"/>
@@ -23755,76 +23760,76 @@
       <c r="N35" s="353"/>
       <c r="O35" s="353"/>
       <c r="P35" s="353">
-        <f t="shared" ref="P35:U35" si="20">P12</f>
+        <f t="shared" ref="P35:U35" si="21">P12</f>
         <v>0.7</v>
       </c>
       <c r="Q35" s="353">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.7</v>
       </c>
       <c r="R35" s="353">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.7</v>
       </c>
       <c r="S35" s="353">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.7</v>
       </c>
       <c r="T35" s="353">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.7</v>
       </c>
       <c r="U35" s="354">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
       <c r="V35" s="354"/>
       <c r="W35" s="355">
-        <f t="shared" ref="W35:AH35" si="21">W33</f>
+        <f t="shared" ref="W35:AH35" si="22">W33</f>
         <v>22500</v>
       </c>
       <c r="X35" s="355">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20000</v>
       </c>
       <c r="Y35" s="355">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17500</v>
       </c>
       <c r="Z35" s="355">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17500</v>
       </c>
       <c r="AA35" s="355">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17500</v>
       </c>
       <c r="AB35" s="355">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>58.441558441558442</v>
       </c>
       <c r="AC35" s="355">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>51.948051948051948</v>
       </c>
       <c r="AD35" s="355">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AE35" s="355">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AF35" s="355">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AG35" s="356">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="AH35" s="357">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="AI35" s="37"/>
@@ -23939,51 +23944,51 @@
       </c>
       <c r="V37" s="371"/>
       <c r="W37" s="349">
-        <f t="shared" ref="W37:AH37" si="22">W18</f>
+        <f t="shared" ref="W37:AH37" si="23">W18</f>
         <v>27140.2</v>
       </c>
       <c r="X37" s="349">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>25783.19</v>
       </c>
       <c r="Y37" s="349">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>23340.571999999996</v>
       </c>
       <c r="Z37" s="349">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>22254.963999999996</v>
       </c>
       <c r="AA37" s="349">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>22254.963999999996</v>
       </c>
       <c r="AB37" s="349">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>426.06279434850865</v>
       </c>
       <c r="AC37" s="349">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>404.75965463108315</v>
       </c>
       <c r="AD37" s="349">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>366.41400313971735</v>
       </c>
       <c r="AE37" s="349">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>349.37149136577699</v>
       </c>
       <c r="AF37" s="349">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>349.37149136577699</v>
       </c>
       <c r="AG37" s="350">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10.204081632653061</v>
       </c>
       <c r="AH37" s="351">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AI37" s="34"/>
@@ -24690,7 +24695,7 @@
       <c r="AO47" s="211"/>
       <c r="AP47" s="172"/>
       <c r="AQ47" s="224" t="str">
-        <f t="shared" ref="AQ47:AQ80" si="23">IF(LEFT(A47)="*",A47,"PRE")</f>
+        <f t="shared" ref="AQ47:AQ80" si="24">IF(LEFT(A47)="*",A47,"PRE")</f>
         <v>*Boilers</v>
       </c>
       <c r="AR47" s="280" t="str">
@@ -24698,19 +24703,19 @@
         <v/>
       </c>
       <c r="AS47" s="224" t="str">
-        <f t="shared" ref="AS47:AT80" si="24">IF(LEFT($A47)="*","",A47)</f>
+        <f t="shared" ref="AS47:AT80" si="25">IF(LEFT($A47)="*","",A47)</f>
         <v/>
       </c>
       <c r="AT47" s="224" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AU47" s="224" t="str">
-        <f t="shared" ref="AU47:AU81" si="25">IF(LEFT($A47)="*","","PJ")</f>
+        <f t="shared" ref="AU47:AU81" si="26">IF(LEFT($A47)="*","","PJ")</f>
         <v/>
       </c>
       <c r="AV47" s="224" t="str">
-        <f t="shared" ref="AV47:AV81" si="26">IF(LEFT($A47)="*","","GW")</f>
+        <f t="shared" ref="AV47:AV81" si="27">IF(LEFT($A47)="*","","GW")</f>
         <v/>
       </c>
       <c r="AW47" s="42" t="str">
@@ -24719,7 +24724,7 @@
       </c>
       <c r="AX47" s="224"/>
       <c r="AY47" s="224" t="str">
-        <f t="shared" ref="AY47" si="27">IF($AS47="","","YES")</f>
+        <f t="shared" ref="AY47" si="28">IF($AS47="","","YES")</f>
         <v/>
       </c>
     </row>
@@ -24850,7 +24855,7 @@
         <v/>
       </c>
       <c r="AK48" s="68">
-        <f t="shared" ref="AK48:AK57" si="28">IF($A48="*","",31.536)</f>
+        <f t="shared" ref="AK48:AK57" si="29">IF($A48="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL48" s="40"/>
@@ -24862,7 +24867,7 @@
       <c r="AO48" s="211"/>
       <c r="AP48" s="172"/>
       <c r="AQ48" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR48" s="280" t="str">
@@ -24870,19 +24875,19 @@
         <v>IE,National</v>
       </c>
       <c r="AS48" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_OIL_N1</v>
       </c>
       <c r="AT48" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Oil boiler condensing_SH</v>
       </c>
       <c r="AU48" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV48" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY48" s="42" t="str">
@@ -25017,19 +25022,19 @@
         <v/>
       </c>
       <c r="AK49" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL49" s="40"/>
       <c r="AM49" s="81">
-        <f t="shared" ref="AM49:AM81" si="29">IF($A49="*","",2019)</f>
+        <f t="shared" ref="AM49:AM81" si="30">IF($A49="*","",2019)</f>
         <v>2019</v>
       </c>
       <c r="AN49" s="211"/>
       <c r="AO49" s="211"/>
       <c r="AP49" s="172"/>
       <c r="AQ49" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR49" s="42" t="str">
@@ -25037,23 +25042,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS49" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_OIL_N2</v>
       </c>
       <c r="AT49" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Oil boiler condensing_SH-WH</v>
       </c>
       <c r="AU49" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV49" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY49" s="42" t="str">
-        <f t="shared" ref="AY49:AY81" si="30">IF($AS49="","","YES")</f>
+        <f t="shared" ref="AY49:AY81" si="31">IF($AS49="","","YES")</f>
         <v>YES</v>
       </c>
     </row>
@@ -25184,19 +25189,19 @@
         <v/>
       </c>
       <c r="AK50" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL50" s="40"/>
       <c r="AM50" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN50" s="211"/>
       <c r="AO50" s="211"/>
       <c r="AP50" s="172"/>
       <c r="AQ50" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR50" s="42" t="str">
@@ -25204,23 +25209,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS50" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_GAS_N1</v>
       </c>
       <c r="AT50" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Gas boiler condensing_SH</v>
       </c>
       <c r="AU50" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV50" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY50" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -25351,19 +25356,19 @@
         <v/>
       </c>
       <c r="AK51" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL51" s="40"/>
       <c r="AM51" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN51" s="211"/>
       <c r="AO51" s="211"/>
       <c r="AP51" s="172"/>
       <c r="AQ51" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR51" s="42" t="str">
@@ -25371,23 +25376,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS51" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_GAS_N2</v>
       </c>
       <c r="AT51" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">Commercial Services - Gas boiler condensing_SH-WH </v>
       </c>
       <c r="AU51" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV51" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY51" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -25518,19 +25523,19 @@
         <v/>
       </c>
       <c r="AK52" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL52" s="40"/>
       <c r="AM52" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN52" s="211"/>
       <c r="AO52" s="211"/>
       <c r="AP52" s="172"/>
       <c r="AQ52" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR52" s="42" t="str">
@@ -25538,23 +25543,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS52" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_GAS_N3</v>
       </c>
       <c r="AT52" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">Commercial Services - Gas boiler condensing + Solar thermal_SH-WH </v>
       </c>
       <c r="AU52" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV52" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY52" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -25685,19 +25690,19 @@
         <v>0.51127819548872178</v>
       </c>
       <c r="AK53" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL53" s="40"/>
       <c r="AM53" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN53" s="211"/>
       <c r="AO53" s="211"/>
       <c r="AP53" s="172"/>
       <c r="AQ53" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR53" s="42" t="str">
@@ -25705,23 +25710,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS53" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS-GAS_N4</v>
       </c>
       <c r="AT53" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">Commercial Services - Gas boiler condensing + Wood stove_SH-WH </v>
       </c>
       <c r="AU53" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV53" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY53" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -25852,19 +25857,19 @@
         <v/>
       </c>
       <c r="AK54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL54" s="84"/>
       <c r="AM54" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN54" s="211"/>
       <c r="AO54" s="211"/>
       <c r="AP54" s="172"/>
       <c r="AQ54" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR54" s="42" t="str">
@@ -25872,23 +25877,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS54" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_LPG_N1</v>
       </c>
       <c r="AT54" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - LPG boiler condensing_SH</v>
       </c>
       <c r="AU54" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV54" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY54" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -26019,19 +26024,19 @@
         <v/>
       </c>
       <c r="AK55" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL55" s="84"/>
       <c r="AM55" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN55" s="211"/>
       <c r="AO55" s="211"/>
       <c r="AP55" s="172"/>
       <c r="AQ55" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR55" s="42" t="str">
@@ -26039,23 +26044,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS55" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_LPG_N2</v>
       </c>
       <c r="AT55" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - LPG boiler condensing_SH-WH</v>
       </c>
       <c r="AU55" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV55" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY55" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -26187,19 +26192,19 @@
         <v/>
       </c>
       <c r="AK56" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL56" s="40"/>
       <c r="AM56" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN56" s="211"/>
       <c r="AO56" s="211"/>
       <c r="AP56" s="172"/>
       <c r="AQ56" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR56" s="42" t="str">
@@ -26207,23 +26212,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS56" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_BIO_N1</v>
       </c>
       <c r="AT56" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Biomass boiler_SH</v>
       </c>
       <c r="AU56" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV56" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY56" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -26355,19 +26360,19 @@
         <v/>
       </c>
       <c r="AK57" s="214">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL57" s="210"/>
       <c r="AM57" s="208">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN57" s="211"/>
       <c r="AO57" s="211"/>
       <c r="AP57" s="172"/>
       <c r="AQ57" s="45" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR57" s="45" t="str">
@@ -26375,25 +26380,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS57" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_BIO_N2</v>
       </c>
       <c r="AT57" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Biomass boiler_SH-WH</v>
       </c>
       <c r="AU57" s="45" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV57" s="45" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW57" s="45"/>
       <c r="AX57" s="45"/>
       <c r="AY57" s="45" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -26449,7 +26454,7 @@
       <c r="AO58" s="211"/>
       <c r="AP58" s="172"/>
       <c r="AQ58" s="57" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>*Heaters</v>
       </c>
       <c r="AR58" s="57" t="str">
@@ -26457,25 +26462,25 @@
         <v/>
       </c>
       <c r="AS58" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AT58" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AU58" s="57" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AV58" s="57" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW58" s="57"/>
       <c r="AX58" s="57"/>
       <c r="AY58" s="57" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -26612,14 +26617,14 @@
       </c>
       <c r="AL59" s="46"/>
       <c r="AM59" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN59" s="211"/>
       <c r="AO59" s="211"/>
       <c r="AP59" s="172"/>
       <c r="AQ59" s="45" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR59" s="45" t="str">
@@ -26627,25 +26632,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS59" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_ELC_N1</v>
       </c>
       <c r="AT59" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Electric boiler_SH</v>
       </c>
       <c r="AU59" s="45" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV59" s="45" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW59" s="45"/>
       <c r="AX59" s="45"/>
       <c r="AY59" s="45" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -26701,7 +26706,7 @@
       <c r="AO60" s="211"/>
       <c r="AP60" s="172"/>
       <c r="AQ60" s="57" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>*Heat Pumps</v>
       </c>
       <c r="AR60" s="57" t="str">
@@ -26709,25 +26714,25 @@
         <v/>
       </c>
       <c r="AS60" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AT60" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AU60" s="57" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AV60" s="57" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW60" s="57"/>
       <c r="AX60" s="57"/>
       <c r="AY60" s="57" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -26862,19 +26867,19 @@
         <v/>
       </c>
       <c r="AK61" s="68">
-        <f t="shared" ref="AK61:AK70" si="31">IF($A61="*","",31.536)</f>
+        <f t="shared" ref="AK61:AK70" si="32">IF($A61="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL61" s="40"/>
       <c r="AM61" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN61" s="211"/>
       <c r="AO61" s="211"/>
       <c r="AP61" s="172"/>
       <c r="AQ61" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR61" s="42" t="str">
@@ -26882,23 +26887,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS61" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_ELC_N2</v>
       </c>
       <c r="AT61" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Heat Pump Air-to-Air_SH</v>
       </c>
       <c r="AU61" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV61" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY61" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -27033,19 +27038,19 @@
         <v/>
       </c>
       <c r="AK62" s="68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL62" s="40"/>
       <c r="AM62" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN62" s="211"/>
       <c r="AO62" s="211"/>
       <c r="AP62" s="172"/>
       <c r="AQ62" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR62" s="42" t="str">
@@ -27053,23 +27058,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS62" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_ELC_N3</v>
       </c>
       <c r="AT62" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Heat Pump Air-to-Air_SH-SC</v>
       </c>
       <c r="AU62" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV62" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY62" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -27204,19 +27209,19 @@
         <v/>
       </c>
       <c r="AK63" s="68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL63" s="40"/>
       <c r="AM63" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN63" s="211"/>
       <c r="AO63" s="211"/>
       <c r="AP63" s="172"/>
       <c r="AQ63" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR63" s="42" t="str">
@@ -27224,23 +27229,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS63" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_ELC_N4</v>
       </c>
       <c r="AT63" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Heat Pump Air-to-Water_SH</v>
       </c>
       <c r="AU63" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV63" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY63" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -27375,19 +27380,19 @@
         <v/>
       </c>
       <c r="AK64" s="68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL64" s="40"/>
       <c r="AM64" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN64" s="211"/>
       <c r="AO64" s="211"/>
       <c r="AP64" s="172"/>
       <c r="AQ64" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR64" s="42" t="str">
@@ -27395,23 +27400,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS64" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_ELC_N5</v>
       </c>
       <c r="AT64" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Heat Pump Air-to-Water_SH-WH</v>
       </c>
       <c r="AU64" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV64" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY64" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -27546,19 +27551,19 @@
         <v/>
       </c>
       <c r="AK65" s="68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL65" s="40"/>
       <c r="AM65" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN65" s="211"/>
       <c r="AO65" s="211"/>
       <c r="AP65" s="172"/>
       <c r="AQ65" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR65" s="42" t="str">
@@ -27566,23 +27571,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS65" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_ELC_N6</v>
       </c>
       <c r="AT65" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Heat Pump Air-to-Water + Solar thermal_SH-WH</v>
       </c>
       <c r="AU65" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV65" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY65" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -27717,19 +27722,19 @@
         <v/>
       </c>
       <c r="AK66" s="68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL66" s="40"/>
       <c r="AM66" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN66" s="211"/>
       <c r="AO66" s="211"/>
       <c r="AP66" s="172"/>
       <c r="AQ66" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR66" s="42" t="str">
@@ -27737,23 +27742,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS66" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_ELC_N7</v>
       </c>
       <c r="AT66" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Heat Pump Ground Source_SH</v>
       </c>
       <c r="AU66" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV66" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY66" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -27888,19 +27893,19 @@
         <v/>
       </c>
       <c r="AK67" s="68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL67" s="40"/>
       <c r="AM67" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN67" s="211"/>
       <c r="AO67" s="211"/>
       <c r="AP67" s="172"/>
       <c r="AQ67" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR67" s="42" t="str">
@@ -27908,23 +27913,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS67" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_ELC_N8</v>
       </c>
       <c r="AT67" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Heat Pump Ground Source_SH-SC</v>
       </c>
       <c r="AU67" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV67" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY67" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -28059,19 +28064,19 @@
         <v/>
       </c>
       <c r="AK68" s="68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL68" s="40"/>
       <c r="AM68" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN68" s="211"/>
       <c r="AO68" s="211"/>
       <c r="AP68" s="172"/>
       <c r="AQ68" s="42" t="str">
-        <f t="shared" ref="AQ68" si="32">IF(LEFT(A68)="*",A68,"PRE")</f>
+        <f t="shared" ref="AQ68" si="33">IF(LEFT(A68)="*",A68,"PRE")</f>
         <v>PRE</v>
       </c>
       <c r="AR68" s="42" t="str">
@@ -28079,23 +28084,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS68" s="42" t="str">
-        <f t="shared" ref="AS68" si="33">IF(LEFT($A68)="*","",A68)</f>
+        <f t="shared" ref="AS68" si="34">IF(LEFT($A68)="*","",A68)</f>
         <v>S-SH-CS_ELC_N9</v>
       </c>
       <c r="AT68" s="42" t="str">
-        <f t="shared" ref="AT68" si="34">IF(LEFT($A68)="*","",B68)</f>
+        <f t="shared" ref="AT68" si="35">IF(LEFT($A68)="*","",B68)</f>
         <v>Commercial Services - Centralized Air-to-Air heat pump_SH-SC</v>
       </c>
       <c r="AU68" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV68" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY68" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -28230,19 +28235,19 @@
         <v/>
       </c>
       <c r="AK69" s="68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL69" s="40"/>
       <c r="AM69" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN69" s="211"/>
       <c r="AO69" s="211"/>
       <c r="AP69" s="172"/>
       <c r="AQ69" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR69" s="42" t="str">
@@ -28250,23 +28255,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS69" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_GAS_N5</v>
       </c>
       <c r="AT69" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Gas-driven Heat Pump absorption_SH-WH</v>
       </c>
       <c r="AU69" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV69" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY69" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -28401,19 +28406,19 @@
         <v/>
       </c>
       <c r="AK70" s="69">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL70" s="46"/>
       <c r="AM70" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN70" s="172"/>
       <c r="AO70" s="172"/>
       <c r="AP70" s="172"/>
       <c r="AQ70" s="45" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR70" s="45" t="str">
@@ -28421,25 +28426,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS70" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_GAS_N6</v>
       </c>
       <c r="AT70" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Gas-driven Heat Pump engine_SH-WH</v>
       </c>
       <c r="AU70" s="45" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV70" s="45" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW70" s="45"/>
       <c r="AX70" s="45"/>
       <c r="AY70" s="45" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -28495,7 +28500,7 @@
       <c r="AO71" s="172"/>
       <c r="AP71" s="172"/>
       <c r="AQ71" s="57" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>*District Heating</v>
       </c>
       <c r="AR71" s="57" t="str">
@@ -28503,25 +28508,25 @@
         <v/>
       </c>
       <c r="AS71" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AT71" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AU71" s="57" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AV71" s="57" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW71" s="57"/>
       <c r="AX71" s="57"/>
       <c r="AY71" s="57" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -28548,19 +28553,19 @@
       </c>
       <c r="G72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!G29=0,"",SRV_TH!G29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="H72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!H29=0,"",SRV_TH!H29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="I72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!I29=0,"",SRV_TH!I29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="J72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!J29=0,"",SRV_TH!J29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="K72" s="262" t="str">
         <f>IF($A72="*","",IF(SRV_TH!K29=0,"",SRV_TH!K29))</f>
@@ -28584,23 +28589,23 @@
       </c>
       <c r="P72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!P29=0,"",SRV_TH!P29))</f>
-        <v>1.29</v>
+        <v>0.90299999999999991</v>
       </c>
       <c r="Q72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!Q29=0,"",SRV_TH!Q29))</f>
-        <v>1.29</v>
+        <v>0.90299999999999991</v>
       </c>
       <c r="R72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!R29=0,"",SRV_TH!R29))</f>
-        <v>1.29</v>
+        <v>0.90299999999999991</v>
       </c>
       <c r="S72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!S29=0,"",SRV_TH!S29))</f>
-        <v>1.29</v>
+        <v>0.90299999999999991</v>
       </c>
       <c r="T72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!T29=0,"",SRV_TH!T29))</f>
-        <v>1.29</v>
+        <v>0.90299999999999991</v>
       </c>
       <c r="U72" s="212">
         <f>IF($A72="*","",IF(SRV_TH!U29=0,"",SRV_TH!U29))</f>
@@ -28657,14 +28662,14 @@
       </c>
       <c r="AL72" s="210"/>
       <c r="AM72" s="208">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN72" s="176"/>
       <c r="AO72" s="176"/>
       <c r="AP72" s="172"/>
       <c r="AQ72" s="45" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR72" s="45" t="str">
@@ -28672,25 +28677,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS72" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SH-CS_HET_N1</v>
       </c>
       <c r="AT72" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Centralized DistrictH_Heat Exchanger_SH-WH</v>
       </c>
       <c r="AU72" s="45" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV72" s="45" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW72" s="45"/>
       <c r="AX72" s="45"/>
       <c r="AY72" s="45" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -28746,7 +28751,7 @@
       <c r="AO73" s="172"/>
       <c r="AP73" s="172"/>
       <c r="AQ73" s="57" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>*Water Heat-only</v>
       </c>
       <c r="AR73" s="57" t="str">
@@ -28754,25 +28759,25 @@
         <v/>
       </c>
       <c r="AS73" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AT73" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AU73" s="57" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AV73" s="57" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW73" s="57"/>
       <c r="AX73" s="57"/>
       <c r="AY73" s="57" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -28908,14 +28913,14 @@
       </c>
       <c r="AL74" s="84"/>
       <c r="AM74" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN74" s="172"/>
       <c r="AO74" s="172"/>
       <c r="AP74" s="172"/>
       <c r="AQ74" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR74" s="42" t="str">
@@ -28923,23 +28928,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS74" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-WH-CS_ELC_N1</v>
       </c>
       <c r="AT74" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Electric water heater_WH</v>
       </c>
       <c r="AU74" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV74" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY74" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -29075,14 +29080,14 @@
       </c>
       <c r="AL75" s="40"/>
       <c r="AM75" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN75" s="172"/>
       <c r="AO75" s="172"/>
       <c r="AP75" s="172"/>
       <c r="AQ75" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR75" s="42" t="str">
@@ -29090,23 +29095,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS75" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-WH-CS_SOL_N1</v>
       </c>
       <c r="AT75" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Solar water heater_WH</v>
       </c>
       <c r="AU75" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV75" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY75" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -29242,14 +29247,14 @@
       </c>
       <c r="AL76" s="84"/>
       <c r="AM76" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN76" s="172"/>
       <c r="AO76" s="172"/>
       <c r="AP76" s="172"/>
       <c r="AQ76" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR76" s="42" t="str">
@@ -29257,23 +29262,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS76" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-WH-CS_GAS_N1</v>
       </c>
       <c r="AT76" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Gas water heater_WH</v>
       </c>
       <c r="AU76" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV76" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY76" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -29404,19 +29409,19 @@
         <v/>
       </c>
       <c r="AK77" s="68">
-        <f t="shared" ref="AK77:AK78" si="35">IF($A77="*","",31.536)</f>
+        <f t="shared" ref="AK77:AK78" si="36">IF($A77="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL77" s="84"/>
       <c r="AM77" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN77" s="172"/>
       <c r="AO77" s="172"/>
       <c r="AP77" s="172"/>
       <c r="AQ77" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR77" s="42" t="str">
@@ -29424,23 +29429,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS77" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-WH-CS_BIO_N1</v>
       </c>
       <c r="AT77" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Biomass water heater_WH</v>
       </c>
       <c r="AU77" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV77" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY77" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -29572,19 +29577,19 @@
         <v/>
       </c>
       <c r="AK78" s="214">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL78" s="71"/>
       <c r="AM78" s="208">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN78" s="211"/>
       <c r="AO78" s="211"/>
       <c r="AP78" s="172"/>
       <c r="AQ78" s="45" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR78" s="45" t="str">
@@ -29592,25 +29597,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS78" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-WH-CS_LPG_N1</v>
       </c>
       <c r="AT78" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - LPG water heater_WH</v>
       </c>
       <c r="AU78" s="45" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV78" s="45" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW78" s="45"/>
       <c r="AX78" s="45"/>
       <c r="AY78" s="45" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -29666,7 +29671,7 @@
       <c r="AO79" s="211"/>
       <c r="AP79" s="172"/>
       <c r="AQ79" s="57" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>*Cooling-only</v>
       </c>
       <c r="AR79" s="57" t="str">
@@ -29674,25 +29679,25 @@
         <v/>
       </c>
       <c r="AS79" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AT79" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AU79" s="57" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AV79" s="57" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW79" s="57"/>
       <c r="AX79" s="57"/>
       <c r="AY79" s="57" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -29828,14 +29833,14 @@
       </c>
       <c r="AL80" s="84"/>
       <c r="AM80" s="81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AN80" s="172"/>
       <c r="AO80" s="172"/>
       <c r="AP80" s="172"/>
       <c r="AQ80" s="42" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>PRE</v>
       </c>
       <c r="AR80" s="42" t="str">
@@ -29843,23 +29848,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS80" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>S-SC-CS_ELC_N1</v>
       </c>
       <c r="AT80" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Commercial Services - Room air conditioning Air-to-Air_SC</v>
       </c>
       <c r="AU80" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV80" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY80" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -29996,11 +30001,11 @@
       </c>
       <c r="AL81" s="71"/>
       <c r="AM81" s="208">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="AQ81" s="45" t="str">
-        <f t="shared" ref="AQ81" si="36">IF(LEFT(A81)="*",A81,"PRE")</f>
+        <f t="shared" ref="AQ81" si="37">IF(LEFT(A81)="*",A81,"PRE")</f>
         <v>PRE</v>
       </c>
       <c r="AR81" s="45" t="str">
@@ -30008,25 +30013,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS81" s="45" t="str">
-        <f t="shared" ref="AS81" si="37">IF(LEFT($A81)="*","",A81)</f>
+        <f t="shared" ref="AS81" si="38">IF(LEFT($A81)="*","",A81)</f>
         <v>S-SC-CS_ELC_N2</v>
       </c>
       <c r="AT81" s="45" t="str">
-        <f t="shared" ref="AT81" si="38">IF(LEFT($A81)="*","",B81)</f>
+        <f t="shared" ref="AT81" si="39">IF(LEFT($A81)="*","",B81)</f>
         <v>Commercial Services - Centralized air conditioning_SC</v>
       </c>
       <c r="AU81" s="45" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>PJ</v>
       </c>
       <c r="AV81" s="45" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW81" s="45"/>
       <c r="AX81" s="45"/>
       <c r="AY81" s="45" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>YES</v>
       </c>
     </row>
@@ -30550,7 +30555,7 @@
       <c r="AO88" s="211"/>
       <c r="AP88" s="172"/>
       <c r="AQ88" s="224" t="str">
-        <f t="shared" ref="AQ88:AQ121" si="39">IF(LEFT(A88)="*",A88,"PRE")</f>
+        <f t="shared" ref="AQ88:AQ121" si="40">IF(LEFT(A88)="*",A88,"PRE")</f>
         <v>*Boilers</v>
       </c>
       <c r="AR88" s="224" t="str">
@@ -30558,19 +30563,19 @@
         <v/>
       </c>
       <c r="AS88" s="224" t="str">
-        <f t="shared" ref="AS88:AT121" si="40">IF(LEFT($A88)="*","",A88)</f>
+        <f t="shared" ref="AS88:AT121" si="41">IF(LEFT($A88)="*","",A88)</f>
         <v/>
       </c>
       <c r="AT88" s="224" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU88" s="224" t="str">
-        <f t="shared" ref="AU88:AU122" si="41">IF(LEFT($A88)="*","","PJ")</f>
+        <f t="shared" ref="AU88:AU122" si="42">IF(LEFT($A88)="*","","PJ")</f>
         <v/>
       </c>
       <c r="AV88" s="224" t="str">
-        <f t="shared" ref="AV88:AV122" si="42">IF(LEFT($A88)="*","","GW")</f>
+        <f t="shared" ref="AV88:AV122" si="43">IF(LEFT($A88)="*","","GW")</f>
         <v/>
       </c>
       <c r="AW88" s="42" t="str">
@@ -30579,7 +30584,7 @@
       </c>
       <c r="AX88" s="224"/>
       <c r="AY88" s="224" t="str">
-        <f t="shared" ref="AY88:AY122" si="43">IF($AS88="","","YES")</f>
+        <f t="shared" ref="AY88:AY122" si="44">IF($AS88="","","YES")</f>
         <v/>
       </c>
     </row>
@@ -30710,7 +30715,7 @@
         <v/>
       </c>
       <c r="AK89" s="68">
-        <f t="shared" ref="AK89:AK98" si="44">IF($A89="*","",31.536)</f>
+        <f t="shared" ref="AK89:AK98" si="45">IF($A89="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL89" s="40"/>
@@ -30722,7 +30727,7 @@
       <c r="AO89" s="211"/>
       <c r="AP89" s="172"/>
       <c r="AQ89" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR89" s="42" t="str">
@@ -30730,23 +30735,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS89" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_OIL_N1</v>
       </c>
       <c r="AT89" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Oil boiler condensing_SH</v>
       </c>
       <c r="AU89" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV89" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY89" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -30877,19 +30882,19 @@
         <v/>
       </c>
       <c r="AK90" s="68">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL90" s="40"/>
       <c r="AM90" s="81">
-        <f t="shared" ref="AM90:AM122" si="45">IF($A90="*","",2019)</f>
+        <f t="shared" ref="AM90:AM122" si="46">IF($A90="*","",2019)</f>
         <v>2019</v>
       </c>
       <c r="AN90" s="211"/>
       <c r="AO90" s="211"/>
       <c r="AP90" s="172"/>
       <c r="AQ90" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR90" s="42" t="str">
@@ -30897,23 +30902,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS90" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_OIL_N2</v>
       </c>
       <c r="AT90" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Oil boiler condensing_SH-WH</v>
       </c>
       <c r="AU90" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV90" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY90" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31044,19 +31049,19 @@
         <v/>
       </c>
       <c r="AK91" s="68">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL91" s="40"/>
       <c r="AM91" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN91" s="211"/>
       <c r="AO91" s="211"/>
       <c r="AP91" s="172"/>
       <c r="AQ91" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR91" s="42" t="str">
@@ -31064,23 +31069,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS91" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_GAS_N1</v>
       </c>
       <c r="AT91" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Gas boiler condensing_SH</v>
       </c>
       <c r="AU91" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV91" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY91" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31211,19 +31216,19 @@
         <v/>
       </c>
       <c r="AK92" s="68">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL92" s="40"/>
       <c r="AM92" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN92" s="211"/>
       <c r="AO92" s="211"/>
       <c r="AP92" s="172"/>
       <c r="AQ92" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR92" s="42" t="str">
@@ -31231,23 +31236,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS92" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_GAS_N2</v>
       </c>
       <c r="AT92" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v xml:space="preserve">Public Services - Gas boiler condensing_SH-WH </v>
       </c>
       <c r="AU92" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV92" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY92" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31378,19 +31383,19 @@
         <v/>
       </c>
       <c r="AK93" s="68">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL93" s="40"/>
       <c r="AM93" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN93" s="211"/>
       <c r="AO93" s="211"/>
       <c r="AP93" s="172"/>
       <c r="AQ93" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR93" s="42" t="str">
@@ -31398,23 +31403,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS93" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_GAS_N3</v>
       </c>
       <c r="AT93" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v xml:space="preserve">Public Services - Gas boiler condensing + Solar thermal_SH-WH </v>
       </c>
       <c r="AU93" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV93" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY93" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31545,19 +31550,19 @@
         <v>0.51127819548872178</v>
       </c>
       <c r="AK94" s="68">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL94" s="40"/>
       <c r="AM94" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN94" s="211"/>
       <c r="AO94" s="211"/>
       <c r="AP94" s="172"/>
       <c r="AQ94" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR94" s="42" t="str">
@@ -31565,23 +31570,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS94" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_GAS_N4</v>
       </c>
       <c r="AT94" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v xml:space="preserve">Public Services - Gas boiler condensing + Wood stove_SH-WH </v>
       </c>
       <c r="AU94" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV94" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY94" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31712,19 +31717,19 @@
         <v/>
       </c>
       <c r="AK95" s="68">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL95" s="84"/>
       <c r="AM95" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN95" s="211"/>
       <c r="AO95" s="211"/>
       <c r="AP95" s="172"/>
       <c r="AQ95" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR95" s="42" t="str">
@@ -31732,23 +31737,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS95" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_LPG_N1</v>
       </c>
       <c r="AT95" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - LPG boiler condensing_SH</v>
       </c>
       <c r="AU95" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV95" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY95" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31879,19 +31884,19 @@
         <v/>
       </c>
       <c r="AK96" s="68">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL96" s="84"/>
       <c r="AM96" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN96" s="211"/>
       <c r="AO96" s="211"/>
       <c r="AP96" s="172"/>
       <c r="AQ96" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR96" s="42" t="str">
@@ -31899,23 +31904,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS96" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_LPG_N2</v>
       </c>
       <c r="AT96" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - LPG boiler condensing_SH-WH</v>
       </c>
       <c r="AU96" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV96" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY96" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -32047,19 +32052,19 @@
         <v/>
       </c>
       <c r="AK97" s="68">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL97" s="40"/>
       <c r="AM97" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN97" s="211"/>
       <c r="AO97" s="211"/>
       <c r="AP97" s="172"/>
       <c r="AQ97" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR97" s="42" t="str">
@@ -32067,23 +32072,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS97" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_BIO_N1</v>
       </c>
       <c r="AT97" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Biomass boiler_SH</v>
       </c>
       <c r="AU97" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV97" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY97" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -32215,19 +32220,19 @@
         <v/>
       </c>
       <c r="AK98" s="214">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL98" s="210"/>
       <c r="AM98" s="208">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN98" s="211"/>
       <c r="AO98" s="211"/>
       <c r="AP98" s="172"/>
       <c r="AQ98" s="45" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR98" s="45" t="str">
@@ -32235,25 +32240,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS98" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_BIO_N2</v>
       </c>
       <c r="AT98" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Biomass boiler_SH-WH</v>
       </c>
       <c r="AU98" s="45" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV98" s="45" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW98" s="45"/>
       <c r="AX98" s="45"/>
       <c r="AY98" s="45" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -32309,7 +32314,7 @@
       <c r="AO99" s="211"/>
       <c r="AP99" s="172"/>
       <c r="AQ99" s="57" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>*Heaters</v>
       </c>
       <c r="AR99" s="57" t="str">
@@ -32317,25 +32322,25 @@
         <v/>
       </c>
       <c r="AS99" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AT99" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU99" s="57" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV99" s="57" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW99" s="57"/>
       <c r="AX99" s="57"/>
       <c r="AY99" s="57" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
@@ -32472,14 +32477,14 @@
       </c>
       <c r="AL100" s="46"/>
       <c r="AM100" s="82">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN100" s="211"/>
       <c r="AO100" s="211"/>
       <c r="AP100" s="172"/>
       <c r="AQ100" s="45" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR100" s="45" t="str">
@@ -32487,25 +32492,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS100" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_ELC_N1</v>
       </c>
       <c r="AT100" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Electric boiler_SH</v>
       </c>
       <c r="AU100" s="45" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV100" s="45" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW100" s="45"/>
       <c r="AX100" s="45"/>
       <c r="AY100" s="45" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -32561,7 +32566,7 @@
       <c r="AO101" s="211"/>
       <c r="AP101" s="172"/>
       <c r="AQ101" s="57" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>*Heat Pumps</v>
       </c>
       <c r="AR101" s="57" t="str">
@@ -32569,25 +32574,25 @@
         <v/>
       </c>
       <c r="AS101" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AT101" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU101" s="57" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV101" s="57" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW101" s="57"/>
       <c r="AX101" s="57"/>
       <c r="AY101" s="57" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
@@ -32722,19 +32727,19 @@
         <v/>
       </c>
       <c r="AK102" s="68">
-        <f t="shared" ref="AK102:AK111" si="46">IF($A102="*","",31.536)</f>
+        <f t="shared" ref="AK102:AK111" si="47">IF($A102="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL102" s="40"/>
       <c r="AM102" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN102" s="211"/>
       <c r="AO102" s="211"/>
       <c r="AP102" s="172"/>
       <c r="AQ102" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR102" s="42" t="str">
@@ -32742,23 +32747,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS102" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_ELC_N2</v>
       </c>
       <c r="AT102" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Heat Pump Air-to-Air_SH</v>
       </c>
       <c r="AU102" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV102" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY102" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -32893,19 +32898,19 @@
         <v/>
       </c>
       <c r="AK103" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL103" s="40"/>
       <c r="AM103" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN103" s="211"/>
       <c r="AO103" s="211"/>
       <c r="AP103" s="172"/>
       <c r="AQ103" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR103" s="42" t="str">
@@ -32913,23 +32918,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS103" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_ELC_N3</v>
       </c>
       <c r="AT103" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Heat Pump Air-to-Air_SH-SC</v>
       </c>
       <c r="AU103" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV103" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY103" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33064,19 +33069,19 @@
         <v/>
       </c>
       <c r="AK104" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL104" s="40"/>
       <c r="AM104" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN104" s="211"/>
       <c r="AO104" s="211"/>
       <c r="AP104" s="172"/>
       <c r="AQ104" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR104" s="42" t="str">
@@ -33084,23 +33089,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS104" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_ELC_N4</v>
       </c>
       <c r="AT104" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Heat Pump Air-to-Water_SH</v>
       </c>
       <c r="AU104" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV104" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY104" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33235,19 +33240,19 @@
         <v/>
       </c>
       <c r="AK105" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL105" s="40"/>
       <c r="AM105" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN105" s="211"/>
       <c r="AO105" s="211"/>
       <c r="AP105" s="172"/>
       <c r="AQ105" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR105" s="42" t="str">
@@ -33255,23 +33260,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS105" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_ELC_N5</v>
       </c>
       <c r="AT105" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Heat Pump Air-to-Water_SH-WH</v>
       </c>
       <c r="AU105" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV105" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY105" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33406,19 +33411,19 @@
         <v/>
       </c>
       <c r="AK106" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL106" s="40"/>
       <c r="AM106" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN106" s="211"/>
       <c r="AO106" s="211"/>
       <c r="AP106" s="172"/>
       <c r="AQ106" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR106" s="42" t="str">
@@ -33426,23 +33431,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS106" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_ELC_N6</v>
       </c>
       <c r="AT106" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Heat Pump Air-to-Water + Solar thermal_SH-WH</v>
       </c>
       <c r="AU106" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV106" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY106" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33577,19 +33582,19 @@
         <v/>
       </c>
       <c r="AK107" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL107" s="40"/>
       <c r="AM107" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN107" s="211"/>
       <c r="AO107" s="211"/>
       <c r="AP107" s="172"/>
       <c r="AQ107" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR107" s="42" t="str">
@@ -33597,23 +33602,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS107" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_ELC_N7</v>
       </c>
       <c r="AT107" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Heat Pump Ground Source_SH</v>
       </c>
       <c r="AU107" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV107" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY107" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33748,19 +33753,19 @@
         <v/>
       </c>
       <c r="AK108" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL108" s="40"/>
       <c r="AM108" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN108" s="211"/>
       <c r="AO108" s="211"/>
       <c r="AP108" s="172"/>
       <c r="AQ108" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR108" s="42" t="str">
@@ -33768,23 +33773,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS108" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_ELC_N8</v>
       </c>
       <c r="AT108" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Heat Pump Ground Source_SH-SC</v>
       </c>
       <c r="AU108" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV108" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY108" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33919,19 +33924,19 @@
         <v/>
       </c>
       <c r="AK109" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL109" s="40"/>
       <c r="AM109" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN109" s="211"/>
       <c r="AO109" s="211"/>
       <c r="AP109" s="172"/>
       <c r="AQ109" s="42" t="str">
-        <f t="shared" ref="AQ109" si="47">IF(LEFT(A109)="*",A109,"PRE")</f>
+        <f t="shared" ref="AQ109" si="48">IF(LEFT(A109)="*",A109,"PRE")</f>
         <v>PRE</v>
       </c>
       <c r="AR109" s="42" t="str">
@@ -33939,23 +33944,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS109" s="42" t="str">
-        <f t="shared" ref="AS109" si="48">IF(LEFT($A109)="*","",A109)</f>
+        <f t="shared" ref="AS109" si="49">IF(LEFT($A109)="*","",A109)</f>
         <v>S-SH-PU_ELC_N9</v>
       </c>
       <c r="AT109" s="42" t="str">
-        <f t="shared" ref="AT109" si="49">IF(LEFT($A109)="*","",B109)</f>
+        <f t="shared" ref="AT109" si="50">IF(LEFT($A109)="*","",B109)</f>
         <v>Public Services - Centralized Air-to-Air heat pump_SH-SC</v>
       </c>
       <c r="AU109" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV109" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY109" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -34090,19 +34095,19 @@
         <v/>
       </c>
       <c r="AK110" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL110" s="40"/>
       <c r="AM110" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN110" s="211"/>
       <c r="AO110" s="211"/>
       <c r="AP110" s="172"/>
       <c r="AQ110" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR110" s="42" t="str">
@@ -34110,23 +34115,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS110" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_GAS_N5</v>
       </c>
       <c r="AT110" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Gas-driven Heat Pump absorption_SH-WH</v>
       </c>
       <c r="AU110" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV110" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY110" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -34261,19 +34266,19 @@
         <v/>
       </c>
       <c r="AK111" s="69">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL111" s="46"/>
       <c r="AM111" s="82">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN111" s="211"/>
       <c r="AO111" s="211"/>
       <c r="AP111" s="172"/>
       <c r="AQ111" s="45" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR111" s="45" t="str">
@@ -34281,25 +34286,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS111" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_GAS_N6</v>
       </c>
       <c r="AT111" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Gas-driven Heat Pump engine_SH-WH</v>
       </c>
       <c r="AU111" s="45" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV111" s="45" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW111" s="45"/>
       <c r="AX111" s="45"/>
       <c r="AY111" s="45" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -34355,7 +34360,7 @@
       <c r="AO112" s="211"/>
       <c r="AP112" s="172"/>
       <c r="AQ112" s="57" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>*District Heating</v>
       </c>
       <c r="AR112" s="57" t="str">
@@ -34363,25 +34368,25 @@
         <v/>
       </c>
       <c r="AS112" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AT112" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU112" s="57" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV112" s="57" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW112" s="57"/>
       <c r="AX112" s="57"/>
       <c r="AY112" s="57" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
@@ -34405,23 +34410,23 @@
       </c>
       <c r="F113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!F29=0,"",SRV_TH!F29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="G113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!G29=0,"",SRV_TH!G29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="H113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!H29=0,"",SRV_TH!H29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="I113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!I29=0,"",SRV_TH!I29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="J113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!J29=0,"",SRV_TH!J29))</f>
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="K113" s="262" t="str">
         <f>IF($A113="*","",IF(SRV_TH!K29=0,"",SRV_TH!K29))</f>
@@ -34445,23 +34450,23 @@
       </c>
       <c r="P113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!P29=0,"",SRV_TH!P29))</f>
-        <v>1.29</v>
+        <v>0.90299999999999991</v>
       </c>
       <c r="Q113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!Q29=0,"",SRV_TH!Q29))</f>
-        <v>1.29</v>
+        <v>0.90299999999999991</v>
       </c>
       <c r="R113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!R29=0,"",SRV_TH!R29))</f>
-        <v>1.29</v>
+        <v>0.90299999999999991</v>
       </c>
       <c r="S113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!S29=0,"",SRV_TH!S29))</f>
-        <v>1.29</v>
+        <v>0.90299999999999991</v>
       </c>
       <c r="T113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!T29=0,"",SRV_TH!T29))</f>
-        <v>1.29</v>
+        <v>0.90299999999999991</v>
       </c>
       <c r="U113" s="212">
         <f>IF($A113="*","",IF(SRV_TH!U29=0,"",SRV_TH!U29))</f>
@@ -34518,14 +34523,14 @@
       </c>
       <c r="AL113" s="210"/>
       <c r="AM113" s="208">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN113" s="176"/>
       <c r="AO113" s="176"/>
       <c r="AP113" s="172"/>
       <c r="AQ113" s="45" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR113" s="45" t="str">
@@ -34533,25 +34538,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS113" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SH-PU_HET_N1</v>
       </c>
       <c r="AT113" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Centralized DistrictH_Heat Exchanger_SH-WH</v>
       </c>
       <c r="AU113" s="45" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV113" s="45" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW113" s="45"/>
       <c r="AX113" s="45"/>
       <c r="AY113" s="45" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -34607,7 +34612,7 @@
       <c r="AO114" s="211"/>
       <c r="AP114" s="172"/>
       <c r="AQ114" s="57" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>*Water Heat-only</v>
       </c>
       <c r="AR114" s="57" t="str">
@@ -34615,25 +34620,25 @@
         <v/>
       </c>
       <c r="AS114" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AT114" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU114" s="57" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV114" s="57" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW114" s="57"/>
       <c r="AX114" s="57"/>
       <c r="AY114" s="57" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
@@ -34769,14 +34774,14 @@
       </c>
       <c r="AL115" s="84"/>
       <c r="AM115" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN115" s="211"/>
       <c r="AO115" s="211"/>
       <c r="AP115" s="172"/>
       <c r="AQ115" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR115" s="42" t="str">
@@ -34784,23 +34789,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS115" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-WH-PU_ELC_N1</v>
       </c>
       <c r="AT115" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Electric water heater_WH</v>
       </c>
       <c r="AU115" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV115" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY115" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -34936,14 +34941,14 @@
       </c>
       <c r="AL116" s="40"/>
       <c r="AM116" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN116" s="211"/>
       <c r="AO116" s="211"/>
       <c r="AP116" s="172"/>
       <c r="AQ116" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR116" s="42" t="str">
@@ -34951,23 +34956,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS116" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-WH-PU_SOL_N1</v>
       </c>
       <c r="AT116" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Solar water heater_WH</v>
       </c>
       <c r="AU116" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV116" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY116" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -35103,14 +35108,14 @@
       </c>
       <c r="AL117" s="84"/>
       <c r="AM117" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN117" s="172"/>
       <c r="AO117" s="172"/>
       <c r="AP117" s="172"/>
       <c r="AQ117" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR117" s="42" t="str">
@@ -35118,23 +35123,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS117" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-WH-PU_GAS_N1</v>
       </c>
       <c r="AT117" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Gas water heater_WH</v>
       </c>
       <c r="AU117" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV117" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY117" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -35265,19 +35270,19 @@
         <v/>
       </c>
       <c r="AK118" s="68">
-        <f t="shared" ref="AK118:AK119" si="50">IF($A118="*","",31.536)</f>
+        <f t="shared" ref="AK118:AK119" si="51">IF($A118="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL118" s="84"/>
       <c r="AM118" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN118" s="172"/>
       <c r="AO118" s="172"/>
       <c r="AP118" s="172"/>
       <c r="AQ118" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR118" s="42" t="str">
@@ -35285,23 +35290,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS118" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-WH-PU_BIO_N1</v>
       </c>
       <c r="AT118" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Biomass water heater_WH</v>
       </c>
       <c r="AU118" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV118" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY118" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -35433,19 +35438,19 @@
         <v/>
       </c>
       <c r="AK119" s="214">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL119" s="71"/>
       <c r="AM119" s="208">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN119" s="211"/>
       <c r="AO119" s="211"/>
       <c r="AP119" s="172"/>
       <c r="AQ119" s="45" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR119" s="45" t="str">
@@ -35453,25 +35458,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS119" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-WH-PU_LPG_N1</v>
       </c>
       <c r="AT119" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - LPG water heater_WH</v>
       </c>
       <c r="AU119" s="45" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV119" s="45" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW119" s="45"/>
       <c r="AX119" s="45"/>
       <c r="AY119" s="45" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -35527,7 +35532,7 @@
       <c r="AO120" s="211"/>
       <c r="AP120" s="172"/>
       <c r="AQ120" s="57" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>*Cooling-only</v>
       </c>
       <c r="AR120" s="57" t="str">
@@ -35535,25 +35540,25 @@
         <v/>
       </c>
       <c r="AS120" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AT120" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU120" s="57" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV120" s="57" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW120" s="57"/>
       <c r="AX120" s="57"/>
       <c r="AY120" s="57" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
@@ -35689,14 +35694,14 @@
       </c>
       <c r="AL121" s="84"/>
       <c r="AM121" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN121" s="172"/>
       <c r="AO121" s="172"/>
       <c r="AP121" s="172"/>
       <c r="AQ121" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>PRE</v>
       </c>
       <c r="AR121" s="42" t="str">
@@ -35704,23 +35709,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS121" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>S-SC-PU_ELC_N1</v>
       </c>
       <c r="AT121" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Public Services - Room air conditioning Air-to-Air_SC</v>
       </c>
       <c r="AU121" s="42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV121" s="42" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AY121" s="42" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -35857,13 +35862,13 @@
       </c>
       <c r="AL122" s="71"/>
       <c r="AM122" s="208">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2019</v>
       </c>
       <c r="AN122" s="85"/>
       <c r="AO122" s="85"/>
       <c r="AQ122" s="45" t="str">
-        <f t="shared" ref="AQ122" si="51">IF(LEFT(A122)="*",A122,"PRE")</f>
+        <f t="shared" ref="AQ122" si="52">IF(LEFT(A122)="*",A122,"PRE")</f>
         <v>PRE</v>
       </c>
       <c r="AR122" s="45" t="str">
@@ -35871,25 +35876,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS122" s="45" t="str">
-        <f t="shared" ref="AS122" si="52">IF(LEFT($A122)="*","",A122)</f>
+        <f t="shared" ref="AS122" si="53">IF(LEFT($A122)="*","",A122)</f>
         <v>S-SC-PU_ELC_N2</v>
       </c>
       <c r="AT122" s="45" t="str">
-        <f t="shared" ref="AT122" si="53">IF(LEFT($A122)="*","",B122)</f>
+        <f t="shared" ref="AT122" si="54">IF(LEFT($A122)="*","",B122)</f>
         <v>Public Services - Centralized air conditioning_SC</v>
       </c>
       <c r="AU122" s="45" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>PJ</v>
       </c>
       <c r="AV122" s="45" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW122" s="45"/>
       <c r="AX122" s="45"/>
       <c r="AY122" s="45" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -56651,11 +56656,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -56668,6 +56668,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -56676,21 +56681,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003D35AAEA1B2FCB4388BD96CEDC55F277" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3dbe2424fad29e82dbed878f9c5e39b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8" xmlns:ns3="5976181e-0ba6-4027-87bb-22a58e318fb6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13ef504368312e798a12ea4dafd4e8bd" ns2:_="" ns3:_="">
     <xsd:import namespace="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8"/>
@@ -56887,24 +56877,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BAA8BF1-CC80-4539-9D14-46D49F0014CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56921,4 +56909,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAD464F-CA7A-4B8A-8CFC-BA25A100F38C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F583133-E2A2-4B17-951E-CCE43A5FFBDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13892,10 +13892,6 @@
     <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="117" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13905,6 +13901,10 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18809,46 +18809,46 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="446" t="s">
+      <c r="A3" s="442" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="446" t="s">
+      <c r="B3" s="442" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="446" t="s">
+      <c r="C3" s="442" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="448" t="s">
+      <c r="D3" s="444" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="448"/>
-      <c r="F3" s="446" t="s">
+      <c r="E3" s="444"/>
+      <c r="F3" s="442" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="446" t="s">
+      <c r="G3" s="442" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="446" t="s">
+      <c r="H3" s="442" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="446" t="s">
+      <c r="I3" s="442" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="447"/>
-      <c r="B4" s="447"/>
-      <c r="C4" s="447"/>
+      <c r="A4" s="443"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="443"/>
       <c r="D4" s="72" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="447"/>
-      <c r="G4" s="447"/>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
+      <c r="F4" s="443"/>
+      <c r="G4" s="443"/>
+      <c r="H4" s="443"/>
+      <c r="I4" s="443"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
@@ -18934,18 +18934,18 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="189"/>
-      <c r="B11" s="442" t="str">
+      <c r="B11" s="445" t="str">
         <f>"Data summary table with data from "&amp;A5</f>
         <v>Data summary table with data from S1</v>
       </c>
-      <c r="C11" s="443"/>
+      <c r="C11" s="446"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="444" t="s">
+      <c r="B12" s="447" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="445"/>
+      <c r="C12" s="448"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
@@ -19315,16 +19315,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20106,11 +20106,11 @@
   <dimension ref="A1:AY122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomRight" activeCell="P29" sqref="P29:T29"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29:T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23178,24 +23178,19 @@
       <c r="N29" s="353"/>
       <c r="O29" s="353"/>
       <c r="P29" s="353">
-        <f>F29*0.7</f>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q29" s="353">
-        <f t="shared" ref="Q29:T29" si="16">G29*0.7</f>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R29" s="353">
-        <f t="shared" si="16"/>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S29" s="353">
-        <f t="shared" si="16"/>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T29" s="353">
-        <f t="shared" si="16"/>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U29" s="354">
         <f>'JRC data'!AX62</f>
@@ -23363,31 +23358,31 @@
       <c r="Z31" s="349"/>
       <c r="AA31" s="349"/>
       <c r="AB31" s="349">
-        <f t="shared" ref="AB31:AH31" si="17">AB16</f>
+        <f t="shared" ref="AB31:AH31" si="16">AB16</f>
         <v>665</v>
       </c>
       <c r="AC31" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>665</v>
       </c>
       <c r="AD31" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>665</v>
       </c>
       <c r="AE31" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>665</v>
       </c>
       <c r="AF31" s="349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>665</v>
       </c>
       <c r="AG31" s="350">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="AH31" s="351">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI31" s="34"/>
@@ -23563,51 +23558,51 @@
       </c>
       <c r="V33" s="348"/>
       <c r="W33" s="349">
-        <f t="shared" ref="W33:AH33" si="18">W7</f>
+        <f t="shared" ref="W33:AH33" si="17">W7</f>
         <v>22500</v>
       </c>
       <c r="X33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>20000</v>
       </c>
       <c r="Y33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>17500</v>
       </c>
       <c r="Z33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>17500</v>
       </c>
       <c r="AA33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>17500</v>
       </c>
       <c r="AB33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>58.441558441558442</v>
       </c>
       <c r="AC33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>51.948051948051948</v>
       </c>
       <c r="AD33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AE33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AF33" s="349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AG33" s="350">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AH33" s="351">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AI33" s="34"/>
@@ -23649,76 +23644,76 @@
       <c r="N34" s="347"/>
       <c r="O34" s="347"/>
       <c r="P34" s="347">
-        <f t="shared" ref="P34:U34" si="19">P14</f>
+        <f t="shared" ref="P34:U34" si="18">P14</f>
         <v>0.7</v>
       </c>
       <c r="Q34" s="347">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.71647058823529397</v>
       </c>
       <c r="R34" s="347">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.74941176470588233</v>
       </c>
       <c r="S34" s="347">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.78235294117647058</v>
       </c>
       <c r="T34" s="347">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.78235294117647058</v>
       </c>
       <c r="U34" s="348">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="V34" s="348"/>
       <c r="W34" s="349">
-        <f t="shared" ref="W34:AH34" si="20">W13</f>
+        <f t="shared" ref="W34:AH34" si="19">W13</f>
         <v>108500</v>
       </c>
       <c r="X34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>108500</v>
       </c>
       <c r="Y34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>112000</v>
       </c>
       <c r="Z34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>112000</v>
       </c>
       <c r="AA34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>112000</v>
       </c>
       <c r="AB34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>197.27272727272728</v>
       </c>
       <c r="AC34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>197.27272727272728</v>
       </c>
       <c r="AD34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>203.63636363636363</v>
       </c>
       <c r="AE34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>203.63636363636363</v>
       </c>
       <c r="AF34" s="349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>203.63636363636363</v>
       </c>
       <c r="AG34" s="350">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5.7272727272727274E-2</v>
       </c>
       <c r="AH34" s="351">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI34" s="34"/>
@@ -23760,76 +23755,76 @@
       <c r="N35" s="353"/>
       <c r="O35" s="353"/>
       <c r="P35" s="353">
-        <f t="shared" ref="P35:U35" si="21">P12</f>
+        <f t="shared" ref="P35:U35" si="20">P12</f>
         <v>0.7</v>
       </c>
       <c r="Q35" s="353">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.7</v>
       </c>
       <c r="R35" s="353">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.7</v>
       </c>
       <c r="S35" s="353">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.7</v>
       </c>
       <c r="T35" s="353">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.7</v>
       </c>
       <c r="U35" s="354">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="V35" s="354"/>
       <c r="W35" s="355">
-        <f t="shared" ref="W35:AH35" si="22">W33</f>
+        <f t="shared" ref="W35:AH35" si="21">W33</f>
         <v>22500</v>
       </c>
       <c r="X35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="Y35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>17500</v>
       </c>
       <c r="Z35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>17500</v>
       </c>
       <c r="AA35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>17500</v>
       </c>
       <c r="AB35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>58.441558441558442</v>
       </c>
       <c r="AC35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>51.948051948051948</v>
       </c>
       <c r="AD35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AE35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AF35" s="355">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>45.454545454545453</v>
       </c>
       <c r="AG35" s="356">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="AH35" s="357">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AI35" s="37"/>
@@ -23944,51 +23939,51 @@
       </c>
       <c r="V37" s="371"/>
       <c r="W37" s="349">
-        <f t="shared" ref="W37:AH37" si="23">W18</f>
+        <f t="shared" ref="W37:AH37" si="22">W18</f>
         <v>27140.2</v>
       </c>
       <c r="X37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>25783.19</v>
       </c>
       <c r="Y37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>23340.571999999996</v>
       </c>
       <c r="Z37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>22254.963999999996</v>
       </c>
       <c r="AA37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>22254.963999999996</v>
       </c>
       <c r="AB37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>426.06279434850865</v>
       </c>
       <c r="AC37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>404.75965463108315</v>
       </c>
       <c r="AD37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>366.41400313971735</v>
       </c>
       <c r="AE37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>349.37149136577699</v>
       </c>
       <c r="AF37" s="349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>349.37149136577699</v>
       </c>
       <c r="AG37" s="350">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>10.204081632653061</v>
       </c>
       <c r="AH37" s="351">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI37" s="34"/>
@@ -24695,7 +24690,7 @@
       <c r="AO47" s="211"/>
       <c r="AP47" s="172"/>
       <c r="AQ47" s="224" t="str">
-        <f t="shared" ref="AQ47:AQ80" si="24">IF(LEFT(A47)="*",A47,"PRE")</f>
+        <f t="shared" ref="AQ47:AQ80" si="23">IF(LEFT(A47)="*",A47,"PRE")</f>
         <v>*Boilers</v>
       </c>
       <c r="AR47" s="280" t="str">
@@ -24703,19 +24698,19 @@
         <v/>
       </c>
       <c r="AS47" s="224" t="str">
-        <f t="shared" ref="AS47:AT80" si="25">IF(LEFT($A47)="*","",A47)</f>
+        <f t="shared" ref="AS47:AT80" si="24">IF(LEFT($A47)="*","",A47)</f>
         <v/>
       </c>
       <c r="AT47" s="224" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AU47" s="224" t="str">
-        <f t="shared" ref="AU47:AU81" si="26">IF(LEFT($A47)="*","","PJ")</f>
+        <f t="shared" ref="AU47:AU81" si="25">IF(LEFT($A47)="*","","PJ")</f>
         <v/>
       </c>
       <c r="AV47" s="224" t="str">
-        <f t="shared" ref="AV47:AV81" si="27">IF(LEFT($A47)="*","","GW")</f>
+        <f t="shared" ref="AV47:AV81" si="26">IF(LEFT($A47)="*","","GW")</f>
         <v/>
       </c>
       <c r="AW47" s="42" t="str">
@@ -24724,7 +24719,7 @@
       </c>
       <c r="AX47" s="224"/>
       <c r="AY47" s="224" t="str">
-        <f t="shared" ref="AY47" si="28">IF($AS47="","","YES")</f>
+        <f t="shared" ref="AY47" si="27">IF($AS47="","","YES")</f>
         <v/>
       </c>
     </row>
@@ -24855,7 +24850,7 @@
         <v/>
       </c>
       <c r="AK48" s="68">
-        <f t="shared" ref="AK48:AK57" si="29">IF($A48="*","",31.536)</f>
+        <f t="shared" ref="AK48:AK57" si="28">IF($A48="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL48" s="40"/>
@@ -24867,7 +24862,7 @@
       <c r="AO48" s="211"/>
       <c r="AP48" s="172"/>
       <c r="AQ48" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR48" s="280" t="str">
@@ -24875,19 +24870,19 @@
         <v>IE,National</v>
       </c>
       <c r="AS48" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_OIL_N1</v>
+      </c>
+      <c r="AT48" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Oil boiler condensing_SH</v>
+      </c>
+      <c r="AU48" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_OIL_N1</v>
-      </c>
-      <c r="AT48" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Oil boiler condensing_SH</v>
-      </c>
-      <c r="AU48" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV48" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV48" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY48" s="42" t="str">
@@ -25022,19 +25017,19 @@
         <v/>
       </c>
       <c r="AK49" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL49" s="40"/>
       <c r="AM49" s="81">
-        <f t="shared" ref="AM49:AM81" si="30">IF($A49="*","",2019)</f>
+        <f t="shared" ref="AM49:AM81" si="29">IF($A49="*","",2019)</f>
         <v>2019</v>
       </c>
       <c r="AN49" s="211"/>
       <c r="AO49" s="211"/>
       <c r="AP49" s="172"/>
       <c r="AQ49" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR49" s="42" t="str">
@@ -25042,23 +25037,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS49" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_OIL_N2</v>
+      </c>
+      <c r="AT49" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Oil boiler condensing_SH-WH</v>
+      </c>
+      <c r="AU49" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_OIL_N2</v>
-      </c>
-      <c r="AT49" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Oil boiler condensing_SH-WH</v>
-      </c>
-      <c r="AU49" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV49" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV49" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY49" s="42" t="str">
-        <f t="shared" ref="AY49:AY81" si="31">IF($AS49="","","YES")</f>
+        <f t="shared" ref="AY49:AY81" si="30">IF($AS49="","","YES")</f>
         <v>YES</v>
       </c>
     </row>
@@ -25189,19 +25184,19 @@
         <v/>
       </c>
       <c r="AK50" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL50" s="40"/>
       <c r="AM50" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN50" s="211"/>
       <c r="AO50" s="211"/>
       <c r="AP50" s="172"/>
       <c r="AQ50" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR50" s="42" t="str">
@@ -25209,23 +25204,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS50" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_GAS_N1</v>
+      </c>
+      <c r="AT50" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Gas boiler condensing_SH</v>
+      </c>
+      <c r="AU50" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_GAS_N1</v>
-      </c>
-      <c r="AT50" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Gas boiler condensing_SH</v>
-      </c>
-      <c r="AU50" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV50" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV50" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY50" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -25356,19 +25351,19 @@
         <v/>
       </c>
       <c r="AK51" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL51" s="40"/>
       <c r="AM51" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN51" s="211"/>
       <c r="AO51" s="211"/>
       <c r="AP51" s="172"/>
       <c r="AQ51" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR51" s="42" t="str">
@@ -25376,23 +25371,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS51" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_GAS_N2</v>
+      </c>
+      <c r="AT51" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">Commercial Services - Gas boiler condensing_SH-WH </v>
+      </c>
+      <c r="AU51" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_GAS_N2</v>
-      </c>
-      <c r="AT51" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">Commercial Services - Gas boiler condensing_SH-WH </v>
-      </c>
-      <c r="AU51" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV51" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV51" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY51" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -25523,19 +25518,19 @@
         <v/>
       </c>
       <c r="AK52" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL52" s="40"/>
       <c r="AM52" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN52" s="211"/>
       <c r="AO52" s="211"/>
       <c r="AP52" s="172"/>
       <c r="AQ52" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR52" s="42" t="str">
@@ -25543,23 +25538,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS52" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_GAS_N3</v>
+      </c>
+      <c r="AT52" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">Commercial Services - Gas boiler condensing + Solar thermal_SH-WH </v>
+      </c>
+      <c r="AU52" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_GAS_N3</v>
-      </c>
-      <c r="AT52" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">Commercial Services - Gas boiler condensing + Solar thermal_SH-WH </v>
-      </c>
-      <c r="AU52" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV52" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV52" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY52" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -25690,19 +25685,19 @@
         <v>0.51127819548872178</v>
       </c>
       <c r="AK53" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL53" s="40"/>
       <c r="AM53" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN53" s="211"/>
       <c r="AO53" s="211"/>
       <c r="AP53" s="172"/>
       <c r="AQ53" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR53" s="42" t="str">
@@ -25710,23 +25705,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS53" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS-GAS_N4</v>
+      </c>
+      <c r="AT53" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">Commercial Services - Gas boiler condensing + Wood stove_SH-WH </v>
+      </c>
+      <c r="AU53" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS-GAS_N4</v>
-      </c>
-      <c r="AT53" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">Commercial Services - Gas boiler condensing + Wood stove_SH-WH </v>
-      </c>
-      <c r="AU53" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV53" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV53" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY53" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -25857,19 +25852,19 @@
         <v/>
       </c>
       <c r="AK54" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL54" s="84"/>
       <c r="AM54" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN54" s="211"/>
       <c r="AO54" s="211"/>
       <c r="AP54" s="172"/>
       <c r="AQ54" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR54" s="42" t="str">
@@ -25877,23 +25872,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS54" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_LPG_N1</v>
+      </c>
+      <c r="AT54" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - LPG boiler condensing_SH</v>
+      </c>
+      <c r="AU54" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_LPG_N1</v>
-      </c>
-      <c r="AT54" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - LPG boiler condensing_SH</v>
-      </c>
-      <c r="AU54" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV54" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV54" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY54" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -26024,19 +26019,19 @@
         <v/>
       </c>
       <c r="AK55" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL55" s="84"/>
       <c r="AM55" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN55" s="211"/>
       <c r="AO55" s="211"/>
       <c r="AP55" s="172"/>
       <c r="AQ55" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR55" s="42" t="str">
@@ -26044,23 +26039,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS55" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_LPG_N2</v>
+      </c>
+      <c r="AT55" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - LPG boiler condensing_SH-WH</v>
+      </c>
+      <c r="AU55" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_LPG_N2</v>
-      </c>
-      <c r="AT55" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - LPG boiler condensing_SH-WH</v>
-      </c>
-      <c r="AU55" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV55" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV55" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY55" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -26192,19 +26187,19 @@
         <v/>
       </c>
       <c r="AK56" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL56" s="40"/>
       <c r="AM56" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN56" s="211"/>
       <c r="AO56" s="211"/>
       <c r="AP56" s="172"/>
       <c r="AQ56" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR56" s="42" t="str">
@@ -26212,23 +26207,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS56" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_BIO_N1</v>
+      </c>
+      <c r="AT56" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Biomass boiler_SH</v>
+      </c>
+      <c r="AU56" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_BIO_N1</v>
-      </c>
-      <c r="AT56" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Biomass boiler_SH</v>
-      </c>
-      <c r="AU56" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV56" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV56" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY56" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -26360,19 +26355,19 @@
         <v/>
       </c>
       <c r="AK57" s="214">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL57" s="210"/>
       <c r="AM57" s="208">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN57" s="211"/>
       <c r="AO57" s="211"/>
       <c r="AP57" s="172"/>
       <c r="AQ57" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR57" s="45" t="str">
@@ -26380,25 +26375,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS57" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_BIO_N2</v>
+      </c>
+      <c r="AT57" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Biomass boiler_SH-WH</v>
+      </c>
+      <c r="AU57" s="45" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_BIO_N2</v>
-      </c>
-      <c r="AT57" s="45" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Biomass boiler_SH-WH</v>
-      </c>
-      <c r="AU57" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV57" s="45" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV57" s="45" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW57" s="45"/>
       <c r="AX57" s="45"/>
       <c r="AY57" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -26454,7 +26449,7 @@
       <c r="AO58" s="211"/>
       <c r="AP58" s="172"/>
       <c r="AQ58" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>*Heaters</v>
       </c>
       <c r="AR58" s="57" t="str">
@@ -26462,25 +26457,25 @@
         <v/>
       </c>
       <c r="AS58" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AT58" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AU58" s="57" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="AT58" s="57" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="AU58" s="57" t="str">
+      <c r="AV58" s="57" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AV58" s="57" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW58" s="57"/>
       <c r="AX58" s="57"/>
       <c r="AY58" s="57" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -26617,14 +26612,14 @@
       </c>
       <c r="AL59" s="46"/>
       <c r="AM59" s="82">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN59" s="211"/>
       <c r="AO59" s="211"/>
       <c r="AP59" s="172"/>
       <c r="AQ59" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR59" s="45" t="str">
@@ -26632,25 +26627,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS59" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N1</v>
+      </c>
+      <c r="AT59" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Electric boiler_SH</v>
+      </c>
+      <c r="AU59" s="45" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N1</v>
-      </c>
-      <c r="AT59" s="45" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Electric boiler_SH</v>
-      </c>
-      <c r="AU59" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV59" s="45" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV59" s="45" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW59" s="45"/>
       <c r="AX59" s="45"/>
       <c r="AY59" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -26706,7 +26701,7 @@
       <c r="AO60" s="211"/>
       <c r="AP60" s="172"/>
       <c r="AQ60" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>*Heat Pumps</v>
       </c>
       <c r="AR60" s="57" t="str">
@@ -26714,25 +26709,25 @@
         <v/>
       </c>
       <c r="AS60" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AT60" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AU60" s="57" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="AT60" s="57" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="AU60" s="57" t="str">
+      <c r="AV60" s="57" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AV60" s="57" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW60" s="57"/>
       <c r="AX60" s="57"/>
       <c r="AY60" s="57" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -26867,19 +26862,19 @@
         <v/>
       </c>
       <c r="AK61" s="68">
-        <f t="shared" ref="AK61:AK70" si="32">IF($A61="*","",31.536)</f>
+        <f t="shared" ref="AK61:AK70" si="31">IF($A61="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL61" s="40"/>
       <c r="AM61" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN61" s="211"/>
       <c r="AO61" s="211"/>
       <c r="AP61" s="172"/>
       <c r="AQ61" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR61" s="42" t="str">
@@ -26887,23 +26882,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS61" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N2</v>
+      </c>
+      <c r="AT61" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Heat Pump Air-to-Air_SH</v>
+      </c>
+      <c r="AU61" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N2</v>
-      </c>
-      <c r="AT61" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Heat Pump Air-to-Air_SH</v>
-      </c>
-      <c r="AU61" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV61" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV61" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY61" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -27038,19 +27033,19 @@
         <v/>
       </c>
       <c r="AK62" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL62" s="40"/>
       <c r="AM62" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN62" s="211"/>
       <c r="AO62" s="211"/>
       <c r="AP62" s="172"/>
       <c r="AQ62" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR62" s="42" t="str">
@@ -27058,23 +27053,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS62" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N3</v>
+      </c>
+      <c r="AT62" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Heat Pump Air-to-Air_SH-SC</v>
+      </c>
+      <c r="AU62" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N3</v>
-      </c>
-      <c r="AT62" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Heat Pump Air-to-Air_SH-SC</v>
-      </c>
-      <c r="AU62" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV62" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV62" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY62" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -27209,19 +27204,19 @@
         <v/>
       </c>
       <c r="AK63" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL63" s="40"/>
       <c r="AM63" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN63" s="211"/>
       <c r="AO63" s="211"/>
       <c r="AP63" s="172"/>
       <c r="AQ63" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR63" s="42" t="str">
@@ -27229,23 +27224,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS63" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N4</v>
+      </c>
+      <c r="AT63" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Heat Pump Air-to-Water_SH</v>
+      </c>
+      <c r="AU63" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N4</v>
-      </c>
-      <c r="AT63" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Heat Pump Air-to-Water_SH</v>
-      </c>
-      <c r="AU63" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV63" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV63" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY63" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -27380,19 +27375,19 @@
         <v/>
       </c>
       <c r="AK64" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL64" s="40"/>
       <c r="AM64" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN64" s="211"/>
       <c r="AO64" s="211"/>
       <c r="AP64" s="172"/>
       <c r="AQ64" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR64" s="42" t="str">
@@ -27400,23 +27395,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS64" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N5</v>
+      </c>
+      <c r="AT64" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Heat Pump Air-to-Water_SH-WH</v>
+      </c>
+      <c r="AU64" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N5</v>
-      </c>
-      <c r="AT64" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Heat Pump Air-to-Water_SH-WH</v>
-      </c>
-      <c r="AU64" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV64" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV64" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY64" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -27551,19 +27546,19 @@
         <v/>
       </c>
       <c r="AK65" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL65" s="40"/>
       <c r="AM65" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN65" s="211"/>
       <c r="AO65" s="211"/>
       <c r="AP65" s="172"/>
       <c r="AQ65" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR65" s="42" t="str">
@@ -27571,23 +27566,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS65" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N6</v>
+      </c>
+      <c r="AT65" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Heat Pump Air-to-Water + Solar thermal_SH-WH</v>
+      </c>
+      <c r="AU65" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N6</v>
-      </c>
-      <c r="AT65" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Heat Pump Air-to-Water + Solar thermal_SH-WH</v>
-      </c>
-      <c r="AU65" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV65" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV65" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY65" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -27722,19 +27717,19 @@
         <v/>
       </c>
       <c r="AK66" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL66" s="40"/>
       <c r="AM66" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN66" s="211"/>
       <c r="AO66" s="211"/>
       <c r="AP66" s="172"/>
       <c r="AQ66" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR66" s="42" t="str">
@@ -27742,23 +27737,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS66" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N7</v>
+      </c>
+      <c r="AT66" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Heat Pump Ground Source_SH</v>
+      </c>
+      <c r="AU66" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N7</v>
-      </c>
-      <c r="AT66" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Heat Pump Ground Source_SH</v>
-      </c>
-      <c r="AU66" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV66" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV66" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY66" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -27893,19 +27888,19 @@
         <v/>
       </c>
       <c r="AK67" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL67" s="40"/>
       <c r="AM67" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN67" s="211"/>
       <c r="AO67" s="211"/>
       <c r="AP67" s="172"/>
       <c r="AQ67" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR67" s="42" t="str">
@@ -27913,23 +27908,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS67" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_ELC_N8</v>
+      </c>
+      <c r="AT67" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Heat Pump Ground Source_SH-SC</v>
+      </c>
+      <c r="AU67" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_ELC_N8</v>
-      </c>
-      <c r="AT67" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Heat Pump Ground Source_SH-SC</v>
-      </c>
-      <c r="AU67" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV67" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV67" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY67" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -28064,19 +28059,19 @@
         <v/>
       </c>
       <c r="AK68" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL68" s="40"/>
       <c r="AM68" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN68" s="211"/>
       <c r="AO68" s="211"/>
       <c r="AP68" s="172"/>
       <c r="AQ68" s="42" t="str">
-        <f t="shared" ref="AQ68" si="33">IF(LEFT(A68)="*",A68,"PRE")</f>
+        <f t="shared" ref="AQ68" si="32">IF(LEFT(A68)="*",A68,"PRE")</f>
         <v>PRE</v>
       </c>
       <c r="AR68" s="42" t="str">
@@ -28084,23 +28079,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS68" s="42" t="str">
-        <f t="shared" ref="AS68" si="34">IF(LEFT($A68)="*","",A68)</f>
+        <f t="shared" ref="AS68" si="33">IF(LEFT($A68)="*","",A68)</f>
         <v>S-SH-CS_ELC_N9</v>
       </c>
       <c r="AT68" s="42" t="str">
-        <f t="shared" ref="AT68" si="35">IF(LEFT($A68)="*","",B68)</f>
+        <f t="shared" ref="AT68" si="34">IF(LEFT($A68)="*","",B68)</f>
         <v>Commercial Services - Centralized Air-to-Air heat pump_SH-SC</v>
       </c>
       <c r="AU68" s="42" t="str">
+        <f t="shared" si="25"/>
+        <v>PJ</v>
+      </c>
+      <c r="AV68" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV68" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY68" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -28235,19 +28230,19 @@
         <v/>
       </c>
       <c r="AK69" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL69" s="40"/>
       <c r="AM69" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN69" s="211"/>
       <c r="AO69" s="211"/>
       <c r="AP69" s="172"/>
       <c r="AQ69" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR69" s="42" t="str">
@@ -28255,23 +28250,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS69" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_GAS_N5</v>
+      </c>
+      <c r="AT69" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Gas-driven Heat Pump absorption_SH-WH</v>
+      </c>
+      <c r="AU69" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_GAS_N5</v>
-      </c>
-      <c r="AT69" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Gas-driven Heat Pump absorption_SH-WH</v>
-      </c>
-      <c r="AU69" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV69" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV69" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY69" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -28406,19 +28401,19 @@
         <v/>
       </c>
       <c r="AK70" s="69">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL70" s="46"/>
       <c r="AM70" s="82">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN70" s="172"/>
       <c r="AO70" s="172"/>
       <c r="AP70" s="172"/>
       <c r="AQ70" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR70" s="45" t="str">
@@ -28426,25 +28421,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS70" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_GAS_N6</v>
+      </c>
+      <c r="AT70" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Gas-driven Heat Pump engine_SH-WH</v>
+      </c>
+      <c r="AU70" s="45" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_GAS_N6</v>
-      </c>
-      <c r="AT70" s="45" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Gas-driven Heat Pump engine_SH-WH</v>
-      </c>
-      <c r="AU70" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV70" s="45" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV70" s="45" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW70" s="45"/>
       <c r="AX70" s="45"/>
       <c r="AY70" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -28500,7 +28495,7 @@
       <c r="AO71" s="172"/>
       <c r="AP71" s="172"/>
       <c r="AQ71" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>*District Heating</v>
       </c>
       <c r="AR71" s="57" t="str">
@@ -28508,25 +28503,25 @@
         <v/>
       </c>
       <c r="AS71" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AT71" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AU71" s="57" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="AT71" s="57" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="AU71" s="57" t="str">
+      <c r="AV71" s="57" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AV71" s="57" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW71" s="57"/>
       <c r="AX71" s="57"/>
       <c r="AY71" s="57" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -28589,23 +28584,23 @@
       </c>
       <c r="P72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!P29=0,"",SRV_TH!P29))</f>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!Q29=0,"",SRV_TH!Q29))</f>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!R29=0,"",SRV_TH!R29))</f>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!S29=0,"",SRV_TH!S29))</f>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T72" s="262">
         <f>IF($A72="*","",IF(SRV_TH!T29=0,"",SRV_TH!T29))</f>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U72" s="212">
         <f>IF($A72="*","",IF(SRV_TH!U29=0,"",SRV_TH!U29))</f>
@@ -28662,14 +28657,14 @@
       </c>
       <c r="AL72" s="210"/>
       <c r="AM72" s="208">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN72" s="176"/>
       <c r="AO72" s="176"/>
       <c r="AP72" s="172"/>
       <c r="AQ72" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR72" s="45" t="str">
@@ -28677,25 +28672,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS72" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SH-CS_HET_N1</v>
+      </c>
+      <c r="AT72" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Centralized DistrictH_Heat Exchanger_SH-WH</v>
+      </c>
+      <c r="AU72" s="45" t="str">
         <f t="shared" si="25"/>
-        <v>S-SH-CS_HET_N1</v>
-      </c>
-      <c r="AT72" s="45" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Centralized DistrictH_Heat Exchanger_SH-WH</v>
-      </c>
-      <c r="AU72" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV72" s="45" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV72" s="45" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW72" s="45"/>
       <c r="AX72" s="45"/>
       <c r="AY72" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -28751,7 +28746,7 @@
       <c r="AO73" s="172"/>
       <c r="AP73" s="172"/>
       <c r="AQ73" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>*Water Heat-only</v>
       </c>
       <c r="AR73" s="57" t="str">
@@ -28759,25 +28754,25 @@
         <v/>
       </c>
       <c r="AS73" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AT73" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AU73" s="57" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="AT73" s="57" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="AU73" s="57" t="str">
+      <c r="AV73" s="57" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AV73" s="57" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW73" s="57"/>
       <c r="AX73" s="57"/>
       <c r="AY73" s="57" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -28913,14 +28908,14 @@
       </c>
       <c r="AL74" s="84"/>
       <c r="AM74" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN74" s="172"/>
       <c r="AO74" s="172"/>
       <c r="AP74" s="172"/>
       <c r="AQ74" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR74" s="42" t="str">
@@ -28928,23 +28923,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS74" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-WH-CS_ELC_N1</v>
+      </c>
+      <c r="AT74" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Electric water heater_WH</v>
+      </c>
+      <c r="AU74" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-WH-CS_ELC_N1</v>
-      </c>
-      <c r="AT74" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Electric water heater_WH</v>
-      </c>
-      <c r="AU74" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV74" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV74" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY74" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -29080,14 +29075,14 @@
       </c>
       <c r="AL75" s="40"/>
       <c r="AM75" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN75" s="172"/>
       <c r="AO75" s="172"/>
       <c r="AP75" s="172"/>
       <c r="AQ75" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR75" s="42" t="str">
@@ -29095,23 +29090,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS75" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-WH-CS_SOL_N1</v>
+      </c>
+      <c r="AT75" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Solar water heater_WH</v>
+      </c>
+      <c r="AU75" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-WH-CS_SOL_N1</v>
-      </c>
-      <c r="AT75" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Solar water heater_WH</v>
-      </c>
-      <c r="AU75" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV75" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV75" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY75" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -29247,14 +29242,14 @@
       </c>
       <c r="AL76" s="84"/>
       <c r="AM76" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN76" s="172"/>
       <c r="AO76" s="172"/>
       <c r="AP76" s="172"/>
       <c r="AQ76" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR76" s="42" t="str">
@@ -29262,23 +29257,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS76" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-WH-CS_GAS_N1</v>
+      </c>
+      <c r="AT76" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Gas water heater_WH</v>
+      </c>
+      <c r="AU76" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-WH-CS_GAS_N1</v>
-      </c>
-      <c r="AT76" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Gas water heater_WH</v>
-      </c>
-      <c r="AU76" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV76" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV76" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY76" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -29409,19 +29404,19 @@
         <v/>
       </c>
       <c r="AK77" s="68">
-        <f t="shared" ref="AK77:AK78" si="36">IF($A77="*","",31.536)</f>
+        <f t="shared" ref="AK77:AK78" si="35">IF($A77="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL77" s="84"/>
       <c r="AM77" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN77" s="172"/>
       <c r="AO77" s="172"/>
       <c r="AP77" s="172"/>
       <c r="AQ77" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR77" s="42" t="str">
@@ -29429,23 +29424,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS77" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-WH-CS_BIO_N1</v>
+      </c>
+      <c r="AT77" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Biomass water heater_WH</v>
+      </c>
+      <c r="AU77" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-WH-CS_BIO_N1</v>
-      </c>
-      <c r="AT77" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Biomass water heater_WH</v>
-      </c>
-      <c r="AU77" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV77" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV77" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY77" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -29577,19 +29572,19 @@
         <v/>
       </c>
       <c r="AK78" s="214">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL78" s="71"/>
       <c r="AM78" s="208">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN78" s="211"/>
       <c r="AO78" s="211"/>
       <c r="AP78" s="172"/>
       <c r="AQ78" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR78" s="45" t="str">
@@ -29597,25 +29592,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS78" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>S-WH-CS_LPG_N1</v>
+      </c>
+      <c r="AT78" s="45" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - LPG water heater_WH</v>
+      </c>
+      <c r="AU78" s="45" t="str">
         <f t="shared" si="25"/>
-        <v>S-WH-CS_LPG_N1</v>
-      </c>
-      <c r="AT78" s="45" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - LPG water heater_WH</v>
-      </c>
-      <c r="AU78" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV78" s="45" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV78" s="45" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW78" s="45"/>
       <c r="AX78" s="45"/>
       <c r="AY78" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -29671,7 +29666,7 @@
       <c r="AO79" s="211"/>
       <c r="AP79" s="172"/>
       <c r="AQ79" s="57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>*Cooling-only</v>
       </c>
       <c r="AR79" s="57" t="str">
@@ -29679,25 +29674,25 @@
         <v/>
       </c>
       <c r="AS79" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AT79" s="57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AU79" s="57" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="AT79" s="57" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="AU79" s="57" t="str">
+      <c r="AV79" s="57" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AV79" s="57" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AW79" s="57"/>
       <c r="AX79" s="57"/>
       <c r="AY79" s="57" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -29833,14 +29828,14 @@
       </c>
       <c r="AL80" s="84"/>
       <c r="AM80" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AN80" s="172"/>
       <c r="AO80" s="172"/>
       <c r="AP80" s="172"/>
       <c r="AQ80" s="42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PRE</v>
       </c>
       <c r="AR80" s="42" t="str">
@@ -29848,23 +29843,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS80" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>S-SC-CS_ELC_N1</v>
+      </c>
+      <c r="AT80" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>Commercial Services - Room air conditioning Air-to-Air_SC</v>
+      </c>
+      <c r="AU80" s="42" t="str">
         <f t="shared" si="25"/>
-        <v>S-SC-CS_ELC_N1</v>
-      </c>
-      <c r="AT80" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>Commercial Services - Room air conditioning Air-to-Air_SC</v>
-      </c>
-      <c r="AU80" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV80" s="42" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV80" s="42" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AY80" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -30001,11 +29996,11 @@
       </c>
       <c r="AL81" s="71"/>
       <c r="AM81" s="208">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="AQ81" s="45" t="str">
-        <f t="shared" ref="AQ81" si="37">IF(LEFT(A81)="*",A81,"PRE")</f>
+        <f t="shared" ref="AQ81" si="36">IF(LEFT(A81)="*",A81,"PRE")</f>
         <v>PRE</v>
       </c>
       <c r="AR81" s="45" t="str">
@@ -30013,25 +30008,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS81" s="45" t="str">
-        <f t="shared" ref="AS81" si="38">IF(LEFT($A81)="*","",A81)</f>
+        <f t="shared" ref="AS81" si="37">IF(LEFT($A81)="*","",A81)</f>
         <v>S-SC-CS_ELC_N2</v>
       </c>
       <c r="AT81" s="45" t="str">
-        <f t="shared" ref="AT81" si="39">IF(LEFT($A81)="*","",B81)</f>
+        <f t="shared" ref="AT81" si="38">IF(LEFT($A81)="*","",B81)</f>
         <v>Commercial Services - Centralized air conditioning_SC</v>
       </c>
       <c r="AU81" s="45" t="str">
+        <f t="shared" si="25"/>
+        <v>PJ</v>
+      </c>
+      <c r="AV81" s="45" t="str">
         <f t="shared" si="26"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV81" s="45" t="str">
-        <f t="shared" si="27"/>
         <v>GW</v>
       </c>
       <c r="AW81" s="45"/>
       <c r="AX81" s="45"/>
       <c r="AY81" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>YES</v>
       </c>
     </row>
@@ -30555,7 +30550,7 @@
       <c r="AO88" s="211"/>
       <c r="AP88" s="172"/>
       <c r="AQ88" s="224" t="str">
-        <f t="shared" ref="AQ88:AQ121" si="40">IF(LEFT(A88)="*",A88,"PRE")</f>
+        <f t="shared" ref="AQ88:AQ121" si="39">IF(LEFT(A88)="*",A88,"PRE")</f>
         <v>*Boilers</v>
       </c>
       <c r="AR88" s="224" t="str">
@@ -30563,19 +30558,19 @@
         <v/>
       </c>
       <c r="AS88" s="224" t="str">
-        <f t="shared" ref="AS88:AT121" si="41">IF(LEFT($A88)="*","",A88)</f>
+        <f t="shared" ref="AS88:AT121" si="40">IF(LEFT($A88)="*","",A88)</f>
         <v/>
       </c>
       <c r="AT88" s="224" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AU88" s="224" t="str">
-        <f t="shared" ref="AU88:AU122" si="42">IF(LEFT($A88)="*","","PJ")</f>
+        <f t="shared" ref="AU88:AU122" si="41">IF(LEFT($A88)="*","","PJ")</f>
         <v/>
       </c>
       <c r="AV88" s="224" t="str">
-        <f t="shared" ref="AV88:AV122" si="43">IF(LEFT($A88)="*","","GW")</f>
+        <f t="shared" ref="AV88:AV122" si="42">IF(LEFT($A88)="*","","GW")</f>
         <v/>
       </c>
       <c r="AW88" s="42" t="str">
@@ -30584,7 +30579,7 @@
       </c>
       <c r="AX88" s="224"/>
       <c r="AY88" s="224" t="str">
-        <f t="shared" ref="AY88:AY122" si="44">IF($AS88="","","YES")</f>
+        <f t="shared" ref="AY88:AY122" si="43">IF($AS88="","","YES")</f>
         <v/>
       </c>
     </row>
@@ -30715,7 +30710,7 @@
         <v/>
       </c>
       <c r="AK89" s="68">
-        <f t="shared" ref="AK89:AK98" si="45">IF($A89="*","",31.536)</f>
+        <f t="shared" ref="AK89:AK98" si="44">IF($A89="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL89" s="40"/>
@@ -30727,7 +30722,7 @@
       <c r="AO89" s="211"/>
       <c r="AP89" s="172"/>
       <c r="AQ89" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR89" s="42" t="str">
@@ -30735,23 +30730,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS89" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_OIL_N1</v>
+      </c>
+      <c r="AT89" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Oil boiler condensing_SH</v>
+      </c>
+      <c r="AU89" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_OIL_N1</v>
-      </c>
-      <c r="AT89" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Oil boiler condensing_SH</v>
-      </c>
-      <c r="AU89" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV89" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV89" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY89" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY89" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -30882,19 +30877,19 @@
         <v/>
       </c>
       <c r="AK90" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL90" s="40"/>
       <c r="AM90" s="81">
-        <f t="shared" ref="AM90:AM122" si="46">IF($A90="*","",2019)</f>
+        <f t="shared" ref="AM90:AM122" si="45">IF($A90="*","",2019)</f>
         <v>2019</v>
       </c>
       <c r="AN90" s="211"/>
       <c r="AO90" s="211"/>
       <c r="AP90" s="172"/>
       <c r="AQ90" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR90" s="42" t="str">
@@ -30902,23 +30897,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS90" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_OIL_N2</v>
+      </c>
+      <c r="AT90" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Oil boiler condensing_SH-WH</v>
+      </c>
+      <c r="AU90" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_OIL_N2</v>
-      </c>
-      <c r="AT90" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Oil boiler condensing_SH-WH</v>
-      </c>
-      <c r="AU90" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV90" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV90" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY90" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY90" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31049,19 +31044,19 @@
         <v/>
       </c>
       <c r="AK91" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL91" s="40"/>
       <c r="AM91" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN91" s="211"/>
       <c r="AO91" s="211"/>
       <c r="AP91" s="172"/>
       <c r="AQ91" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR91" s="42" t="str">
@@ -31069,23 +31064,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS91" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_GAS_N1</v>
+      </c>
+      <c r="AT91" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Gas boiler condensing_SH</v>
+      </c>
+      <c r="AU91" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_GAS_N1</v>
-      </c>
-      <c r="AT91" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Gas boiler condensing_SH</v>
-      </c>
-      <c r="AU91" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV91" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV91" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY91" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY91" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31216,19 +31211,19 @@
         <v/>
       </c>
       <c r="AK92" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL92" s="40"/>
       <c r="AM92" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN92" s="211"/>
       <c r="AO92" s="211"/>
       <c r="AP92" s="172"/>
       <c r="AQ92" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR92" s="42" t="str">
@@ -31236,23 +31231,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS92" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_GAS_N2</v>
+      </c>
+      <c r="AT92" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">Public Services - Gas boiler condensing_SH-WH </v>
+      </c>
+      <c r="AU92" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_GAS_N2</v>
-      </c>
-      <c r="AT92" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Public Services - Gas boiler condensing_SH-WH </v>
-      </c>
-      <c r="AU92" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV92" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV92" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY92" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY92" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31383,19 +31378,19 @@
         <v/>
       </c>
       <c r="AK93" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL93" s="40"/>
       <c r="AM93" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN93" s="211"/>
       <c r="AO93" s="211"/>
       <c r="AP93" s="172"/>
       <c r="AQ93" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR93" s="42" t="str">
@@ -31403,23 +31398,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS93" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_GAS_N3</v>
+      </c>
+      <c r="AT93" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">Public Services - Gas boiler condensing + Solar thermal_SH-WH </v>
+      </c>
+      <c r="AU93" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_GAS_N3</v>
-      </c>
-      <c r="AT93" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Public Services - Gas boiler condensing + Solar thermal_SH-WH </v>
-      </c>
-      <c r="AU93" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV93" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV93" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY93" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY93" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31550,19 +31545,19 @@
         <v>0.51127819548872178</v>
       </c>
       <c r="AK94" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL94" s="40"/>
       <c r="AM94" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN94" s="211"/>
       <c r="AO94" s="211"/>
       <c r="AP94" s="172"/>
       <c r="AQ94" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR94" s="42" t="str">
@@ -31570,23 +31565,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS94" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_GAS_N4</v>
+      </c>
+      <c r="AT94" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">Public Services - Gas boiler condensing + Wood stove_SH-WH </v>
+      </c>
+      <c r="AU94" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_GAS_N4</v>
-      </c>
-      <c r="AT94" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Public Services - Gas boiler condensing + Wood stove_SH-WH </v>
-      </c>
-      <c r="AU94" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV94" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV94" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY94" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY94" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31717,19 +31712,19 @@
         <v/>
       </c>
       <c r="AK95" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL95" s="84"/>
       <c r="AM95" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN95" s="211"/>
       <c r="AO95" s="211"/>
       <c r="AP95" s="172"/>
       <c r="AQ95" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR95" s="42" t="str">
@@ -31737,23 +31732,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS95" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_LPG_N1</v>
+      </c>
+      <c r="AT95" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - LPG boiler condensing_SH</v>
+      </c>
+      <c r="AU95" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_LPG_N1</v>
-      </c>
-      <c r="AT95" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - LPG boiler condensing_SH</v>
-      </c>
-      <c r="AU95" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV95" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV95" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY95" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY95" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -31884,19 +31879,19 @@
         <v/>
       </c>
       <c r="AK96" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL96" s="84"/>
       <c r="AM96" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN96" s="211"/>
       <c r="AO96" s="211"/>
       <c r="AP96" s="172"/>
       <c r="AQ96" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR96" s="42" t="str">
@@ -31904,23 +31899,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS96" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_LPG_N2</v>
+      </c>
+      <c r="AT96" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - LPG boiler condensing_SH-WH</v>
+      </c>
+      <c r="AU96" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_LPG_N2</v>
-      </c>
-      <c r="AT96" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - LPG boiler condensing_SH-WH</v>
-      </c>
-      <c r="AU96" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV96" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV96" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY96" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY96" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -32052,19 +32047,19 @@
         <v/>
       </c>
       <c r="AK97" s="68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL97" s="40"/>
       <c r="AM97" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN97" s="211"/>
       <c r="AO97" s="211"/>
       <c r="AP97" s="172"/>
       <c r="AQ97" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR97" s="42" t="str">
@@ -32072,23 +32067,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS97" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_BIO_N1</v>
+      </c>
+      <c r="AT97" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Biomass boiler_SH</v>
+      </c>
+      <c r="AU97" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_BIO_N1</v>
-      </c>
-      <c r="AT97" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Biomass boiler_SH</v>
-      </c>
-      <c r="AU97" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV97" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV97" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY97" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY97" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -32220,19 +32215,19 @@
         <v/>
       </c>
       <c r="AK98" s="214">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL98" s="210"/>
       <c r="AM98" s="208">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN98" s="211"/>
       <c r="AO98" s="211"/>
       <c r="AP98" s="172"/>
       <c r="AQ98" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR98" s="45" t="str">
@@ -32240,25 +32235,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS98" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_BIO_N2</v>
+      </c>
+      <c r="AT98" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Biomass boiler_SH-WH</v>
+      </c>
+      <c r="AU98" s="45" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_BIO_N2</v>
-      </c>
-      <c r="AT98" s="45" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Biomass boiler_SH-WH</v>
-      </c>
-      <c r="AU98" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV98" s="45" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV98" s="45" t="str">
-        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW98" s="45"/>
       <c r="AX98" s="45"/>
       <c r="AY98" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>YES</v>
       </c>
     </row>
@@ -32314,7 +32309,7 @@
       <c r="AO99" s="211"/>
       <c r="AP99" s="172"/>
       <c r="AQ99" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>*Heaters</v>
       </c>
       <c r="AR99" s="57" t="str">
@@ -32322,25 +32317,25 @@
         <v/>
       </c>
       <c r="AS99" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AT99" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AU99" s="57" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AT99" s="57" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AU99" s="57" t="str">
+      <c r="AV99" s="57" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AV99" s="57" t="str">
-        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW99" s="57"/>
       <c r="AX99" s="57"/>
       <c r="AY99" s="57" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -32477,14 +32472,14 @@
       </c>
       <c r="AL100" s="46"/>
       <c r="AM100" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN100" s="211"/>
       <c r="AO100" s="211"/>
       <c r="AP100" s="172"/>
       <c r="AQ100" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR100" s="45" t="str">
@@ -32492,25 +32487,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS100" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N1</v>
+      </c>
+      <c r="AT100" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Electric boiler_SH</v>
+      </c>
+      <c r="AU100" s="45" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N1</v>
-      </c>
-      <c r="AT100" s="45" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Electric boiler_SH</v>
-      </c>
-      <c r="AU100" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV100" s="45" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV100" s="45" t="str">
-        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW100" s="45"/>
       <c r="AX100" s="45"/>
       <c r="AY100" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>YES</v>
       </c>
     </row>
@@ -32566,7 +32561,7 @@
       <c r="AO101" s="211"/>
       <c r="AP101" s="172"/>
       <c r="AQ101" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>*Heat Pumps</v>
       </c>
       <c r="AR101" s="57" t="str">
@@ -32574,25 +32569,25 @@
         <v/>
       </c>
       <c r="AS101" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AT101" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AU101" s="57" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AT101" s="57" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AU101" s="57" t="str">
+      <c r="AV101" s="57" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AV101" s="57" t="str">
-        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW101" s="57"/>
       <c r="AX101" s="57"/>
       <c r="AY101" s="57" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -32727,19 +32722,19 @@
         <v/>
       </c>
       <c r="AK102" s="68">
-        <f t="shared" ref="AK102:AK111" si="47">IF($A102="*","",31.536)</f>
+        <f t="shared" ref="AK102:AK111" si="46">IF($A102="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL102" s="40"/>
       <c r="AM102" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN102" s="211"/>
       <c r="AO102" s="211"/>
       <c r="AP102" s="172"/>
       <c r="AQ102" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR102" s="42" t="str">
@@ -32747,23 +32742,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS102" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N2</v>
+      </c>
+      <c r="AT102" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Heat Pump Air-to-Air_SH</v>
+      </c>
+      <c r="AU102" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N2</v>
-      </c>
-      <c r="AT102" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Heat Pump Air-to-Air_SH</v>
-      </c>
-      <c r="AU102" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV102" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV102" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY102" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY102" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -32898,19 +32893,19 @@
         <v/>
       </c>
       <c r="AK103" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL103" s="40"/>
       <c r="AM103" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN103" s="211"/>
       <c r="AO103" s="211"/>
       <c r="AP103" s="172"/>
       <c r="AQ103" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR103" s="42" t="str">
@@ -32918,23 +32913,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS103" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N3</v>
+      </c>
+      <c r="AT103" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Heat Pump Air-to-Air_SH-SC</v>
+      </c>
+      <c r="AU103" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N3</v>
-      </c>
-      <c r="AT103" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Heat Pump Air-to-Air_SH-SC</v>
-      </c>
-      <c r="AU103" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV103" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV103" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY103" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY103" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33069,19 +33064,19 @@
         <v/>
       </c>
       <c r="AK104" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL104" s="40"/>
       <c r="AM104" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN104" s="211"/>
       <c r="AO104" s="211"/>
       <c r="AP104" s="172"/>
       <c r="AQ104" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR104" s="42" t="str">
@@ -33089,23 +33084,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS104" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N4</v>
+      </c>
+      <c r="AT104" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Heat Pump Air-to-Water_SH</v>
+      </c>
+      <c r="AU104" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N4</v>
-      </c>
-      <c r="AT104" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Heat Pump Air-to-Water_SH</v>
-      </c>
-      <c r="AU104" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV104" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV104" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY104" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY104" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33240,19 +33235,19 @@
         <v/>
       </c>
       <c r="AK105" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL105" s="40"/>
       <c r="AM105" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN105" s="211"/>
       <c r="AO105" s="211"/>
       <c r="AP105" s="172"/>
       <c r="AQ105" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR105" s="42" t="str">
@@ -33260,23 +33255,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS105" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N5</v>
+      </c>
+      <c r="AT105" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Heat Pump Air-to-Water_SH-WH</v>
+      </c>
+      <c r="AU105" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N5</v>
-      </c>
-      <c r="AT105" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Heat Pump Air-to-Water_SH-WH</v>
-      </c>
-      <c r="AU105" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV105" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV105" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY105" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY105" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33411,19 +33406,19 @@
         <v/>
       </c>
       <c r="AK106" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL106" s="40"/>
       <c r="AM106" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN106" s="211"/>
       <c r="AO106" s="211"/>
       <c r="AP106" s="172"/>
       <c r="AQ106" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR106" s="42" t="str">
@@ -33431,23 +33426,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS106" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N6</v>
+      </c>
+      <c r="AT106" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Heat Pump Air-to-Water + Solar thermal_SH-WH</v>
+      </c>
+      <c r="AU106" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N6</v>
-      </c>
-      <c r="AT106" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Heat Pump Air-to-Water + Solar thermal_SH-WH</v>
-      </c>
-      <c r="AU106" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV106" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV106" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY106" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY106" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33582,19 +33577,19 @@
         <v/>
       </c>
       <c r="AK107" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL107" s="40"/>
       <c r="AM107" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN107" s="211"/>
       <c r="AO107" s="211"/>
       <c r="AP107" s="172"/>
       <c r="AQ107" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR107" s="42" t="str">
@@ -33602,23 +33597,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS107" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N7</v>
+      </c>
+      <c r="AT107" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Heat Pump Ground Source_SH</v>
+      </c>
+      <c r="AU107" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N7</v>
-      </c>
-      <c r="AT107" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Heat Pump Ground Source_SH</v>
-      </c>
-      <c r="AU107" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV107" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV107" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY107" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY107" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33753,19 +33748,19 @@
         <v/>
       </c>
       <c r="AK108" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL108" s="40"/>
       <c r="AM108" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN108" s="211"/>
       <c r="AO108" s="211"/>
       <c r="AP108" s="172"/>
       <c r="AQ108" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR108" s="42" t="str">
@@ -33773,23 +33768,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS108" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_ELC_N8</v>
+      </c>
+      <c r="AT108" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Heat Pump Ground Source_SH-SC</v>
+      </c>
+      <c r="AU108" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_ELC_N8</v>
-      </c>
-      <c r="AT108" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Heat Pump Ground Source_SH-SC</v>
-      </c>
-      <c r="AU108" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV108" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV108" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY108" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY108" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -33924,19 +33919,19 @@
         <v/>
       </c>
       <c r="AK109" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL109" s="40"/>
       <c r="AM109" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN109" s="211"/>
       <c r="AO109" s="211"/>
       <c r="AP109" s="172"/>
       <c r="AQ109" s="42" t="str">
-        <f t="shared" ref="AQ109" si="48">IF(LEFT(A109)="*",A109,"PRE")</f>
+        <f t="shared" ref="AQ109" si="47">IF(LEFT(A109)="*",A109,"PRE")</f>
         <v>PRE</v>
       </c>
       <c r="AR109" s="42" t="str">
@@ -33944,23 +33939,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS109" s="42" t="str">
-        <f t="shared" ref="AS109" si="49">IF(LEFT($A109)="*","",A109)</f>
+        <f t="shared" ref="AS109" si="48">IF(LEFT($A109)="*","",A109)</f>
         <v>S-SH-PU_ELC_N9</v>
       </c>
       <c r="AT109" s="42" t="str">
-        <f t="shared" ref="AT109" si="50">IF(LEFT($A109)="*","",B109)</f>
+        <f t="shared" ref="AT109" si="49">IF(LEFT($A109)="*","",B109)</f>
         <v>Public Services - Centralized Air-to-Air heat pump_SH-SC</v>
       </c>
       <c r="AU109" s="42" t="str">
+        <f t="shared" si="41"/>
+        <v>PJ</v>
+      </c>
+      <c r="AV109" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV109" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY109" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY109" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -34095,19 +34090,19 @@
         <v/>
       </c>
       <c r="AK110" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL110" s="40"/>
       <c r="AM110" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN110" s="211"/>
       <c r="AO110" s="211"/>
       <c r="AP110" s="172"/>
       <c r="AQ110" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR110" s="42" t="str">
@@ -34115,23 +34110,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS110" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_GAS_N5</v>
+      </c>
+      <c r="AT110" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Gas-driven Heat Pump absorption_SH-WH</v>
+      </c>
+      <c r="AU110" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_GAS_N5</v>
-      </c>
-      <c r="AT110" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Gas-driven Heat Pump absorption_SH-WH</v>
-      </c>
-      <c r="AU110" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV110" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV110" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY110" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY110" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -34266,19 +34261,19 @@
         <v/>
       </c>
       <c r="AK111" s="69">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL111" s="46"/>
       <c r="AM111" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN111" s="211"/>
       <c r="AO111" s="211"/>
       <c r="AP111" s="172"/>
       <c r="AQ111" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR111" s="45" t="str">
@@ -34286,25 +34281,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS111" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_GAS_N6</v>
+      </c>
+      <c r="AT111" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Gas-driven Heat Pump engine_SH-WH</v>
+      </c>
+      <c r="AU111" s="45" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_GAS_N6</v>
-      </c>
-      <c r="AT111" s="45" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Gas-driven Heat Pump engine_SH-WH</v>
-      </c>
-      <c r="AU111" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV111" s="45" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV111" s="45" t="str">
-        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW111" s="45"/>
       <c r="AX111" s="45"/>
       <c r="AY111" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>YES</v>
       </c>
     </row>
@@ -34360,7 +34355,7 @@
       <c r="AO112" s="211"/>
       <c r="AP112" s="172"/>
       <c r="AQ112" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>*District Heating</v>
       </c>
       <c r="AR112" s="57" t="str">
@@ -34368,25 +34363,25 @@
         <v/>
       </c>
       <c r="AS112" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AT112" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AU112" s="57" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AT112" s="57" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AU112" s="57" t="str">
+      <c r="AV112" s="57" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AV112" s="57" t="str">
-        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW112" s="57"/>
       <c r="AX112" s="57"/>
       <c r="AY112" s="57" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -34450,23 +34445,23 @@
       </c>
       <c r="P113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!P29=0,"",SRV_TH!P29))</f>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!Q29=0,"",SRV_TH!Q29))</f>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!R29=0,"",SRV_TH!R29))</f>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!S29=0,"",SRV_TH!S29))</f>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T113" s="262">
         <f>IF($A113="*","",IF(SRV_TH!T29=0,"",SRV_TH!T29))</f>
-        <v>0.90299999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U113" s="212">
         <f>IF($A113="*","",IF(SRV_TH!U29=0,"",SRV_TH!U29))</f>
@@ -34523,14 +34518,14 @@
       </c>
       <c r="AL113" s="210"/>
       <c r="AM113" s="208">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN113" s="176"/>
       <c r="AO113" s="176"/>
       <c r="AP113" s="172"/>
       <c r="AQ113" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR113" s="45" t="str">
@@ -34538,25 +34533,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS113" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SH-PU_HET_N1</v>
+      </c>
+      <c r="AT113" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Centralized DistrictH_Heat Exchanger_SH-WH</v>
+      </c>
+      <c r="AU113" s="45" t="str">
         <f t="shared" si="41"/>
-        <v>S-SH-PU_HET_N1</v>
-      </c>
-      <c r="AT113" s="45" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Centralized DistrictH_Heat Exchanger_SH-WH</v>
-      </c>
-      <c r="AU113" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV113" s="45" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV113" s="45" t="str">
-        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW113" s="45"/>
       <c r="AX113" s="45"/>
       <c r="AY113" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>YES</v>
       </c>
     </row>
@@ -34612,7 +34607,7 @@
       <c r="AO114" s="211"/>
       <c r="AP114" s="172"/>
       <c r="AQ114" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>*Water Heat-only</v>
       </c>
       <c r="AR114" s="57" t="str">
@@ -34620,25 +34615,25 @@
         <v/>
       </c>
       <c r="AS114" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AT114" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AU114" s="57" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AT114" s="57" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AU114" s="57" t="str">
+      <c r="AV114" s="57" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AV114" s="57" t="str">
-        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW114" s="57"/>
       <c r="AX114" s="57"/>
       <c r="AY114" s="57" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -34774,14 +34769,14 @@
       </c>
       <c r="AL115" s="84"/>
       <c r="AM115" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN115" s="211"/>
       <c r="AO115" s="211"/>
       <c r="AP115" s="172"/>
       <c r="AQ115" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR115" s="42" t="str">
@@ -34789,23 +34784,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS115" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-WH-PU_ELC_N1</v>
+      </c>
+      <c r="AT115" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Electric water heater_WH</v>
+      </c>
+      <c r="AU115" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-WH-PU_ELC_N1</v>
-      </c>
-      <c r="AT115" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Electric water heater_WH</v>
-      </c>
-      <c r="AU115" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV115" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV115" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY115" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY115" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -34941,14 +34936,14 @@
       </c>
       <c r="AL116" s="40"/>
       <c r="AM116" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN116" s="211"/>
       <c r="AO116" s="211"/>
       <c r="AP116" s="172"/>
       <c r="AQ116" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR116" s="42" t="str">
@@ -34956,23 +34951,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS116" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-WH-PU_SOL_N1</v>
+      </c>
+      <c r="AT116" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Solar water heater_WH</v>
+      </c>
+      <c r="AU116" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-WH-PU_SOL_N1</v>
-      </c>
-      <c r="AT116" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Solar water heater_WH</v>
-      </c>
-      <c r="AU116" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV116" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV116" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY116" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY116" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -35108,14 +35103,14 @@
       </c>
       <c r="AL117" s="84"/>
       <c r="AM117" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN117" s="172"/>
       <c r="AO117" s="172"/>
       <c r="AP117" s="172"/>
       <c r="AQ117" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR117" s="42" t="str">
@@ -35123,23 +35118,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS117" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-WH-PU_GAS_N1</v>
+      </c>
+      <c r="AT117" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Gas water heater_WH</v>
+      </c>
+      <c r="AU117" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-WH-PU_GAS_N1</v>
-      </c>
-      <c r="AT117" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Gas water heater_WH</v>
-      </c>
-      <c r="AU117" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV117" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV117" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY117" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY117" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -35270,19 +35265,19 @@
         <v/>
       </c>
       <c r="AK118" s="68">
-        <f t="shared" ref="AK118:AK119" si="51">IF($A118="*","",31.536)</f>
+        <f t="shared" ref="AK118:AK119" si="50">IF($A118="*","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
       <c r="AL118" s="84"/>
       <c r="AM118" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN118" s="172"/>
       <c r="AO118" s="172"/>
       <c r="AP118" s="172"/>
       <c r="AQ118" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR118" s="42" t="str">
@@ -35290,23 +35285,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS118" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-WH-PU_BIO_N1</v>
+      </c>
+      <c r="AT118" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Biomass water heater_WH</v>
+      </c>
+      <c r="AU118" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-WH-PU_BIO_N1</v>
-      </c>
-      <c r="AT118" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Biomass water heater_WH</v>
-      </c>
-      <c r="AU118" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV118" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV118" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY118" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY118" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -35438,19 +35433,19 @@
         <v/>
       </c>
       <c r="AK119" s="214">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>31.536000000000001</v>
       </c>
       <c r="AL119" s="71"/>
       <c r="AM119" s="208">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN119" s="211"/>
       <c r="AO119" s="211"/>
       <c r="AP119" s="172"/>
       <c r="AQ119" s="45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR119" s="45" t="str">
@@ -35458,25 +35453,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS119" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>S-WH-PU_LPG_N1</v>
+      </c>
+      <c r="AT119" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - LPG water heater_WH</v>
+      </c>
+      <c r="AU119" s="45" t="str">
         <f t="shared" si="41"/>
-        <v>S-WH-PU_LPG_N1</v>
-      </c>
-      <c r="AT119" s="45" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - LPG water heater_WH</v>
-      </c>
-      <c r="AU119" s="45" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV119" s="45" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV119" s="45" t="str">
-        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW119" s="45"/>
       <c r="AX119" s="45"/>
       <c r="AY119" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>YES</v>
       </c>
     </row>
@@ -35532,7 +35527,7 @@
       <c r="AO120" s="211"/>
       <c r="AP120" s="172"/>
       <c r="AQ120" s="57" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>*Cooling-only</v>
       </c>
       <c r="AR120" s="57" t="str">
@@ -35540,25 +35535,25 @@
         <v/>
       </c>
       <c r="AS120" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AT120" s="57" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AU120" s="57" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AT120" s="57" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AU120" s="57" t="str">
+      <c r="AV120" s="57" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AV120" s="57" t="str">
-        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AW120" s="57"/>
       <c r="AX120" s="57"/>
       <c r="AY120" s="57" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -35694,14 +35689,14 @@
       </c>
       <c r="AL121" s="84"/>
       <c r="AM121" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN121" s="172"/>
       <c r="AO121" s="172"/>
       <c r="AP121" s="172"/>
       <c r="AQ121" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>PRE</v>
       </c>
       <c r="AR121" s="42" t="str">
@@ -35709,23 +35704,23 @@
         <v>IE,National</v>
       </c>
       <c r="AS121" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>S-SC-PU_ELC_N1</v>
+      </c>
+      <c r="AT121" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>Public Services - Room air conditioning Air-to-Air_SC</v>
+      </c>
+      <c r="AU121" s="42" t="str">
         <f t="shared" si="41"/>
-        <v>S-SC-PU_ELC_N1</v>
-      </c>
-      <c r="AT121" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>Public Services - Room air conditioning Air-to-Air_SC</v>
-      </c>
-      <c r="AU121" s="42" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="AV121" s="42" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV121" s="42" t="str">
+        <v>GW</v>
+      </c>
+      <c r="AY121" s="42" t="str">
         <f t="shared" si="43"/>
-        <v>GW</v>
-      </c>
-      <c r="AY121" s="42" t="str">
-        <f t="shared" si="44"/>
         <v>YES</v>
       </c>
     </row>
@@ -35862,13 +35857,13 @@
       </c>
       <c r="AL122" s="71"/>
       <c r="AM122" s="208">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2019</v>
       </c>
       <c r="AN122" s="85"/>
       <c r="AO122" s="85"/>
       <c r="AQ122" s="45" t="str">
-        <f t="shared" ref="AQ122" si="52">IF(LEFT(A122)="*",A122,"PRE")</f>
+        <f t="shared" ref="AQ122" si="51">IF(LEFT(A122)="*",A122,"PRE")</f>
         <v>PRE</v>
       </c>
       <c r="AR122" s="45" t="str">
@@ -35876,25 +35871,25 @@
         <v>IE,National</v>
       </c>
       <c r="AS122" s="45" t="str">
-        <f t="shared" ref="AS122" si="53">IF(LEFT($A122)="*","",A122)</f>
+        <f t="shared" ref="AS122" si="52">IF(LEFT($A122)="*","",A122)</f>
         <v>S-SC-PU_ELC_N2</v>
       </c>
       <c r="AT122" s="45" t="str">
-        <f t="shared" ref="AT122" si="54">IF(LEFT($A122)="*","",B122)</f>
+        <f t="shared" ref="AT122" si="53">IF(LEFT($A122)="*","",B122)</f>
         <v>Public Services - Centralized air conditioning_SC</v>
       </c>
       <c r="AU122" s="45" t="str">
+        <f t="shared" si="41"/>
+        <v>PJ</v>
+      </c>
+      <c r="AV122" s="45" t="str">
         <f t="shared" si="42"/>
-        <v>PJ</v>
-      </c>
-      <c r="AV122" s="45" t="str">
-        <f t="shared" si="43"/>
         <v>GW</v>
       </c>
       <c r="AW122" s="45"/>
       <c r="AX122" s="45"/>
       <c r="AY122" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>YES</v>
       </c>
     </row>
@@ -56656,6 +56651,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -56668,11 +56668,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -56681,6 +56676,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003D35AAEA1B2FCB4388BD96CEDC55F277" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3dbe2424fad29e82dbed878f9c5e39b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8" xmlns:ns3="5976181e-0ba6-4027-87bb-22a58e318fb6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13ef504368312e798a12ea4dafd4e8bd" ns2:_="" ns3:_="">
     <xsd:import namespace="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8"/>
@@ -56877,15 +56881,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -56893,6 +56888,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BAA8BF1-CC80-4539-9D14-46D49F0014CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56911,14 +56914,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
   <ds:schemaRefs>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721B3F7F-AC28-4910-AD8E-F127499E129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5F3E37-31DB-40CE-AA73-570A1A6C314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13679,10 +13679,6 @@
     <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="117" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13692,6 +13688,10 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18595,46 +18595,46 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="369" t="s">
+      <c r="A3" s="365" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="369" t="s">
+      <c r="B3" s="365" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="369" t="s">
+      <c r="C3" s="365" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="371" t="s">
+      <c r="D3" s="367" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="371"/>
-      <c r="F3" s="369" t="s">
+      <c r="E3" s="367"/>
+      <c r="F3" s="365" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="369" t="s">
+      <c r="G3" s="365" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="369" t="s">
+      <c r="H3" s="365" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="369" t="s">
+      <c r="I3" s="365" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="370"/>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
+      <c r="A4" s="366"/>
+      <c r="B4" s="366"/>
+      <c r="C4" s="366"/>
       <c r="D4" s="59" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="370"/>
-      <c r="I4" s="370"/>
+      <c r="F4" s="366"/>
+      <c r="G4" s="366"/>
+      <c r="H4" s="366"/>
+      <c r="I4" s="366"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
@@ -18720,18 +18720,18 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="162"/>
-      <c r="B11" s="365" t="str">
+      <c r="B11" s="368" t="str">
         <f>"Data summary table with data from "&amp;A5</f>
         <v>Data summary table with data from S1</v>
       </c>
-      <c r="C11" s="366"/>
+      <c r="C11" s="369"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="367" t="s">
+      <c r="B12" s="370" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="368"/>
+      <c r="C12" s="371"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
@@ -19100,16 +19100,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19890,11 +19890,11 @@
   <dimension ref="A1:AY122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AG69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomRight" activeCell="AR87" sqref="AR87"/>
+      <selection pane="bottomRight" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28182,7 +28182,8 @@
         <v>SRVSH-CS, SRVWH-CS</v>
       </c>
       <c r="F72" s="215">
-        <v>1.4</v>
+        <f>IF($A72="*","",IF(SRV_TH!F29=0,"",SRV_TH!F29))</f>
+        <v>1.29</v>
       </c>
       <c r="G72" s="215">
         <f>IF($A72="*","",IF(SRV_TH!G29=0,"",SRV_TH!G29))</f>
@@ -53480,6 +53481,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -53492,11 +53498,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53702,18 +53703,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53736,18 +53737,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5F3E37-31DB-40CE-AA73-570A1A6C314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4687B456-14D7-408E-8594-352BACD06D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="78" r:id="rId1"/>
@@ -13679,6 +13679,10 @@
     <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="117" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13688,10 +13692,6 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18595,46 +18595,46 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="365" t="s">
+      <c r="A3" s="369" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="365" t="s">
+      <c r="B3" s="369" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="365" t="s">
+      <c r="C3" s="369" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="367" t="s">
+      <c r="D3" s="371" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="367"/>
-      <c r="F3" s="365" t="s">
+      <c r="E3" s="371"/>
+      <c r="F3" s="369" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="365" t="s">
+      <c r="G3" s="369" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="365" t="s">
+      <c r="H3" s="369" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="365" t="s">
+      <c r="I3" s="369" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="366"/>
-      <c r="B4" s="366"/>
-      <c r="C4" s="366"/>
+      <c r="A4" s="370"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
       <c r="D4" s="59" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="366"/>
-      <c r="G4" s="366"/>
-      <c r="H4" s="366"/>
-      <c r="I4" s="366"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="370"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
@@ -18720,18 +18720,18 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="162"/>
-      <c r="B11" s="368" t="str">
+      <c r="B11" s="365" t="str">
         <f>"Data summary table with data from "&amp;A5</f>
         <v>Data summary table with data from S1</v>
       </c>
-      <c r="C11" s="369"/>
+      <c r="C11" s="366"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="370" t="s">
+      <c r="B12" s="367" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="371"/>
+      <c r="C12" s="368"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
@@ -19100,16 +19100,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19890,11 +19890,11 @@
   <dimension ref="A1:AY122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="R10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomRight" activeCell="I77" sqref="I77"/>
+      <selection pane="bottomRight" activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22926,16 +22926,19 @@
         <v>250</v>
       </c>
       <c r="AC29" s="292">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AD29" s="292">
-        <v>189.2</v>
+        <f>AC29*0.945</f>
+        <v>37.799999999999997</v>
       </c>
       <c r="AE29" s="292">
-        <v>178.4</v>
+        <f>AC29*0.89</f>
+        <v>35.6</v>
       </c>
       <c r="AF29" s="292">
-        <v>168.5</v>
+        <f>AC29*0.845</f>
+        <v>33.799999999999997</v>
       </c>
       <c r="AG29" s="293">
         <f>'JRC data'!CG62</f>
@@ -28260,19 +28263,19 @@
       </c>
       <c r="AC72" s="34">
         <f>IF($A72="*","",IF(SRV_TH!AC29=0,"",SRV_TH!AC29))</f>
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AD72" s="34">
         <f>IF($A72="*","",IF(SRV_TH!AD29=0,"",SRV_TH!AD29))</f>
-        <v>189.2</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AE72" s="34">
         <f>IF($A72="*","",IF(SRV_TH!AE29=0,"",SRV_TH!AE29))</f>
-        <v>178.4</v>
+        <v>35.6</v>
       </c>
       <c r="AF72" s="34">
         <f>IF($A72="*","",IF(SRV_TH!AF29=0,"",SRV_TH!AF29))</f>
-        <v>168.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="AG72" s="38">
         <f>IF($A72="*","",IF(SRV_TH!AG29=0,"",SRV_TH!AG29))</f>
@@ -34096,19 +34099,19 @@
       </c>
       <c r="AC113" s="34">
         <f>IF($A113="*","",IF(SRV_TH!AC29=0,"",SRV_TH!AC29))</f>
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AD113" s="34">
         <f>IF($A113="*","",IF(SRV_TH!AD29=0,"",SRV_TH!AD29))</f>
-        <v>189.2</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AE113" s="34">
         <f>IF($A113="*","",IF(SRV_TH!AE29=0,"",SRV_TH!AE29))</f>
-        <v>178.4</v>
+        <v>35.6</v>
       </c>
       <c r="AF113" s="34">
         <f>IF($A113="*","",IF(SRV_TH!AF29=0,"",SRV_TH!AF29))</f>
-        <v>168.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="AG113" s="38">
         <f>IF($A113="*","",IF(SRV_TH!AG29=0,"",SRV_TH!AG29))</f>
@@ -53481,11 +53484,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -53498,6 +53496,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53506,6 +53509,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003D35AAEA1B2FCB4388BD96CEDC55F277" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3dbe2424fad29e82dbed878f9c5e39b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8" xmlns:ns3="5976181e-0ba6-4027-87bb-22a58e318fb6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13ef504368312e798a12ea4dafd4e8bd" ns2:_="" ns3:_="">
     <xsd:import namespace="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8"/>
@@ -53702,12 +53711,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -53718,6 +53721,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BAA8BF1-CC80-4539-9D14-46D49F0014CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -53736,15 +53748,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
   <ds:schemaRefs>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4687B456-14D7-408E-8594-352BACD06D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C55935A-2970-4995-B008-3FDC3D556269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2430" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="789" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="78" r:id="rId1"/>
@@ -13679,10 +13679,6 @@
     <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="117" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13692,6 +13688,10 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18595,46 +18595,46 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="369" t="s">
+      <c r="A3" s="365" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="369" t="s">
+      <c r="B3" s="365" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="369" t="s">
+      <c r="C3" s="365" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="371" t="s">
+      <c r="D3" s="367" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="371"/>
-      <c r="F3" s="369" t="s">
+      <c r="E3" s="367"/>
+      <c r="F3" s="365" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="369" t="s">
+      <c r="G3" s="365" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="369" t="s">
+      <c r="H3" s="365" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="369" t="s">
+      <c r="I3" s="365" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="370"/>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
+      <c r="A4" s="366"/>
+      <c r="B4" s="366"/>
+      <c r="C4" s="366"/>
       <c r="D4" s="59" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="370"/>
-      <c r="I4" s="370"/>
+      <c r="F4" s="366"/>
+      <c r="G4" s="366"/>
+      <c r="H4" s="366"/>
+      <c r="I4" s="366"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
@@ -18720,18 +18720,18 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="162"/>
-      <c r="B11" s="365" t="str">
+      <c r="B11" s="368" t="str">
         <f>"Data summary table with data from "&amp;A5</f>
         <v>Data summary table with data from S1</v>
       </c>
-      <c r="C11" s="366"/>
+      <c r="C11" s="369"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="367" t="s">
+      <c r="B12" s="370" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="368"/>
+      <c r="C12" s="371"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
@@ -19100,16 +19100,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19889,7 +19889,7 @@
   </sheetPr>
   <dimension ref="A1:AY122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="R10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
@@ -36587,8 +36587,8 @@
   </sheetPr>
   <dimension ref="A1:AV49"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -53484,6 +53484,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -53496,11 +53501,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53509,9 +53509,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53712,19 +53715,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -53749,9 +53748,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C55935A-2970-4995-B008-3FDC3D556269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DD0E2D-0126-45E8-B2F7-3444F93AB633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2430" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="789" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="78" r:id="rId1"/>
@@ -13679,6 +13679,10 @@
     <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="117" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13688,10 +13692,6 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18595,46 +18595,46 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="365" t="s">
+      <c r="A3" s="369" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="365" t="s">
+      <c r="B3" s="369" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="365" t="s">
+      <c r="C3" s="369" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="367" t="s">
+      <c r="D3" s="371" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="367"/>
-      <c r="F3" s="365" t="s">
+      <c r="E3" s="371"/>
+      <c r="F3" s="369" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="365" t="s">
+      <c r="G3" s="369" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="365" t="s">
+      <c r="H3" s="369" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="365" t="s">
+      <c r="I3" s="369" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="366"/>
-      <c r="B4" s="366"/>
-      <c r="C4" s="366"/>
+      <c r="A4" s="370"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
       <c r="D4" s="59" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="366"/>
-      <c r="G4" s="366"/>
-      <c r="H4" s="366"/>
-      <c r="I4" s="366"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="370"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
@@ -18720,18 +18720,18 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="162"/>
-      <c r="B11" s="368" t="str">
+      <c r="B11" s="365" t="str">
         <f>"Data summary table with data from "&amp;A5</f>
         <v>Data summary table with data from S1</v>
       </c>
-      <c r="C11" s="369"/>
+      <c r="C11" s="366"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="370" t="s">
+      <c r="B12" s="367" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="371"/>
+      <c r="C12" s="368"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
@@ -19100,16 +19100,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19889,12 +19889,12 @@
   </sheetPr>
   <dimension ref="A1:AY122"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="R10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="R45" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomRight" activeCell="AF30" sqref="AF30"/>
+      <selection pane="bottomRight" activeCell="AC72" sqref="AC72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22902,28 +22902,28 @@
       </c>
       <c r="V29" s="291"/>
       <c r="W29" s="292">
-        <f>'JRC data'!BB62</f>
-        <v>2500</v>
+        <f>'JRC data'!BB62*0.8</f>
+        <v>2000</v>
       </c>
       <c r="X29" s="292">
-        <f>'JRC data'!BC62</f>
-        <v>2500</v>
+        <f>'JRC data'!BC62*0.8</f>
+        <v>2000</v>
       </c>
       <c r="Y29" s="292">
-        <f>'JRC data'!BD62</f>
-        <v>2500</v>
+        <f>'JRC data'!BD62*0.8</f>
+        <v>2000</v>
       </c>
       <c r="Z29" s="292">
-        <f>'JRC data'!BE62</f>
-        <v>2500</v>
+        <f>'JRC data'!BE62*0.8</f>
+        <v>2000</v>
       </c>
       <c r="AA29" s="292">
-        <f>'JRC data'!BF62</f>
-        <v>2500</v>
+        <f>'JRC data'!BF62*0.8</f>
+        <v>2000</v>
       </c>
       <c r="AB29" s="292">
         <f>W29/'JRC data'!D62</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AC29" s="292">
         <v>40</v>
@@ -28259,7 +28259,7 @@
       <c r="AA72" s="34"/>
       <c r="AB72" s="34">
         <f>IF($A72="*","",IF(SRV_TH!AB29=0,"",SRV_TH!AB29))</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AC72" s="34">
         <f>IF($A72="*","",IF(SRV_TH!AC29=0,"",SRV_TH!AC29))</f>
@@ -34095,7 +34095,7 @@
       <c r="AA113" s="34"/>
       <c r="AB113" s="34">
         <f>IF($A113="*","",IF(SRV_TH!AB29=0,"",SRV_TH!AB29))</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AC113" s="34">
         <f>IF($A113="*","",IF(SRV_TH!AC29=0,"",SRV_TH!AC29))</f>
@@ -36587,7 +36587,7 @@
   </sheetPr>
   <dimension ref="A1:AV49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
@@ -38325,7 +38325,7 @@
   <dimension ref="A1:CM70"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="BF28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -53484,11 +53484,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -53501,6 +53496,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53509,12 +53509,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53715,15 +53712,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -53748,10 +53749,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5F3E37-31DB-40CE-AA73-570A1A6C314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DD0E2D-0126-45E8-B2F7-3444F93AB633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="78" r:id="rId1"/>
@@ -13679,6 +13679,10 @@
     <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="117" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13688,10 +13692,6 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18595,46 +18595,46 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="365" t="s">
+      <c r="A3" s="369" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="365" t="s">
+      <c r="B3" s="369" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="365" t="s">
+      <c r="C3" s="369" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="367" t="s">
+      <c r="D3" s="371" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="367"/>
-      <c r="F3" s="365" t="s">
+      <c r="E3" s="371"/>
+      <c r="F3" s="369" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="365" t="s">
+      <c r="G3" s="369" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="365" t="s">
+      <c r="H3" s="369" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="365" t="s">
+      <c r="I3" s="369" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="366"/>
-      <c r="B4" s="366"/>
-      <c r="C4" s="366"/>
+      <c r="A4" s="370"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
       <c r="D4" s="59" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="366"/>
-      <c r="G4" s="366"/>
-      <c r="H4" s="366"/>
-      <c r="I4" s="366"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="370"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
@@ -18720,18 +18720,18 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="162"/>
-      <c r="B11" s="368" t="str">
+      <c r="B11" s="365" t="str">
         <f>"Data summary table with data from "&amp;A5</f>
         <v>Data summary table with data from S1</v>
       </c>
-      <c r="C11" s="369"/>
+      <c r="C11" s="366"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="370" t="s">
+      <c r="B12" s="367" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="371"/>
+      <c r="C12" s="368"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
@@ -19100,16 +19100,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19890,11 +19890,11 @@
   <dimension ref="A1:AY122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="R45" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomRight" activeCell="I77" sqref="I77"/>
+      <selection pane="bottomRight" activeCell="AC72" sqref="AC72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22902,40 +22902,43 @@
       </c>
       <c r="V29" s="291"/>
       <c r="W29" s="292">
-        <f>'JRC data'!BB62</f>
-        <v>2500</v>
+        <f>'JRC data'!BB62*0.8</f>
+        <v>2000</v>
       </c>
       <c r="X29" s="292">
-        <f>'JRC data'!BC62</f>
-        <v>2500</v>
+        <f>'JRC data'!BC62*0.8</f>
+        <v>2000</v>
       </c>
       <c r="Y29" s="292">
-        <f>'JRC data'!BD62</f>
-        <v>2500</v>
+        <f>'JRC data'!BD62*0.8</f>
+        <v>2000</v>
       </c>
       <c r="Z29" s="292">
-        <f>'JRC data'!BE62</f>
-        <v>2500</v>
+        <f>'JRC data'!BE62*0.8</f>
+        <v>2000</v>
       </c>
       <c r="AA29" s="292">
-        <f>'JRC data'!BF62</f>
-        <v>2500</v>
+        <f>'JRC data'!BF62*0.8</f>
+        <v>2000</v>
       </c>
       <c r="AB29" s="292">
         <f>W29/'JRC data'!D62</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AC29" s="292">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AD29" s="292">
-        <v>189.2</v>
+        <f>AC29*0.945</f>
+        <v>37.799999999999997</v>
       </c>
       <c r="AE29" s="292">
-        <v>178.4</v>
+        <f>AC29*0.89</f>
+        <v>35.6</v>
       </c>
       <c r="AF29" s="292">
-        <v>168.5</v>
+        <f>AC29*0.845</f>
+        <v>33.799999999999997</v>
       </c>
       <c r="AG29" s="293">
         <f>'JRC data'!CG62</f>
@@ -28256,23 +28259,23 @@
       <c r="AA72" s="34"/>
       <c r="AB72" s="34">
         <f>IF($A72="*","",IF(SRV_TH!AB29=0,"",SRV_TH!AB29))</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AC72" s="34">
         <f>IF($A72="*","",IF(SRV_TH!AC29=0,"",SRV_TH!AC29))</f>
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AD72" s="34">
         <f>IF($A72="*","",IF(SRV_TH!AD29=0,"",SRV_TH!AD29))</f>
-        <v>189.2</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AE72" s="34">
         <f>IF($A72="*","",IF(SRV_TH!AE29=0,"",SRV_TH!AE29))</f>
-        <v>178.4</v>
+        <v>35.6</v>
       </c>
       <c r="AF72" s="34">
         <f>IF($A72="*","",IF(SRV_TH!AF29=0,"",SRV_TH!AF29))</f>
-        <v>168.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="AG72" s="38">
         <f>IF($A72="*","",IF(SRV_TH!AG29=0,"",SRV_TH!AG29))</f>
@@ -34092,23 +34095,23 @@
       <c r="AA113" s="34"/>
       <c r="AB113" s="34">
         <f>IF($A113="*","",IF(SRV_TH!AB29=0,"",SRV_TH!AB29))</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AC113" s="34">
         <f>IF($A113="*","",IF(SRV_TH!AC29=0,"",SRV_TH!AC29))</f>
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AD113" s="34">
         <f>IF($A113="*","",IF(SRV_TH!AD29=0,"",SRV_TH!AD29))</f>
-        <v>189.2</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AE113" s="34">
         <f>IF($A113="*","",IF(SRV_TH!AE29=0,"",SRV_TH!AE29))</f>
-        <v>178.4</v>
+        <v>35.6</v>
       </c>
       <c r="AF113" s="34">
         <f>IF($A113="*","",IF(SRV_TH!AF29=0,"",SRV_TH!AF29))</f>
-        <v>168.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="AG113" s="38">
         <f>IF($A113="*","",IF(SRV_TH!AG29=0,"",SRV_TH!AG29))</f>
@@ -36584,8 +36587,8 @@
   </sheetPr>
   <dimension ref="A1:AV49"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -38322,7 +38325,7 @@
   <dimension ref="A1:CM70"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="BF28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -53481,11 +53484,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -53498,6 +53496,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53506,6 +53509,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003D35AAEA1B2FCB4388BD96CEDC55F277" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3dbe2424fad29e82dbed878f9c5e39b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8" xmlns:ns3="5976181e-0ba6-4027-87bb-22a58e318fb6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13ef504368312e798a12ea4dafd4e8bd" ns2:_="" ns3:_="">
     <xsd:import namespace="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8"/>
@@ -53702,12 +53711,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -53718,6 +53721,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BAA8BF1-CC80-4539-9D14-46D49F0014CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -53736,15 +53748,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
   <ds:schemaRefs>
